--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -451,17 +451,13 @@
         <v>356</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>357</v>
-      </c>
-      <c r="K2" t="n">
-        <v>357</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>359</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>357</v>
-      </c>
-      <c r="K3" t="n">
-        <v>357</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>361</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>357</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>364</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>362</v>
-      </c>
-      <c r="K5" t="n">
-        <v>357</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>365.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>364</v>
-      </c>
-      <c r="K6" t="n">
-        <v>357</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -665,17 +629,11 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>357</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -709,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>357</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -750,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>357</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>357</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -832,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>357</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>357</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -914,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>357</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -952,19 +874,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>357</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1.017408963585434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -993,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1028,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2880,14 +2796,20 @@
         <v>356.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>358</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2837,20 @@
         <v>355.5</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>355</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2878,20 @@
         <v>355.5</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>356</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2985,14 +2919,20 @@
         <v>355.5</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>355</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3028,10 +2968,12 @@
       <c r="J73" t="n">
         <v>356</v>
       </c>
-      <c r="K73" t="n">
-        <v>356</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +3007,12 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>357</v>
-      </c>
-      <c r="K74" t="n">
-        <v>356</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3108,14 +3048,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>358</v>
-      </c>
-      <c r="K75" t="n">
-        <v>356</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3145,14 +3083,20 @@
         <v>356.5</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>358</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3180,14 +3124,20 @@
         <v>356.5</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>355</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3221,12 +3171,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3256,14 +3206,12 @@
         <v>354</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>356</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3414,14 +3362,12 @@
         <v>355</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>355</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3455,14 +3401,12 @@
         <v>355</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>355</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3496,14 +3440,12 @@
         <v>355.5</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>356</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3537,14 +3479,12 @@
         <v>356</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>356</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3578,14 +3518,12 @@
         <v>356.5</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>357</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3619,14 +3557,12 @@
         <v>355</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>354</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3660,14 +3596,12 @@
         <v>354.5</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>353</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3701,14 +3635,12 @@
         <v>354.5</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>354</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3742,14 +3674,12 @@
         <v>353.5</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>354</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3783,14 +3713,12 @@
         <v>354</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>354</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3824,14 +3752,12 @@
         <v>355</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>356</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3865,14 +3791,12 @@
         <v>355</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>354</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3906,14 +3830,12 @@
         <v>354</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>354</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3947,14 +3869,12 @@
         <v>354.5</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>355</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3988,14 +3908,12 @@
         <v>355</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>355</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4029,14 +3947,12 @@
         <v>355.5</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>355</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4070,14 +3986,12 @@
         <v>356</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>356</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4111,14 +4025,12 @@
         <v>356</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>356</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4152,14 +4064,12 @@
         <v>356</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>356</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4193,14 +4103,12 @@
         <v>360</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>356</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4234,14 +4142,12 @@
         <v>364</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>364</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4275,14 +4181,12 @@
         <v>362</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>364</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4547,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4582,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4687,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4722,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D2" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>6280.1229</v>
       </c>
       <c r="G2" t="n">
-        <v>356</v>
+        <v>356.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>357</v>
       </c>
       <c r="C3" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D3" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E3" t="n">
         <v>357</v>
       </c>
       <c r="F3" t="n">
-        <v>551.2125</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>359</v>
+        <v>356.3333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C4" t="n">
         <v>361</v>
@@ -512,13 +512,13 @@
         <v>361</v>
       </c>
       <c r="E4" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F4" t="n">
-        <v>55.401</v>
+        <v>551.2125</v>
       </c>
       <c r="G4" t="n">
-        <v>361</v>
+        <v>356.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C5" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D5" t="n">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E5" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" t="n">
-        <v>1977.0982</v>
+        <v>55.401</v>
       </c>
       <c r="G5" t="n">
-        <v>364</v>
+        <v>356.4666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D6" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E6" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F6" t="n">
-        <v>98.0497</v>
+        <v>1977.0982</v>
       </c>
       <c r="G6" t="n">
-        <v>365.5</v>
+        <v>356.6666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C7" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D7" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E7" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F7" t="n">
-        <v>93.8878</v>
+        <v>98.0497</v>
       </c>
       <c r="G7" t="n">
-        <v>362.5</v>
+        <v>356.85</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D8" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E8" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>93.8878</v>
       </c>
       <c r="G8" t="n">
-        <v>362</v>
+        <v>356.9666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C9" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D9" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E9" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F9" t="n">
-        <v>104</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>361.5</v>
+        <v>357.1166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C10" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D10" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E10" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F10" t="n">
-        <v>137.36263736</v>
+        <v>104</v>
       </c>
       <c r="G10" t="n">
-        <v>362</v>
+        <v>357.2166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C11" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D11" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E11" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F11" t="n">
-        <v>1270.7975</v>
+        <v>137.36263736</v>
       </c>
       <c r="G11" t="n">
-        <v>363</v>
+        <v>357.35</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>362</v>
       </c>
       <c r="F12" t="n">
-        <v>137.3626</v>
+        <v>1270.7975</v>
       </c>
       <c r="G12" t="n">
-        <v>362</v>
+        <v>357.45</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C13" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D13" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E13" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>137.3626</v>
       </c>
       <c r="G13" t="n">
-        <v>364</v>
+        <v>357.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D14" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E14" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F14" t="n">
-        <v>1.9295</v>
+        <v>1.4</v>
       </c>
       <c r="G14" t="n">
-        <v>365.5</v>
+        <v>357.7666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C15" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D15" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E15" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F15" t="n">
-        <v>11.2892</v>
+        <v>1.9295</v>
       </c>
       <c r="G15" t="n">
-        <v>363.5</v>
+        <v>357.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C16" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D16" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E16" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F16" t="n">
-        <v>1.4</v>
+        <v>11.2892</v>
       </c>
       <c r="G16" t="n">
-        <v>363.5</v>
+        <v>358.05</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C17" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D17" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E17" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F17" t="n">
-        <v>170.5482</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="n">
-        <v>363.5</v>
+        <v>358.25</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>362</v>
       </c>
       <c r="F18" t="n">
-        <v>239.7896</v>
+        <v>170.5482</v>
       </c>
       <c r="G18" t="n">
-        <v>362</v>
+        <v>358.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>362</v>
       </c>
       <c r="F19" t="n">
-        <v>137.8687</v>
+        <v>239.7896</v>
       </c>
       <c r="G19" t="n">
-        <v>362</v>
+        <v>358.5333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C20" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D20" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E20" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F20" t="n">
-        <v>233.8768</v>
+        <v>137.8687</v>
       </c>
       <c r="G20" t="n">
-        <v>361.5</v>
+        <v>358.6833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D21" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E21" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F21" t="n">
-        <v>111.2337</v>
+        <v>233.8768</v>
       </c>
       <c r="G21" t="n">
-        <v>362.5</v>
+        <v>358.8166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C22" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D22" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E22" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F22" t="n">
-        <v>318.1994</v>
+        <v>111.2337</v>
       </c>
       <c r="G22" t="n">
-        <v>363</v>
+        <v>358.9333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C23" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D23" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E23" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F23" t="n">
-        <v>227.3275</v>
+        <v>318.1994</v>
       </c>
       <c r="G23" t="n">
-        <v>362.5</v>
+        <v>359.0166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C24" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D24" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E24" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F24" t="n">
-        <v>681.8006</v>
+        <v>227.3275</v>
       </c>
       <c r="G24" t="n">
-        <v>362.5</v>
+        <v>359.1166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>362</v>
       </c>
       <c r="F25" t="n">
-        <v>227.3275</v>
+        <v>681.8006</v>
       </c>
       <c r="G25" t="n">
-        <v>362</v>
+        <v>359.1833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D26" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F26" t="n">
-        <v>981.1402</v>
+        <v>227.3275</v>
       </c>
       <c r="G26" t="n">
-        <v>362.5</v>
+        <v>359.25</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C27" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D27" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E27" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F27" t="n">
-        <v>1.4</v>
+        <v>981.1402</v>
       </c>
       <c r="G27" t="n">
-        <v>364</v>
+        <v>359.3333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C28" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D28" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E28" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1044</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>363.5</v>
+        <v>359.4333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C29" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D29" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E29" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F29" t="n">
-        <v>1208.4677</v>
+        <v>234.1044</v>
       </c>
       <c r="G29" t="n">
-        <v>361.5</v>
+        <v>359.4833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C30" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D30" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E30" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F30" t="n">
-        <v>617.5044</v>
+        <v>1208.4677</v>
       </c>
       <c r="G30" t="n">
-        <v>363.5</v>
+        <v>359.5166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C31" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D31" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E31" t="n">
         <v>362</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0503</v>
+        <v>617.5044</v>
       </c>
       <c r="G31" t="n">
-        <v>364</v>
+        <v>359.6333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>365</v>
       </c>
       <c r="C32" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D32" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E32" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F32" t="n">
-        <v>1.4001</v>
+        <v>222.0503</v>
       </c>
       <c r="G32" t="n">
-        <v>364</v>
+        <v>359.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" t="n">
         <v>366</v>
@@ -1527,13 +1527,13 @@
         <v>366</v>
       </c>
       <c r="E33" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F33" t="n">
-        <v>260</v>
+        <v>1.4001</v>
       </c>
       <c r="G33" t="n">
-        <v>366</v>
+        <v>359.8333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>366</v>
       </c>
       <c r="F34" t="n">
-        <v>546</v>
+        <v>260</v>
       </c>
       <c r="G34" t="n">
-        <v>366</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>366</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>546</v>
       </c>
       <c r="G35" t="n">
-        <v>366</v>
+        <v>360.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>366</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>366</v>
+        <v>360.25</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>366</v>
       </c>
       <c r="F37" t="n">
-        <v>13.0468</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>366</v>
+        <v>360.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C38" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D38" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E38" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F38" t="n">
-        <v>990.4965999999999</v>
+        <v>13.0468</v>
       </c>
       <c r="G38" t="n">
-        <v>365</v>
+        <v>360.55</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>362</v>
       </c>
       <c r="C39" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D39" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E39" t="n">
         <v>362</v>
       </c>
       <c r="F39" t="n">
-        <v>165.2</v>
+        <v>990.4965999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>363</v>
+        <v>360.6666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C40" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D40" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E40" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F40" t="n">
-        <v>2624.7586</v>
+        <v>165.2</v>
       </c>
       <c r="G40" t="n">
-        <v>361.5</v>
+        <v>360.75</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>361</v>
       </c>
       <c r="F41" t="n">
-        <v>12.2895</v>
+        <v>2624.7586</v>
       </c>
       <c r="G41" t="n">
-        <v>361</v>
+        <v>360.8333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>361</v>
       </c>
       <c r="F42" t="n">
-        <v>136.9413</v>
+        <v>12.2895</v>
       </c>
       <c r="G42" t="n">
-        <v>361</v>
+        <v>360.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C43" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D43" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E43" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F43" t="n">
-        <v>800.8944</v>
+        <v>136.9413</v>
       </c>
       <c r="G43" t="n">
-        <v>360.5</v>
+        <v>360.9666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>360</v>
       </c>
       <c r="F44" t="n">
-        <v>818.7234</v>
+        <v>800.8944</v>
       </c>
       <c r="G44" t="n">
-        <v>360</v>
+        <v>361.0166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>360</v>
       </c>
       <c r="F45" t="n">
-        <v>588.4212</v>
+        <v>818.7234</v>
       </c>
       <c r="G45" t="n">
-        <v>360</v>
+        <v>361.0666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C46" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D46" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E46" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F46" t="n">
-        <v>1.4</v>
+        <v>588.4212</v>
       </c>
       <c r="G46" t="n">
-        <v>361</v>
+        <v>361.1166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C47" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D47" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E47" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F47" t="n">
-        <v>565.0144</v>
+        <v>1.4</v>
       </c>
       <c r="G47" t="n">
-        <v>361</v>
+        <v>361.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>360</v>
       </c>
       <c r="F48" t="n">
-        <v>1394.9688</v>
+        <v>565.0144</v>
       </c>
       <c r="G48" t="n">
-        <v>360</v>
+        <v>361.25</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C49" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D49" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E49" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F49" t="n">
-        <v>6.2129</v>
+        <v>1394.9688</v>
       </c>
       <c r="G49" t="n">
-        <v>361</v>
+        <v>361.2833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>6.2129</v>
       </c>
       <c r="G50" t="n">
-        <v>361</v>
+        <v>361.35</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>360</v>
       </c>
       <c r="F51" t="n">
-        <v>6.2129</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
-        <v>360</v>
+        <v>361.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>360</v>
       </c>
       <c r="F52" t="n">
-        <v>1595.4202</v>
+        <v>6.2129</v>
       </c>
       <c r="G52" t="n">
-        <v>360</v>
+        <v>361.55</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>95.9194</v>
+        <v>1595.4202</v>
       </c>
       <c r="G53" t="n">
-        <v>360.5</v>
+        <v>361.6166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>361</v>
       </c>
       <c r="F54" t="n">
-        <v>300.0015</v>
+        <v>95.9194</v>
       </c>
       <c r="G54" t="n">
-        <v>361</v>
+        <v>361.75</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>361</v>
       </c>
       <c r="F55" t="n">
-        <v>200.001</v>
+        <v>300.0015</v>
       </c>
       <c r="G55" t="n">
-        <v>361</v>
+        <v>361.8166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>361</v>
       </c>
       <c r="F56" t="n">
-        <v>209.5742</v>
+        <v>200.001</v>
       </c>
       <c r="G56" t="n">
-        <v>361</v>
+        <v>361.8833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C57" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D57" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E57" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F57" t="n">
-        <v>4315.5497</v>
+        <v>209.5742</v>
       </c>
       <c r="G57" t="n">
-        <v>360.5</v>
+        <v>361.9333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F58" t="n">
-        <v>2.0087</v>
+        <v>4315.5497</v>
       </c>
       <c r="G58" t="n">
-        <v>360.5</v>
+        <v>361.9833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9631</v>
+        <v>2.0087</v>
       </c>
       <c r="G59" t="n">
-        <v>360.5</v>
+        <v>362.05</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F60" t="n">
-        <v>52.2514</v>
+        <v>0.9631</v>
       </c>
       <c r="G60" t="n">
-        <v>359.5</v>
+        <v>362.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C61" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D61" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E61" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F61" t="n">
-        <v>13.0628</v>
+        <v>52.2514</v>
       </c>
       <c r="G61" t="n">
-        <v>358</v>
+        <v>362.1166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>357</v>
       </c>
       <c r="F62" t="n">
-        <v>34.9372</v>
+        <v>13.0628</v>
       </c>
       <c r="G62" t="n">
-        <v>357</v>
+        <v>362.15</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C63" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E63" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F63" t="n">
-        <v>34.7578</v>
+        <v>34.9372</v>
       </c>
       <c r="G63" t="n">
-        <v>357.5</v>
+        <v>362.15</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C64" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D64" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E64" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F64" t="n">
-        <v>807.3253999999999</v>
+        <v>34.7578</v>
       </c>
       <c r="G64" t="n">
-        <v>357</v>
+        <v>362.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C65" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D65" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E65" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F65" t="n">
-        <v>96.876</v>
+        <v>807.3253999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>356.5</v>
+        <v>362.0166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>357</v>
       </c>
       <c r="F66" t="n">
-        <v>429</v>
+        <v>96.876</v>
       </c>
       <c r="G66" t="n">
-        <v>357</v>
+        <v>361.85</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>357</v>
       </c>
       <c r="F67" t="n">
-        <v>824.5236</v>
+        <v>429</v>
       </c>
       <c r="G67" t="n">
-        <v>357</v>
+        <v>361.7333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>357</v>
       </c>
       <c r="C68" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E68" t="n">
         <v>357</v>
       </c>
       <c r="F68" t="n">
-        <v>3577.7502</v>
+        <v>824.5236</v>
       </c>
       <c r="G68" t="n">
-        <v>357.5</v>
+        <v>361.6666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,38 +2778,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C69" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D69" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E69" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F69" t="n">
-        <v>3157.7207</v>
+        <v>3577.7502</v>
       </c>
       <c r="G69" t="n">
-        <v>356.5</v>
+        <v>361.5833333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>358</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2819,38 +2813,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>356</v>
+      </c>
+      <c r="C70" t="n">
         <v>355</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>356</v>
       </c>
-      <c r="D70" t="n">
-        <v>357</v>
-      </c>
       <c r="E70" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F70" t="n">
-        <v>444.8521</v>
+        <v>3157.7207</v>
       </c>
       <c r="G70" t="n">
-        <v>355.5</v>
+        <v>361.5</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>355</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2863,35 +2851,29 @@
         <v>355</v>
       </c>
       <c r="C71" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D71" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E71" t="n">
         <v>355</v>
       </c>
       <c r="F71" t="n">
-        <v>277</v>
+        <v>444.8521</v>
       </c>
       <c r="G71" t="n">
-        <v>355.5</v>
+        <v>361.3666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>356</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2901,38 +2883,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C72" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D72" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E72" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F72" t="n">
-        <v>1.5</v>
+        <v>277</v>
       </c>
       <c r="G72" t="n">
-        <v>355.5</v>
+        <v>361.25</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>355</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2954,26 +2930,20 @@
         <v>356</v>
       </c>
       <c r="F73" t="n">
-        <v>250.5</v>
+        <v>1.5</v>
       </c>
       <c r="G73" t="n">
-        <v>356</v>
+        <v>361.15</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>356</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2983,38 +2953,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C74" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D74" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E74" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F74" t="n">
-        <v>5351.7431</v>
+        <v>250.5</v>
       </c>
       <c r="G74" t="n">
-        <v>356.5</v>
+        <v>360.9833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>356</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3024,38 +2988,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D75" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E75" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F75" t="n">
-        <v>1.4</v>
+        <v>5351.7431</v>
       </c>
       <c r="G75" t="n">
-        <v>357.5</v>
+        <v>360.85</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>357</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3065,38 +3023,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C76" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D76" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E76" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>1.4</v>
       </c>
       <c r="G76" t="n">
-        <v>356.5</v>
+        <v>360.7833333333334</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>358</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3106,38 +3058,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C77" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D77" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E77" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F77" t="n">
-        <v>141</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>356.5</v>
+        <v>360.6166666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>355</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3147,38 +3093,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C78" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D78" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E78" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F78" t="n">
-        <v>14700.1637</v>
+        <v>141</v>
       </c>
       <c r="G78" t="n">
-        <v>355.5</v>
+        <v>360.55</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>358</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3191,19 +3131,19 @@
         <v>356</v>
       </c>
       <c r="C79" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D79" t="n">
         <v>356</v>
       </c>
       <c r="E79" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F79" t="n">
-        <v>5497.5778</v>
+        <v>14700.1637</v>
       </c>
       <c r="G79" t="n">
-        <v>354</v>
+        <v>360.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3213,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3227,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C80" t="n">
         <v>355</v>
       </c>
       <c r="D80" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E80" t="n">
         <v>355</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>5497.5778</v>
       </c>
       <c r="G80" t="n">
-        <v>355</v>
+        <v>360.2833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3252,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3278,10 +3210,10 @@
         <v>355</v>
       </c>
       <c r="F81" t="n">
-        <v>288.1799</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>355</v>
+        <v>360.1833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3291,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3317,10 +3245,10 @@
         <v>355</v>
       </c>
       <c r="F82" t="n">
-        <v>1972.0868</v>
+        <v>288.1799</v>
       </c>
       <c r="G82" t="n">
-        <v>355</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3330,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3356,10 +3280,10 @@
         <v>355</v>
       </c>
       <c r="F83" t="n">
-        <v>328.8828</v>
+        <v>1972.0868</v>
       </c>
       <c r="G83" t="n">
-        <v>355</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3369,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3395,10 +3315,10 @@
         <v>355</v>
       </c>
       <c r="F84" t="n">
-        <v>87.5763</v>
+        <v>328.8828</v>
       </c>
       <c r="G84" t="n">
-        <v>355</v>
+        <v>359.7833333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3408,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3422,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C85" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D85" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E85" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F85" t="n">
-        <v>104.506</v>
+        <v>87.5763</v>
       </c>
       <c r="G85" t="n">
-        <v>355.5</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3447,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3473,10 +3385,10 @@
         <v>356</v>
       </c>
       <c r="F86" t="n">
-        <v>140.845</v>
+        <v>104.506</v>
       </c>
       <c r="G86" t="n">
-        <v>356</v>
+        <v>359.5666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3486,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C87" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D87" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E87" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F87" t="n">
-        <v>71</v>
+        <v>140.845</v>
       </c>
       <c r="G87" t="n">
-        <v>356.5</v>
+        <v>359.45</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3525,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3539,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C88" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D88" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E88" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F88" t="n">
-        <v>3930.7894</v>
+        <v>71</v>
       </c>
       <c r="G88" t="n">
-        <v>355</v>
+        <v>359.3166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3564,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>354</v>
+      </c>
+      <c r="C89" t="n">
         <v>353</v>
       </c>
-      <c r="C89" t="n">
-        <v>356</v>
-      </c>
       <c r="D89" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E89" t="n">
         <v>353</v>
       </c>
       <c r="F89" t="n">
-        <v>4087.7092</v>
+        <v>3930.7894</v>
       </c>
       <c r="G89" t="n">
-        <v>354.5</v>
+        <v>359.1666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3603,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3617,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C90" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D90" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E90" t="n">
         <v>353</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>4087.7092</v>
       </c>
       <c r="G90" t="n">
-        <v>354.5</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3659,19 +3551,19 @@
         <v>354</v>
       </c>
       <c r="C91" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D91" t="n">
         <v>354</v>
       </c>
       <c r="E91" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F91" t="n">
-        <v>4608.98</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>353.5</v>
+        <v>358.8666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3681,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3707,10 +3595,10 @@
         <v>354</v>
       </c>
       <c r="F92" t="n">
-        <v>103.2188</v>
+        <v>4608.98</v>
       </c>
       <c r="G92" t="n">
-        <v>354</v>
+        <v>358.7333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3720,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3734,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C93" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D93" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E93" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>103.2188</v>
       </c>
       <c r="G93" t="n">
-        <v>355</v>
+        <v>358.5333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3759,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3773,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C94" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D94" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E94" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F94" t="n">
-        <v>247.8031</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>355</v>
+        <v>358.3666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3798,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3824,10 +3700,10 @@
         <v>354</v>
       </c>
       <c r="F95" t="n">
-        <v>2421.6139</v>
+        <v>247.8031</v>
       </c>
       <c r="G95" t="n">
-        <v>354</v>
+        <v>358.1666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3837,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3851,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C96" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D96" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E96" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F96" t="n">
-        <v>535.8139</v>
+        <v>2421.6139</v>
       </c>
       <c r="G96" t="n">
-        <v>354.5</v>
+        <v>357.9666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3876,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3902,10 +3770,10 @@
         <v>355</v>
       </c>
       <c r="F97" t="n">
-        <v>104</v>
+        <v>535.8139</v>
       </c>
       <c r="G97" t="n">
-        <v>355</v>
+        <v>357.7833333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3915,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3932,19 +3796,19 @@
         <v>355</v>
       </c>
       <c r="C98" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D98" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E98" t="n">
         <v>355</v>
       </c>
       <c r="F98" t="n">
-        <v>3727.8139</v>
+        <v>104</v>
       </c>
       <c r="G98" t="n">
-        <v>355.5</v>
+        <v>357.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3954,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3968,7 +3828,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C99" t="n">
         <v>356</v>
@@ -3977,13 +3837,13 @@
         <v>356</v>
       </c>
       <c r="E99" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F99" t="n">
-        <v>1042</v>
+        <v>3727.8139</v>
       </c>
       <c r="G99" t="n">
-        <v>356</v>
+        <v>357.4666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3993,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4019,10 +3875,10 @@
         <v>356</v>
       </c>
       <c r="F100" t="n">
-        <v>2380.6205</v>
+        <v>1042</v>
       </c>
       <c r="G100" t="n">
-        <v>356</v>
+        <v>357.3666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4032,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4058,10 +3910,10 @@
         <v>356</v>
       </c>
       <c r="F101" t="n">
-        <v>368</v>
+        <v>2380.6205</v>
       </c>
       <c r="G101" t="n">
-        <v>356</v>
+        <v>357.2833333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4071,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4088,19 +3936,19 @@
         <v>356</v>
       </c>
       <c r="C102" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D102" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E102" t="n">
         <v>356</v>
       </c>
       <c r="F102" t="n">
-        <v>6383.2424</v>
+        <v>368</v>
       </c>
       <c r="G102" t="n">
-        <v>360</v>
+        <v>357.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4110,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4124,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C103" t="n">
         <v>364</v>
@@ -4133,13 +3977,13 @@
         <v>364</v>
       </c>
       <c r="E103" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F103" t="n">
-        <v>159</v>
+        <v>6383.2424</v>
       </c>
       <c r="G103" t="n">
-        <v>364</v>
+        <v>357.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4149,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4166,19 +4006,19 @@
         <v>364</v>
       </c>
       <c r="C104" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D104" t="n">
         <v>364</v>
       </c>
       <c r="E104" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F104" t="n">
-        <v>4275.5578</v>
+        <v>159</v>
       </c>
       <c r="G104" t="n">
-        <v>362</v>
+        <v>357.3166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4188,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4202,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C105" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D105" t="n">
         <v>364</v>
       </c>
       <c r="E105" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F105" t="n">
-        <v>240.382</v>
+        <v>4275.5578</v>
       </c>
       <c r="G105" t="n">
-        <v>362</v>
+        <v>357.3166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4227,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4241,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C106" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D106" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E106" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F106" t="n">
-        <v>14194.5745</v>
+        <v>240.382</v>
       </c>
       <c r="G106" t="n">
-        <v>366</v>
+        <v>357.3833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4266,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4280,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>365</v>
+      </c>
+      <c r="C107" t="n">
         <v>368</v>
       </c>
-      <c r="C107" t="n">
-        <v>375</v>
-      </c>
       <c r="D107" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E107" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F107" t="n">
-        <v>4312.5922</v>
+        <v>14194.5745</v>
       </c>
       <c r="G107" t="n">
-        <v>371.5</v>
+        <v>357.4833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4305,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4319,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C108" t="n">
         <v>375</v>
@@ -4328,13 +4152,13 @@
         <v>375</v>
       </c>
       <c r="E108" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F108" t="n">
-        <v>1052.7427</v>
+        <v>4312.5922</v>
       </c>
       <c r="G108" t="n">
-        <v>375</v>
+        <v>357.7333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4344,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4370,47 +4190,45 @@
         <v>375</v>
       </c>
       <c r="F109" t="n">
-        <v>11.04</v>
+        <v>1052.7427</v>
       </c>
       <c r="G109" t="n">
-        <v>375</v>
+        <v>357.9833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C110" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D110" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E110" t="n">
         <v>375</v>
       </c>
       <c r="F110" t="n">
-        <v>2992.56</v>
+        <v>11.04</v>
       </c>
       <c r="G110" t="n">
-        <v>375.5</v>
+        <v>358.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4430,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C111" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D111" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E111" t="n">
         <v>375</v>
       </c>
       <c r="F111" t="n">
-        <v>1314.7706</v>
+        <v>2992.56</v>
       </c>
       <c r="G111" t="n">
-        <v>375.5</v>
+        <v>358.4666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4465,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>377</v>
+      </c>
+      <c r="C112" t="n">
         <v>375</v>
       </c>
-      <c r="C112" t="n">
-        <v>378</v>
-      </c>
       <c r="D112" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E112" t="n">
         <v>375</v>
       </c>
       <c r="F112" t="n">
-        <v>6043.1512</v>
+        <v>1314.7706</v>
       </c>
       <c r="G112" t="n">
-        <v>376.5</v>
+        <v>358.7166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4503,19 +4321,19 @@
         <v>375</v>
       </c>
       <c r="C113" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D113" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E113" t="n">
         <v>375</v>
       </c>
       <c r="F113" t="n">
-        <v>12490.7158</v>
+        <v>6043.1512</v>
       </c>
       <c r="G113" t="n">
-        <v>377</v>
+        <v>359.0166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4535,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>375</v>
+      </c>
+      <c r="C114" t="n">
         <v>376</v>
       </c>
-      <c r="C114" t="n">
-        <v>377</v>
-      </c>
       <c r="D114" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E114" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F114" t="n">
-        <v>3803.6982</v>
+        <v>12490.7158</v>
       </c>
       <c r="G114" t="n">
-        <v>376.5</v>
+        <v>359.2666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4570,28 +4388,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>376</v>
+      </c>
+      <c r="C115" t="n">
         <v>377</v>
       </c>
-      <c r="C115" t="n">
-        <v>376</v>
-      </c>
       <c r="D115" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E115" t="n">
         <v>376</v>
       </c>
       <c r="F115" t="n">
-        <v>2033</v>
+        <v>3803.6982</v>
       </c>
       <c r="G115" t="n">
-        <v>376.5</v>
+        <v>359.5333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4608,25 +4426,25 @@
         <v>377</v>
       </c>
       <c r="C116" t="n">
+        <v>376</v>
+      </c>
+      <c r="D116" t="n">
         <v>377</v>
       </c>
-      <c r="D116" t="n">
-        <v>382</v>
-      </c>
       <c r="E116" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F116" t="n">
-        <v>1925.715</v>
+        <v>2033</v>
       </c>
       <c r="G116" t="n">
-        <v>376.5</v>
+        <v>359.7833333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4646,16 +4464,16 @@
         <v>377</v>
       </c>
       <c r="D117" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E117" t="n">
         <v>377</v>
       </c>
       <c r="F117" t="n">
-        <v>4141.6998</v>
+        <v>1925.715</v>
       </c>
       <c r="G117" t="n">
-        <v>377</v>
+        <v>360.05</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4675,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C118" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D118" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E118" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F118" t="n">
-        <v>1.309</v>
+        <v>4141.6998</v>
       </c>
       <c r="G118" t="n">
-        <v>379.5</v>
+        <v>360.3333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4710,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C119" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D119" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E119" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F119" t="n">
-        <v>11318.0197</v>
+        <v>1.309</v>
       </c>
       <c r="G119" t="n">
-        <v>379.5</v>
+        <v>360.6833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4757,10 +4575,10 @@
         <v>377</v>
       </c>
       <c r="F120" t="n">
-        <v>99.98560000000001</v>
+        <v>11318.0197</v>
       </c>
       <c r="G120" t="n">
-        <v>377</v>
+        <v>360.9666666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4792,10 +4610,10 @@
         <v>377</v>
       </c>
       <c r="F121" t="n">
-        <v>1181.1911</v>
+        <v>99.98560000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>377</v>
+        <v>361.2666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4818,19 +4636,19 @@
         <v>377</v>
       </c>
       <c r="C122" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D122" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E122" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F122" t="n">
-        <v>1659.4558</v>
+        <v>1181.1911</v>
       </c>
       <c r="G122" t="n">
-        <v>376.5</v>
+        <v>361.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4850,7 +4668,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C123" t="n">
         <v>376</v>
@@ -4862,10 +4680,10 @@
         <v>376</v>
       </c>
       <c r="F123" t="n">
-        <v>1204.1418</v>
+        <v>1659.4558</v>
       </c>
       <c r="G123" t="n">
-        <v>376</v>
+        <v>361.9166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4885,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>376</v>
+      </c>
+      <c r="C124" t="n">
+        <v>376</v>
+      </c>
+      <c r="D124" t="n">
         <v>378</v>
-      </c>
-      <c r="C124" t="n">
-        <v>382</v>
-      </c>
-      <c r="D124" t="n">
-        <v>383</v>
       </c>
       <c r="E124" t="n">
         <v>376</v>
       </c>
       <c r="F124" t="n">
-        <v>5648.9503</v>
+        <v>1204.1418</v>
       </c>
       <c r="G124" t="n">
-        <v>379</v>
+        <v>362.2166666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4920,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C125" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D125" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E125" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F125" t="n">
-        <v>1658.1936</v>
+        <v>5648.9503</v>
       </c>
       <c r="G125" t="n">
-        <v>379.5</v>
+        <v>362.65</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4961,16 +4779,16 @@
         <v>377</v>
       </c>
       <c r="D126" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E126" t="n">
         <v>377</v>
       </c>
       <c r="F126" t="n">
-        <v>691.4</v>
+        <v>1658.1936</v>
       </c>
       <c r="G126" t="n">
-        <v>377</v>
+        <v>362.9833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4993,19 +4811,19 @@
         <v>377</v>
       </c>
       <c r="C127" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D127" t="n">
+        <v>378</v>
+      </c>
+      <c r="E127" t="n">
         <v>377</v>
       </c>
-      <c r="E127" t="n">
-        <v>375</v>
-      </c>
       <c r="F127" t="n">
-        <v>3992.8198</v>
+        <v>691.4</v>
       </c>
       <c r="G127" t="n">
-        <v>376</v>
+        <v>363.3166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5025,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C128" t="n">
         <v>375</v>
       </c>
       <c r="D128" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E128" t="n">
         <v>375</v>
       </c>
       <c r="F128" t="n">
-        <v>2219.5864</v>
+        <v>3992.8198</v>
       </c>
       <c r="G128" t="n">
-        <v>375</v>
+        <v>363.6166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5066,16 +4884,16 @@
         <v>375</v>
       </c>
       <c r="D129" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E129" t="n">
         <v>375</v>
       </c>
       <c r="F129" t="n">
-        <v>3413.0747851</v>
+        <v>2219.5864</v>
       </c>
       <c r="G129" t="n">
-        <v>375</v>
+        <v>363.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5095,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C130" t="n">
         <v>375</v>
       </c>
       <c r="D130" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E130" t="n">
         <v>375</v>
       </c>
       <c r="F130" t="n">
-        <v>3045.6334149</v>
+        <v>3413.0747851</v>
       </c>
       <c r="G130" t="n">
-        <v>375</v>
+        <v>364.2333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5133,19 +4951,19 @@
         <v>376</v>
       </c>
       <c r="C131" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D131" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E131" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F131" t="n">
-        <v>8496.811900000001</v>
+        <v>3045.6334149</v>
       </c>
       <c r="G131" t="n">
-        <v>374.5</v>
+        <v>364.55</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5165,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C132" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D132" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E132" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F132" t="n">
-        <v>687.5346</v>
+        <v>8496.811900000001</v>
       </c>
       <c r="G132" t="n">
-        <v>372</v>
+        <v>364.8666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5203,19 +5021,19 @@
         <v>370</v>
       </c>
       <c r="C133" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D133" t="n">
         <v>371</v>
       </c>
       <c r="E133" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F133" t="n">
-        <v>31.613</v>
+        <v>687.5346</v>
       </c>
       <c r="G133" t="n">
-        <v>370.5</v>
+        <v>365.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5235,10 +5053,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>370</v>
+      </c>
+      <c r="C134" t="n">
         <v>371</v>
-      </c>
-      <c r="C134" t="n">
-        <v>370</v>
       </c>
       <c r="D134" t="n">
         <v>371</v>
@@ -5247,10 +5065,10 @@
         <v>370</v>
       </c>
       <c r="F134" t="n">
-        <v>1238.2936</v>
+        <v>31.613</v>
       </c>
       <c r="G134" t="n">
-        <v>370.5</v>
+        <v>365.35</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5270,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C135" t="n">
         <v>370</v>
       </c>
       <c r="D135" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E135" t="n">
         <v>370</v>
       </c>
       <c r="F135" t="n">
-        <v>313.6396</v>
+        <v>1238.2936</v>
       </c>
       <c r="G135" t="n">
-        <v>370</v>
+        <v>365.5666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5305,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C136" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D136" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E136" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F136" t="n">
-        <v>926.4835</v>
+        <v>313.6396</v>
       </c>
       <c r="G136" t="n">
-        <v>370.5</v>
+        <v>365.7666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5343,28 +5161,32 @@
         <v>371</v>
       </c>
       <c r="C137" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D137" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E137" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F137" t="n">
-        <v>477.9282</v>
+        <v>926.4835</v>
       </c>
       <c r="G137" t="n">
-        <v>372</v>
+        <v>366.0333333333334</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>370</v>
+      </c>
+      <c r="K137" t="n">
+        <v>370</v>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5375,32 +5197,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C138" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D138" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E138" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F138" t="n">
-        <v>19.9072</v>
+        <v>477.9282</v>
       </c>
       <c r="G138" t="n">
-        <v>372.5</v>
+        <v>366.2833333333334</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>371</v>
+      </c>
+      <c r="K138" t="n">
+        <v>370</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5410,33 +5240,82 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>372</v>
+      </c>
+      <c r="C139" t="n">
+        <v>372</v>
+      </c>
+      <c r="D139" t="n">
+        <v>372</v>
+      </c>
+      <c r="E139" t="n">
+        <v>372</v>
+      </c>
+      <c r="F139" t="n">
+        <v>19.9072</v>
+      </c>
+      <c r="G139" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>373</v>
+      </c>
+      <c r="K139" t="n">
+        <v>370</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>371</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C140" t="n">
         <v>370</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D140" t="n">
         <v>371</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E140" t="n">
         <v>370</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F140" t="n">
         <v>31.4726</v>
       </c>
-      <c r="G139" t="n">
-        <v>371</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="G140" t="n">
+        <v>366.85</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>370</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>6280.1229</v>
       </c>
       <c r="G2" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="H2" t="n">
         <v>356.3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1.5</v>
       </c>
       <c r="G3" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>356.3333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>355</v>
+      </c>
+      <c r="L3" t="n">
+        <v>355</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>551.2125</v>
       </c>
       <c r="G4" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>356.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>357</v>
+      </c>
+      <c r="L4" t="n">
+        <v>355</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>55.401</v>
       </c>
       <c r="G5" t="n">
+        <v>356.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>356.4666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>361</v>
+      </c>
+      <c r="L5" t="n">
+        <v>355</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>1977.0982</v>
       </c>
       <c r="G6" t="n">
+        <v>357.4666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>356.6666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>361</v>
+      </c>
+      <c r="L6" t="n">
+        <v>361</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>98.0497</v>
       </c>
       <c r="G7" t="n">
+        <v>358.3333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>356.85</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>361</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>93.8878</v>
       </c>
       <c r="G8" t="n">
+        <v>358.6666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>356.9666666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>361</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,21 @@
         <v>1.4</v>
       </c>
       <c r="G9" t="n">
+        <v>359.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>357.1166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +793,21 @@
         <v>104</v>
       </c>
       <c r="G10" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>357.2166666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,21 @@
         <v>137.36263736</v>
       </c>
       <c r="G11" t="n">
+        <v>360</v>
+      </c>
+      <c r="H11" t="n">
         <v>357.35</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +869,21 @@
         <v>1270.7975</v>
       </c>
       <c r="G12" t="n">
+        <v>360.2666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>357.45</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +907,21 @@
         <v>137.3626</v>
       </c>
       <c r="G13" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>357.6</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +945,21 @@
         <v>1.4</v>
       </c>
       <c r="G14" t="n">
+        <v>361.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>357.7666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +983,21 @@
         <v>1.9295</v>
       </c>
       <c r="G15" t="n">
+        <v>361.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>357.9</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1021,21 @@
         <v>11.2892</v>
       </c>
       <c r="G16" t="n">
+        <v>362</v>
+      </c>
+      <c r="H16" t="n">
         <v>358.05</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1059,21 @@
         <v>1.4</v>
       </c>
       <c r="G17" t="n">
+        <v>362.6666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>358.25</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1097,21 @@
         <v>170.5482</v>
       </c>
       <c r="G18" t="n">
+        <v>363</v>
+      </c>
+      <c r="H18" t="n">
         <v>358.35</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1135,21 @@
         <v>239.7896</v>
       </c>
       <c r="G19" t="n">
+        <v>363.0666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>358.5333333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1173,21 @@
         <v>137.8687</v>
       </c>
       <c r="G20" t="n">
+        <v>363.1333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>358.6833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1211,21 @@
         <v>233.8768</v>
       </c>
       <c r="G21" t="n">
+        <v>362.7333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>358.8166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1249,21 @@
         <v>111.2337</v>
       </c>
       <c r="G22" t="n">
+        <v>362.7333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>358.9333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1287,21 @@
         <v>318.1994</v>
       </c>
       <c r="G23" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="H23" t="n">
         <v>359.0166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1325,21 @@
         <v>227.3275</v>
       </c>
       <c r="G24" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>359.1166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1363,21 @@
         <v>681.8006</v>
       </c>
       <c r="G25" t="n">
+        <v>362.9333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>359.1833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1401,21 @@
         <v>227.3275</v>
       </c>
       <c r="G26" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="H26" t="n">
         <v>359.25</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1439,21 @@
         <v>981.1402</v>
       </c>
       <c r="G27" t="n">
+        <v>362.8666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>359.3333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1477,21 @@
         <v>1.4</v>
       </c>
       <c r="G28" t="n">
+        <v>363.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>359.4333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1515,21 @@
         <v>234.1044</v>
       </c>
       <c r="G29" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="H29" t="n">
         <v>359.4833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1553,21 @@
         <v>1208.4677</v>
       </c>
       <c r="G30" t="n">
+        <v>362.5333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>359.5166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1591,21 @@
         <v>617.5044</v>
       </c>
       <c r="G31" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>359.6333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1629,21 @@
         <v>222.0503</v>
       </c>
       <c r="G32" t="n">
+        <v>362.6</v>
+      </c>
+      <c r="H32" t="n">
         <v>359.7</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1667,21 @@
         <v>1.4001</v>
       </c>
       <c r="G33" t="n">
+        <v>362.8666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>359.8333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1705,21 @@
         <v>260</v>
       </c>
       <c r="G34" t="n">
+        <v>363.1333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>359.9666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1743,21 @@
         <v>546</v>
       </c>
       <c r="G35" t="n">
+        <v>363.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>360.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1781,21 @@
         <v>5</v>
       </c>
       <c r="G36" t="n">
+        <v>363.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>360.25</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1819,21 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
+        <v>363.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>360.4</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1857,21 @@
         <v>13.0468</v>
       </c>
       <c r="G38" t="n">
+        <v>364.1333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>360.55</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1895,21 @@
         <v>990.4965999999999</v>
       </c>
       <c r="G39" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="H39" t="n">
         <v>360.6666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1933,21 @@
         <v>165.2</v>
       </c>
       <c r="G40" t="n">
+        <v>364.2</v>
+      </c>
+      <c r="H40" t="n">
         <v>360.75</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1971,21 @@
         <v>2624.7586</v>
       </c>
       <c r="G41" t="n">
+        <v>364.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>360.8333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2009,21 @@
         <v>12.2895</v>
       </c>
       <c r="G42" t="n">
+        <v>364</v>
+      </c>
+      <c r="H42" t="n">
         <v>360.9</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2047,21 @@
         <v>136.9413</v>
       </c>
       <c r="G43" t="n">
+        <v>363.7333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>360.9666666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2085,25 @@
         <v>800.8944</v>
       </c>
       <c r="G44" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>361.0166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>361</v>
+      </c>
+      <c r="L44" t="n">
+        <v>361</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2127,29 @@
         <v>818.7234</v>
       </c>
       <c r="G45" t="n">
+        <v>363.5333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>361.0666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>360</v>
+      </c>
+      <c r="L45" t="n">
+        <v>361</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2173,29 @@
         <v>588.4212</v>
       </c>
       <c r="G46" t="n">
+        <v>363.1333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>361.1166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>360</v>
+      </c>
+      <c r="L46" t="n">
+        <v>361</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2219,25 @@
         <v>1.4</v>
       </c>
       <c r="G47" t="n">
+        <v>363.1333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>361.2</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>360</v>
+      </c>
+      <c r="L47" t="n">
+        <v>360</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2261,29 @@
         <v>565.0144</v>
       </c>
       <c r="G48" t="n">
+        <v>362.7333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>361.25</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>362</v>
+      </c>
+      <c r="L48" t="n">
+        <v>360</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2307,29 @@
         <v>1394.9688</v>
       </c>
       <c r="G49" t="n">
+        <v>362.3333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>361.2833333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>360</v>
+      </c>
+      <c r="L49" t="n">
+        <v>360</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2353,25 @@
         <v>6.2129</v>
       </c>
       <c r="G50" t="n">
+        <v>362.0666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>361.35</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>360</v>
+      </c>
+      <c r="L50" t="n">
+        <v>360</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2395,29 @@
         <v>30</v>
       </c>
       <c r="G51" t="n">
+        <v>361.6666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>361.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>362</v>
+      </c>
+      <c r="L51" t="n">
+        <v>360</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2441,27 @@
         <v>6.2129</v>
       </c>
       <c r="G52" t="n">
+        <v>361.2666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>361.55</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>360</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2485,21 @@
         <v>1595.4202</v>
       </c>
       <c r="G53" t="n">
+        <v>360.8666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>361.6166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2523,21 @@
         <v>95.9194</v>
       </c>
       <c r="G54" t="n">
+        <v>360.6666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>361.75</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2561,21 @@
         <v>300.0015</v>
       </c>
       <c r="G55" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H55" t="n">
         <v>361.8166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2599,21 @@
         <v>200.001</v>
       </c>
       <c r="G56" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>361.8833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2637,21 @@
         <v>209.5742</v>
       </c>
       <c r="G57" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H57" t="n">
         <v>361.9333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2675,21 @@
         <v>4315.5497</v>
       </c>
       <c r="G58" t="n">
+        <v>360.5333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>361.9833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2713,21 @@
         <v>2.0087</v>
       </c>
       <c r="G59" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>362.05</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2751,21 @@
         <v>0.9631</v>
       </c>
       <c r="G60" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="H60" t="n">
         <v>362.1</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2789,21 @@
         <v>52.2514</v>
       </c>
       <c r="G61" t="n">
+        <v>360.5333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>362.1166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2827,21 @@
         <v>13.0628</v>
       </c>
       <c r="G62" t="n">
+        <v>360.2</v>
+      </c>
+      <c r="H62" t="n">
         <v>362.15</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2865,25 @@
         <v>34.9372</v>
       </c>
       <c r="G63" t="n">
+        <v>360</v>
+      </c>
+      <c r="H63" t="n">
         <v>362.15</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>357</v>
+      </c>
+      <c r="L63" t="n">
+        <v>357</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2907,29 @@
         <v>34.7578</v>
       </c>
       <c r="G64" t="n">
+        <v>359.8666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>362.1</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>357</v>
+      </c>
+      <c r="L64" t="n">
+        <v>357</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2953,29 @@
         <v>807.3253999999999</v>
       </c>
       <c r="G65" t="n">
+        <v>359.4666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>362.0166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>358</v>
+      </c>
+      <c r="L65" t="n">
+        <v>357</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2999,25 @@
         <v>96.876</v>
       </c>
       <c r="G66" t="n">
+        <v>359.2666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>361.85</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>356</v>
+      </c>
+      <c r="L66" t="n">
+        <v>356</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3041,29 @@
         <v>429</v>
       </c>
       <c r="G67" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>361.7333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>357</v>
+      </c>
+      <c r="L67" t="n">
+        <v>356</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3087,27 @@
         <v>824.5236</v>
       </c>
       <c r="G68" t="n">
+        <v>358.8666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>361.6666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>356</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3131,21 @@
         <v>3577.7502</v>
       </c>
       <c r="G69" t="n">
+        <v>358.6666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>361.5833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3169,21 @@
         <v>3157.7207</v>
       </c>
       <c r="G70" t="n">
+        <v>358.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>361.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3207,21 @@
         <v>444.8521</v>
       </c>
       <c r="G71" t="n">
+        <v>357.9333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>361.3666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3245,21 @@
         <v>277</v>
       </c>
       <c r="G72" t="n">
+        <v>357.5333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>361.25</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3283,21 @@
         <v>1.5</v>
       </c>
       <c r="G73" t="n">
+        <v>357.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>361.15</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3321,21 @@
         <v>250.5</v>
       </c>
       <c r="G74" t="n">
+        <v>356.9333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>360.9833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3359,21 @@
         <v>5351.7431</v>
       </c>
       <c r="G75" t="n">
+        <v>356.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>360.85</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3397,21 @@
         <v>1.4</v>
       </c>
       <c r="G76" t="n">
+        <v>356.6666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>360.7833333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3435,21 @@
         <v>1000</v>
       </c>
       <c r="G77" t="n">
+        <v>356.5333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>360.6166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3473,21 @@
         <v>141</v>
       </c>
       <c r="G78" t="n">
+        <v>356.6</v>
+      </c>
+      <c r="H78" t="n">
         <v>360.55</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3511,21 @@
         <v>14700.1637</v>
       </c>
       <c r="G79" t="n">
+        <v>356.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>360.4</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3549,21 @@
         <v>5497.5778</v>
       </c>
       <c r="G80" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>360.2833333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3587,21 @@
         <v>1000</v>
       </c>
       <c r="G81" t="n">
+        <v>356.0666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>360.1833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3625,21 @@
         <v>288.1799</v>
       </c>
       <c r="G82" t="n">
+        <v>355.9333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>360.0333333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3663,21 @@
         <v>1972.0868</v>
       </c>
       <c r="G83" t="n">
+        <v>355.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>359.9166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3701,21 @@
         <v>328.8828</v>
       </c>
       <c r="G84" t="n">
+        <v>355.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>359.7833333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3739,21 @@
         <v>87.5763</v>
       </c>
       <c r="G85" t="n">
+        <v>355.6</v>
+      </c>
+      <c r="H85" t="n">
         <v>359.6666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3777,21 @@
         <v>104.506</v>
       </c>
       <c r="G86" t="n">
+        <v>355.6</v>
+      </c>
+      <c r="H86" t="n">
         <v>359.5666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3815,21 @@
         <v>140.845</v>
       </c>
       <c r="G87" t="n">
+        <v>355.6666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>359.45</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3853,21 @@
         <v>71</v>
       </c>
       <c r="G88" t="n">
+        <v>355.7333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>359.3166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3891,21 @@
         <v>3930.7894</v>
       </c>
       <c r="G89" t="n">
+        <v>355.5333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>359.1666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3929,21 @@
         <v>4087.7092</v>
       </c>
       <c r="G90" t="n">
+        <v>355.4666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>359.0833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3967,21 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
+        <v>355.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>358.8666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4005,21 @@
         <v>4608.98</v>
       </c>
       <c r="G92" t="n">
+        <v>355.0666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>358.7333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4043,21 @@
         <v>103.2188</v>
       </c>
       <c r="G93" t="n">
+        <v>354.8</v>
+      </c>
+      <c r="H93" t="n">
         <v>358.5333333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4081,21 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
+        <v>355</v>
+      </c>
+      <c r="H94" t="n">
         <v>358.3666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4119,21 @@
         <v>247.8031</v>
       </c>
       <c r="G95" t="n">
+        <v>354.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>358.1666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4157,21 @@
         <v>2421.6139</v>
       </c>
       <c r="G96" t="n">
+        <v>354.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>357.9666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4195,21 @@
         <v>535.8139</v>
       </c>
       <c r="G97" t="n">
+        <v>354.8666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>357.7833333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4233,21 @@
         <v>104</v>
       </c>
       <c r="G98" t="n">
+        <v>354.8666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>357.6</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4271,21 @@
         <v>3727.8139</v>
       </c>
       <c r="G99" t="n">
+        <v>354.9333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>357.4666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4309,21 @@
         <v>1042</v>
       </c>
       <c r="G100" t="n">
+        <v>355</v>
+      </c>
+      <c r="H100" t="n">
         <v>357.3666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4347,21 @@
         <v>2380.6205</v>
       </c>
       <c r="G101" t="n">
+        <v>355</v>
+      </c>
+      <c r="H101" t="n">
         <v>357.2833333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4385,21 @@
         <v>368</v>
       </c>
       <c r="G102" t="n">
+        <v>355</v>
+      </c>
+      <c r="H102" t="n">
         <v>357.2</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4423,21 @@
         <v>6383.2424</v>
       </c>
       <c r="G103" t="n">
+        <v>355.4666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>357.25</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4461,21 @@
         <v>159</v>
       </c>
       <c r="G104" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="H104" t="n">
         <v>357.3166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4499,21 @@
         <v>4275.5578</v>
       </c>
       <c r="G105" t="n">
+        <v>356.4666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>357.3166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4537,21 @@
         <v>240.382</v>
       </c>
       <c r="G106" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="H106" t="n">
         <v>357.3833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4575,21 @@
         <v>14194.5745</v>
       </c>
       <c r="G107" t="n">
+        <v>358.1333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>357.4833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4613,21 @@
         <v>4312.5922</v>
       </c>
       <c r="G108" t="n">
+        <v>359.5333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>357.7333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4651,21 @@
         <v>1052.7427</v>
       </c>
       <c r="G109" t="n">
+        <v>360.8</v>
+      </c>
+      <c r="H109" t="n">
         <v>357.9833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4689,21 @@
         <v>11.04</v>
       </c>
       <c r="G110" t="n">
+        <v>362.2</v>
+      </c>
+      <c r="H110" t="n">
         <v>358.2</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4727,21 @@
         <v>2992.56</v>
       </c>
       <c r="G111" t="n">
+        <v>363.6666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>358.4666666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4765,21 @@
         <v>1314.7706</v>
       </c>
       <c r="G112" t="n">
+        <v>365</v>
+      </c>
+      <c r="H112" t="n">
         <v>358.7166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4803,21 @@
         <v>6043.1512</v>
       </c>
       <c r="G113" t="n">
+        <v>366.5333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>359.0166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4841,21 @@
         <v>12490.7158</v>
       </c>
       <c r="G114" t="n">
+        <v>367.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>359.2666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4879,21 @@
         <v>3803.6982</v>
       </c>
       <c r="G115" t="n">
+        <v>369.2666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>359.5333333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4917,21 @@
         <v>2033</v>
       </c>
       <c r="G116" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="H116" t="n">
         <v>359.7833333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4955,21 @@
         <v>1925.715</v>
       </c>
       <c r="G117" t="n">
+        <v>372</v>
+      </c>
+      <c r="H117" t="n">
         <v>360.05</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4993,21 @@
         <v>4141.6998</v>
       </c>
       <c r="G118" t="n">
+        <v>372.8666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>360.3333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5031,21 @@
         <v>1.309</v>
       </c>
       <c r="G119" t="n">
+        <v>374.0666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>360.6833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5069,21 @@
         <v>11318.0197</v>
       </c>
       <c r="G120" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>360.9666666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5107,21 @@
         <v>99.98560000000001</v>
       </c>
       <c r="G121" t="n">
+        <v>376.0666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>361.2666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5145,21 @@
         <v>1181.1911</v>
       </c>
       <c r="G122" t="n">
+        <v>376.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>361.6</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5183,21 @@
         <v>1659.4558</v>
       </c>
       <c r="G123" t="n">
+        <v>376.7333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>361.9166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5221,21 @@
         <v>1204.1418</v>
       </c>
       <c r="G124" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>362.2166666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5259,21 @@
         <v>5648.9503</v>
       </c>
       <c r="G125" t="n">
+        <v>377.2666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>362.65</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5297,21 @@
         <v>1658.1936</v>
       </c>
       <c r="G126" t="n">
+        <v>377.3333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>362.9833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5335,21 @@
         <v>691.4</v>
       </c>
       <c r="G127" t="n">
+        <v>377.4666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>363.3166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5373,21 @@
         <v>3992.8198</v>
       </c>
       <c r="G128" t="n">
+        <v>377.2666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>363.6166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5411,21 @@
         <v>2219.5864</v>
       </c>
       <c r="G129" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>363.9</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5449,21 @@
         <v>3413.0747851</v>
       </c>
       <c r="G130" t="n">
+        <v>377.0666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>364.2333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5487,21 @@
         <v>3045.6334149</v>
       </c>
       <c r="G131" t="n">
+        <v>377</v>
+      </c>
+      <c r="H131" t="n">
         <v>364.55</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5525,21 @@
         <v>8496.811900000001</v>
       </c>
       <c r="G132" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="H132" t="n">
         <v>364.8666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5563,21 @@
         <v>687.5346</v>
       </c>
       <c r="G133" t="n">
+        <v>376.3333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>365.1</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5601,21 @@
         <v>31.613</v>
       </c>
       <c r="G134" t="n">
+        <v>375.6</v>
+      </c>
+      <c r="H134" t="n">
         <v>365.35</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5639,21 @@
         <v>1238.2936</v>
       </c>
       <c r="G135" t="n">
+        <v>375.1333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>365.5666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5677,21 @@
         <v>313.6396</v>
       </c>
       <c r="G136" t="n">
+        <v>374.6666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>365.7666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,22 +5715,21 @@
         <v>926.4835</v>
       </c>
       <c r="G137" t="n">
+        <v>374.2666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>366.0333333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>370</v>
-      </c>
-      <c r="K137" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,26 +5753,21 @@
         <v>477.9282</v>
       </c>
       <c r="G138" t="n">
+        <v>374.0666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>366.2833333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>371</v>
-      </c>
-      <c r="K138" t="n">
-        <v>370</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5255,26 +5791,21 @@
         <v>19.9072</v>
       </c>
       <c r="G139" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="H139" t="n">
         <v>366.6</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>373</v>
-      </c>
-      <c r="K139" t="n">
-        <v>370</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,24 +5829,401 @@
         <v>31.4726</v>
       </c>
       <c r="G140" t="n">
+        <v>373</v>
+      </c>
+      <c r="H140" t="n">
         <v>366.85</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>370</v>
       </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="C141" t="n">
+        <v>369</v>
+      </c>
+      <c r="D141" t="n">
+        <v>370</v>
+      </c>
+      <c r="E141" t="n">
+        <v>369</v>
+      </c>
+      <c r="F141" t="n">
+        <v>506.8697</v>
+      </c>
+      <c r="G141" t="n">
+        <v>372.4666666666666</v>
+      </c>
+      <c r="H141" t="n">
+        <v>367.0833333333333</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>370</v>
+      </c>
+      <c r="C142" t="n">
+        <v>369</v>
+      </c>
+      <c r="D142" t="n">
+        <v>370</v>
+      </c>
+      <c r="E142" t="n">
+        <v>369</v>
+      </c>
+      <c r="F142" t="n">
+        <v>303.67</v>
+      </c>
+      <c r="G142" t="n">
+        <v>371.9333333333333</v>
+      </c>
+      <c r="H142" t="n">
+        <v>367.3166666666667</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>372</v>
+      </c>
+      <c r="C143" t="n">
+        <v>372</v>
+      </c>
+      <c r="D143" t="n">
+        <v>372</v>
+      </c>
+      <c r="E143" t="n">
+        <v>372</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G143" t="n">
+        <v>371.7333333333333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>369</v>
+      </c>
+      <c r="C144" t="n">
+        <v>369</v>
+      </c>
+      <c r="D144" t="n">
+        <v>369</v>
+      </c>
+      <c r="E144" t="n">
+        <v>369</v>
+      </c>
+      <c r="F144" t="n">
+        <v>241.1759</v>
+      </c>
+      <c r="G144" t="n">
+        <v>371.3333333333333</v>
+      </c>
+      <c r="H144" t="n">
+        <v>367.8333333333333</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>369</v>
+      </c>
+      <c r="C145" t="n">
+        <v>368</v>
+      </c>
+      <c r="D145" t="n">
+        <v>369</v>
+      </c>
+      <c r="E145" t="n">
+        <v>368</v>
+      </c>
+      <c r="F145" t="n">
+        <v>317.0741</v>
+      </c>
+      <c r="G145" t="n">
+        <v>370.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>368</v>
+      </c>
+      <c r="C146" t="n">
+        <v>368</v>
+      </c>
+      <c r="D146" t="n">
+        <v>368</v>
+      </c>
+      <c r="E146" t="n">
+        <v>368</v>
+      </c>
+      <c r="F146" t="n">
+        <v>333.8854</v>
+      </c>
+      <c r="G146" t="n">
+        <v>370.4</v>
+      </c>
+      <c r="H146" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>367</v>
+      </c>
+      <c r="C147" t="n">
+        <v>367</v>
+      </c>
+      <c r="D147" t="n">
+        <v>367</v>
+      </c>
+      <c r="E147" t="n">
+        <v>367</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1029.5089</v>
+      </c>
+      <c r="G147" t="n">
+        <v>369.9333333333333</v>
+      </c>
+      <c r="H147" t="n">
+        <v>368.4333333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>368</v>
+      </c>
+      <c r="C148" t="n">
+        <v>367</v>
+      </c>
+      <c r="D148" t="n">
+        <v>368</v>
+      </c>
+      <c r="E148" t="n">
+        <v>367</v>
+      </c>
+      <c r="F148" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="G148" t="n">
+        <v>369.7333333333333</v>
+      </c>
+      <c r="H148" t="n">
+        <v>368.6</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>367</v>
+      </c>
+      <c r="C149" t="n">
+        <v>367</v>
+      </c>
+      <c r="D149" t="n">
+        <v>367</v>
+      </c>
+      <c r="E149" t="n">
+        <v>367</v>
+      </c>
+      <c r="F149" t="n">
+        <v>340.8909</v>
+      </c>
+      <c r="G149" t="n">
+        <v>369.4666666666666</v>
+      </c>
+      <c r="H149" t="n">
+        <v>368.8333333333333</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>370</v>
+      </c>
+      <c r="C150" t="n">
+        <v>370</v>
+      </c>
+      <c r="D150" t="n">
+        <v>370</v>
+      </c>
+      <c r="E150" t="n">
+        <v>370</v>
+      </c>
+      <c r="F150" t="n">
+        <v>121.3511</v>
+      </c>
+      <c r="G150" t="n">
+        <v>369.4666666666666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>369.0666666666667</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C2" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D2" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E2" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F2" t="n">
-        <v>6280.1229</v>
+        <v>409</v>
       </c>
       <c r="G2" t="n">
-        <v>356.4</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H2" t="n">
-        <v>356.3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>136.3</v>
       </c>
       <c r="G3" t="n">
-        <v>356.4</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H3" t="n">
-        <v>356.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>355</v>
-      </c>
-      <c r="L3" t="n">
-        <v>355</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C4" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D4" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E4" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F4" t="n">
-        <v>551.2125</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="n">
-        <v>356.6</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H4" t="n">
-        <v>356.4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>357</v>
-      </c>
-      <c r="L4" t="n">
-        <v>355</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D5" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E5" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F5" t="n">
-        <v>55.401</v>
+        <v>206.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>356.8</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H5" t="n">
-        <v>356.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>361</v>
-      </c>
-      <c r="L5" t="n">
-        <v>355</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C6" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D6" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E6" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F6" t="n">
-        <v>1977.0982</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>357.4666666666666</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H6" t="n">
-        <v>356.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>361</v>
-      </c>
-      <c r="L6" t="n">
-        <v>361</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C7" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D7" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E7" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F7" t="n">
-        <v>98.0497</v>
+        <v>384.4584</v>
       </c>
       <c r="G7" t="n">
-        <v>358.3333333333333</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H7" t="n">
-        <v>356.85</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>361</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C8" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D8" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E8" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F8" t="n">
-        <v>93.8878</v>
+        <v>3445.4798</v>
       </c>
       <c r="G8" t="n">
-        <v>358.6666666666667</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H8" t="n">
-        <v>356.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>361</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C9" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D9" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E9" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>149</v>
       </c>
       <c r="G9" t="n">
-        <v>359.3333333333333</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H9" t="n">
-        <v>357.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C10" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D10" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E10" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F10" t="n">
-        <v>104</v>
+        <v>360.1</v>
       </c>
       <c r="G10" t="n">
-        <v>359.5333333333334</v>
+        <v>-10850.9906</v>
       </c>
       <c r="H10" t="n">
-        <v>357.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C11" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D11" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E11" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F11" t="n">
-        <v>137.36263736</v>
+        <v>840.425</v>
       </c>
       <c r="G11" t="n">
-        <v>360</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H11" t="n">
-        <v>357.35</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -854,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C12" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D12" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E12" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F12" t="n">
-        <v>1270.7975</v>
+        <v>137.3802</v>
       </c>
       <c r="G12" t="n">
-        <v>360.2666666666667</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H12" t="n">
-        <v>357.45</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -892,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F13" t="n">
-        <v>137.3626</v>
+        <v>1868.3408</v>
       </c>
       <c r="G13" t="n">
-        <v>360.6</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H13" t="n">
-        <v>357.6</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C14" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D14" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E14" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F14" t="n">
-        <v>1.4</v>
+        <v>325</v>
       </c>
       <c r="G14" t="n">
-        <v>361.2</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H14" t="n">
-        <v>357.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C15" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D15" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E15" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F15" t="n">
-        <v>1.9295</v>
+        <v>2999.6952</v>
       </c>
       <c r="G15" t="n">
-        <v>361.7333333333333</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H15" t="n">
-        <v>357.9</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C16" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D16" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E16" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F16" t="n">
-        <v>11.2892</v>
+        <v>344.8195</v>
       </c>
       <c r="G16" t="n">
-        <v>362</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H16" t="n">
-        <v>358.05</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C17" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D17" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E17" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F17" t="n">
-        <v>1.4</v>
+        <v>496.9663</v>
       </c>
       <c r="G17" t="n">
-        <v>362.6666666666667</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H17" t="n">
-        <v>358.25</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C18" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D18" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E18" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F18" t="n">
-        <v>170.5482</v>
+        <v>921.4</v>
       </c>
       <c r="G18" t="n">
-        <v>363</v>
+        <v>-9089.165600000002</v>
       </c>
       <c r="H18" t="n">
-        <v>358.35</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C19" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D19" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E19" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F19" t="n">
-        <v>239.7896</v>
+        <v>1400</v>
       </c>
       <c r="G19" t="n">
-        <v>363.0666666666667</v>
+        <v>-9089.165600000002</v>
       </c>
       <c r="H19" t="n">
-        <v>358.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C20" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D20" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E20" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F20" t="n">
-        <v>137.8687</v>
+        <v>1086.5578</v>
       </c>
       <c r="G20" t="n">
-        <v>363.1333333333333</v>
+        <v>-10175.7234</v>
       </c>
       <c r="H20" t="n">
-        <v>358.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C21" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D21" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E21" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F21" t="n">
-        <v>233.8768</v>
+        <v>449.4</v>
       </c>
       <c r="G21" t="n">
-        <v>362.7333333333333</v>
+        <v>-10625.1234</v>
       </c>
       <c r="H21" t="n">
-        <v>358.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C22" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D22" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E22" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F22" t="n">
-        <v>111.2337</v>
+        <v>1848.2</v>
       </c>
       <c r="G22" t="n">
-        <v>362.7333333333333</v>
+        <v>-8776.923400000001</v>
       </c>
       <c r="H22" t="n">
-        <v>358.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C23" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D23" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E23" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F23" t="n">
-        <v>318.1994</v>
+        <v>370</v>
       </c>
       <c r="G23" t="n">
-        <v>362.8</v>
+        <v>-9146.923400000001</v>
       </c>
       <c r="H23" t="n">
-        <v>359.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C24" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D24" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E24" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F24" t="n">
-        <v>227.3275</v>
+        <v>778.2</v>
       </c>
       <c r="G24" t="n">
-        <v>362.8</v>
+        <v>-8368.723400000001</v>
       </c>
       <c r="H24" t="n">
-        <v>359.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C25" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D25" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E25" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F25" t="n">
-        <v>681.8006</v>
+        <v>90.7</v>
       </c>
       <c r="G25" t="n">
-        <v>362.9333333333333</v>
+        <v>-8368.723400000001</v>
       </c>
       <c r="H25" t="n">
-        <v>359.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C26" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D26" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E26" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F26" t="n">
-        <v>227.3275</v>
+        <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>362.8</v>
+        <v>-8367.323400000001</v>
       </c>
       <c r="H26" t="n">
-        <v>359.25</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C27" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D27" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E27" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F27" t="n">
-        <v>981.1402</v>
+        <v>98.83240000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>362.8666666666667</v>
+        <v>-8466.1558</v>
       </c>
       <c r="H27" t="n">
-        <v>359.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D28" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E28" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F28" t="n">
-        <v>1.4</v>
+        <v>101.1688</v>
       </c>
       <c r="G28" t="n">
-        <v>363.0666666666667</v>
+        <v>-8466.1558</v>
       </c>
       <c r="H28" t="n">
-        <v>359.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C29" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D29" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E29" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F29" t="n">
-        <v>234.1044</v>
+        <v>444.2314</v>
       </c>
       <c r="G29" t="n">
-        <v>362.8</v>
+        <v>-8466.1558</v>
       </c>
       <c r="H29" t="n">
-        <v>359.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F30" t="n">
-        <v>1208.4677</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
-        <v>362.5333333333334</v>
+        <v>-8464.755800000001</v>
       </c>
       <c r="H30" t="n">
-        <v>359.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C31" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D31" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E31" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F31" t="n">
-        <v>617.5044</v>
+        <v>6280.1229</v>
       </c>
       <c r="G31" t="n">
-        <v>362.8</v>
+        <v>-14744.8787</v>
       </c>
       <c r="H31" t="n">
-        <v>359.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1614,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C32" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D32" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E32" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F32" t="n">
-        <v>222.0503</v>
+        <v>1.5</v>
       </c>
       <c r="G32" t="n">
-        <v>362.6</v>
+        <v>-14743.3787</v>
       </c>
       <c r="H32" t="n">
-        <v>359.7</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C33" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D33" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E33" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F33" t="n">
-        <v>1.4001</v>
+        <v>551.2125</v>
       </c>
       <c r="G33" t="n">
-        <v>362.8666666666667</v>
+        <v>-14192.1662</v>
       </c>
       <c r="H33" t="n">
-        <v>359.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C34" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D34" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E34" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F34" t="n">
-        <v>260</v>
+        <v>55.401</v>
       </c>
       <c r="G34" t="n">
-        <v>363.1333333333333</v>
+        <v>-14192.1662</v>
       </c>
       <c r="H34" t="n">
-        <v>359.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C35" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D35" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E35" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F35" t="n">
-        <v>546</v>
+        <v>1977.0982</v>
       </c>
       <c r="G35" t="n">
-        <v>363.4</v>
+        <v>-12215.068</v>
       </c>
       <c r="H35" t="n">
-        <v>360.1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C36" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D36" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E36" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>98.0497</v>
       </c>
       <c r="G36" t="n">
-        <v>363.7333333333333</v>
+        <v>-12313.1177</v>
       </c>
       <c r="H36" t="n">
-        <v>360.25</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C37" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D37" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E37" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>93.8878</v>
       </c>
       <c r="G37" t="n">
-        <v>363.8666666666667</v>
+        <v>-12407.0055</v>
       </c>
       <c r="H37" t="n">
-        <v>360.4</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C38" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D38" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E38" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0468</v>
+        <v>1.4</v>
       </c>
       <c r="G38" t="n">
-        <v>364.1333333333333</v>
+        <v>-12405.6055</v>
       </c>
       <c r="H38" t="n">
-        <v>360.55</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C39" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D39" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E39" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F39" t="n">
-        <v>990.4965999999999</v>
+        <v>104</v>
       </c>
       <c r="G39" t="n">
-        <v>364.2</v>
+        <v>-12509.6055</v>
       </c>
       <c r="H39" t="n">
-        <v>360.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C40" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D40" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E40" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F40" t="n">
-        <v>165.2</v>
+        <v>137.36263736</v>
       </c>
       <c r="G40" t="n">
-        <v>364.2</v>
+        <v>-12372.24286264</v>
       </c>
       <c r="H40" t="n">
-        <v>360.75</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C41" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D41" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E41" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F41" t="n">
-        <v>2624.7586</v>
+        <v>1270.7975</v>
       </c>
       <c r="G41" t="n">
-        <v>364.1333333333333</v>
+        <v>-13643.04036264</v>
       </c>
       <c r="H41" t="n">
-        <v>360.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E42" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F42" t="n">
-        <v>12.2895</v>
+        <v>137.3626</v>
       </c>
       <c r="G42" t="n">
-        <v>364</v>
+        <v>-13643.04036264</v>
       </c>
       <c r="H42" t="n">
-        <v>360.9</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C43" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D43" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E43" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F43" t="n">
-        <v>136.9413</v>
+        <v>1.4</v>
       </c>
       <c r="G43" t="n">
-        <v>363.7333333333333</v>
+        <v>-13641.64036264</v>
       </c>
       <c r="H43" t="n">
-        <v>360.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,40 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C44" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D44" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E44" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F44" t="n">
-        <v>800.8944</v>
+        <v>1.9295</v>
       </c>
       <c r="G44" t="n">
-        <v>363.6</v>
+        <v>-13643.56986264</v>
       </c>
       <c r="H44" t="n">
-        <v>361.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>361</v>
-      </c>
-      <c r="L44" t="n">
-        <v>361</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,44 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C45" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D45" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E45" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F45" t="n">
-        <v>818.7234</v>
+        <v>11.2892</v>
       </c>
       <c r="G45" t="n">
-        <v>363.5333333333334</v>
+        <v>-13654.85906264</v>
       </c>
       <c r="H45" t="n">
-        <v>361.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>360</v>
-      </c>
-      <c r="L45" t="n">
-        <v>361</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,44 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C46" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D46" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E46" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F46" t="n">
-        <v>588.4212</v>
+        <v>1.4</v>
       </c>
       <c r="G46" t="n">
-        <v>363.1333333333333</v>
+        <v>-13653.45906264</v>
       </c>
       <c r="H46" t="n">
-        <v>361.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>360</v>
-      </c>
-      <c r="L46" t="n">
-        <v>361</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,28 +2020,21 @@
         <v>362</v>
       </c>
       <c r="F47" t="n">
-        <v>1.4</v>
+        <v>170.5482</v>
       </c>
       <c r="G47" t="n">
-        <v>363.1333333333333</v>
+        <v>-13824.00726264</v>
       </c>
       <c r="H47" t="n">
-        <v>361.2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>360</v>
-      </c>
-      <c r="L47" t="n">
-        <v>360</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,44 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C48" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D48" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E48" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F48" t="n">
-        <v>565.0144</v>
+        <v>239.7896</v>
       </c>
       <c r="G48" t="n">
-        <v>362.7333333333333</v>
+        <v>-13824.00726264</v>
       </c>
       <c r="H48" t="n">
-        <v>361.25</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>362</v>
-      </c>
-      <c r="L48" t="n">
-        <v>360</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2292,44 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C49" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D49" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E49" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F49" t="n">
-        <v>1394.9688</v>
+        <v>137.8687</v>
       </c>
       <c r="G49" t="n">
-        <v>362.3333333333333</v>
+        <v>-13824.00726264</v>
       </c>
       <c r="H49" t="n">
-        <v>361.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>360</v>
-      </c>
-      <c r="L49" t="n">
-        <v>360</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,40 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D50" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F50" t="n">
-        <v>6.2129</v>
+        <v>233.8768</v>
       </c>
       <c r="G50" t="n">
-        <v>362.0666666666667</v>
+        <v>-14057.88406264</v>
       </c>
       <c r="H50" t="n">
-        <v>361.35</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>360</v>
-      </c>
-      <c r="L50" t="n">
-        <v>360</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,44 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C51" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D51" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E51" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>111.2337</v>
       </c>
       <c r="G51" t="n">
-        <v>361.6666666666667</v>
+        <v>-13946.65036264</v>
       </c>
       <c r="H51" t="n">
-        <v>361.4</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>362</v>
-      </c>
-      <c r="L51" t="n">
-        <v>360</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,42 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C52" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D52" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E52" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F52" t="n">
-        <v>6.2129</v>
+        <v>318.1994</v>
       </c>
       <c r="G52" t="n">
-        <v>361.2666666666667</v>
+        <v>-14264.84976264</v>
       </c>
       <c r="H52" t="n">
-        <v>361.55</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>360</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C53" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D53" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E53" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F53" t="n">
-        <v>1595.4202</v>
+        <v>227.3275</v>
       </c>
       <c r="G53" t="n">
-        <v>360.8666666666667</v>
+        <v>-14037.52226264</v>
       </c>
       <c r="H53" t="n">
-        <v>361.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C54" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D54" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E54" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F54" t="n">
-        <v>95.9194</v>
+        <v>681.8006</v>
       </c>
       <c r="G54" t="n">
-        <v>360.6666666666667</v>
+        <v>-14719.32286264</v>
       </c>
       <c r="H54" t="n">
-        <v>361.75</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2546,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C55" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D55" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E55" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F55" t="n">
-        <v>300.0015</v>
+        <v>227.3275</v>
       </c>
       <c r="G55" t="n">
-        <v>360.6</v>
+        <v>-14719.32286264</v>
       </c>
       <c r="H55" t="n">
-        <v>361.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C56" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D56" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E56" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F56" t="n">
-        <v>200.001</v>
+        <v>981.1402</v>
       </c>
       <c r="G56" t="n">
-        <v>360.6</v>
+        <v>-13738.18266264</v>
       </c>
       <c r="H56" t="n">
-        <v>361.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C57" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D57" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E57" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F57" t="n">
-        <v>209.5742</v>
+        <v>1.4</v>
       </c>
       <c r="G57" t="n">
-        <v>360.6</v>
+        <v>-13736.78266264</v>
       </c>
       <c r="H57" t="n">
-        <v>361.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C58" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D58" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E58" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F58" t="n">
-        <v>4315.5497</v>
+        <v>234.1044</v>
       </c>
       <c r="G58" t="n">
-        <v>360.5333333333334</v>
+        <v>-13970.88706264</v>
       </c>
       <c r="H58" t="n">
-        <v>361.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2710,24 +2440,21 @@
         <v>361</v>
       </c>
       <c r="F59" t="n">
-        <v>2.0087</v>
+        <v>1208.4677</v>
       </c>
       <c r="G59" t="n">
-        <v>360.6</v>
+        <v>-15179.35476264</v>
       </c>
       <c r="H59" t="n">
-        <v>362.05</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C60" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D60" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E60" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9631</v>
+        <v>617.5044</v>
       </c>
       <c r="G60" t="n">
-        <v>360.6</v>
+        <v>-14561.85036264</v>
       </c>
       <c r="H60" t="n">
-        <v>362.1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C61" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D61" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E61" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F61" t="n">
-        <v>52.2514</v>
+        <v>222.0503</v>
       </c>
       <c r="G61" t="n">
-        <v>360.5333333333334</v>
+        <v>-14783.90066264</v>
       </c>
       <c r="H61" t="n">
-        <v>362.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C62" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D62" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E62" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F62" t="n">
-        <v>13.0628</v>
+        <v>1.4001</v>
       </c>
       <c r="G62" t="n">
-        <v>360.2</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H62" t="n">
-        <v>362.15</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,40 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C63" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D63" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E63" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F63" t="n">
-        <v>34.9372</v>
+        <v>260</v>
       </c>
       <c r="G63" t="n">
-        <v>360</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H63" t="n">
-        <v>362.15</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>357</v>
-      </c>
-      <c r="L63" t="n">
-        <v>357</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,44 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C64" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D64" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E64" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F64" t="n">
-        <v>34.7578</v>
+        <v>546</v>
       </c>
       <c r="G64" t="n">
-        <v>359.8666666666667</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H64" t="n">
-        <v>362.1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>357</v>
-      </c>
-      <c r="L64" t="n">
-        <v>357</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,44 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C65" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D65" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E65" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F65" t="n">
-        <v>807.3253999999999</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>359.4666666666666</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H65" t="n">
-        <v>362.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>358</v>
-      </c>
-      <c r="L65" t="n">
-        <v>357</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,40 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C66" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D66" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E66" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F66" t="n">
-        <v>96.876</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>359.2666666666667</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H66" t="n">
-        <v>361.85</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>356</v>
-      </c>
-      <c r="L66" t="n">
-        <v>356</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,44 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C67" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D67" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E67" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F67" t="n">
-        <v>429</v>
+        <v>13.0468</v>
       </c>
       <c r="G67" t="n">
-        <v>359.0666666666667</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H67" t="n">
-        <v>361.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>357</v>
-      </c>
-      <c r="L67" t="n">
-        <v>356</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,42 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C68" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D68" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E68" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F68" t="n">
-        <v>824.5236</v>
+        <v>990.4965999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>358.8666666666667</v>
+        <v>-15772.99716264</v>
       </c>
       <c r="H68" t="n">
-        <v>361.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>356</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C69" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D69" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E69" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F69" t="n">
-        <v>3577.7502</v>
+        <v>165.2</v>
       </c>
       <c r="G69" t="n">
-        <v>358.6666666666667</v>
+        <v>-15938.19716264</v>
       </c>
       <c r="H69" t="n">
-        <v>361.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C70" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D70" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E70" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F70" t="n">
-        <v>3157.7207</v>
+        <v>2624.7586</v>
       </c>
       <c r="G70" t="n">
-        <v>358.2666666666667</v>
+        <v>-18562.95576264</v>
       </c>
       <c r="H70" t="n">
-        <v>361.5</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C71" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D71" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E71" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F71" t="n">
-        <v>444.8521</v>
+        <v>12.2895</v>
       </c>
       <c r="G71" t="n">
-        <v>357.9333333333333</v>
+        <v>-18562.95576264</v>
       </c>
       <c r="H71" t="n">
-        <v>361.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C72" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D72" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E72" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F72" t="n">
-        <v>277</v>
+        <v>136.9413</v>
       </c>
       <c r="G72" t="n">
-        <v>357.5333333333334</v>
+        <v>-18562.95576264</v>
       </c>
       <c r="H72" t="n">
-        <v>361.25</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C73" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D73" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E73" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F73" t="n">
-        <v>1.5</v>
+        <v>800.8944</v>
       </c>
       <c r="G73" t="n">
-        <v>357.2666666666667</v>
+        <v>-19363.85016264</v>
       </c>
       <c r="H73" t="n">
-        <v>361.15</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C74" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D74" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E74" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F74" t="n">
-        <v>250.5</v>
+        <v>818.7234</v>
       </c>
       <c r="G74" t="n">
-        <v>356.9333333333333</v>
+        <v>-19363.85016264</v>
       </c>
       <c r="H74" t="n">
-        <v>360.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C75" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D75" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E75" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F75" t="n">
-        <v>5351.7431</v>
+        <v>588.4212</v>
       </c>
       <c r="G75" t="n">
-        <v>356.7333333333333</v>
+        <v>-19363.85016264</v>
       </c>
       <c r="H75" t="n">
-        <v>360.85</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C76" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D76" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E76" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F76" t="n">
         <v>1.4</v>
       </c>
       <c r="G76" t="n">
-        <v>356.6666666666667</v>
+        <v>-19362.45016264</v>
       </c>
       <c r="H76" t="n">
-        <v>360.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,36 +3058,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C77" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D77" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E77" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>565.0144</v>
       </c>
       <c r="G77" t="n">
-        <v>356.5333333333334</v>
+        <v>-19927.46456264</v>
       </c>
       <c r="H77" t="n">
-        <v>360.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>362</v>
+      </c>
+      <c r="K77" t="n">
+        <v>362</v>
+      </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,36 +3097,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C78" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D78" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E78" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F78" t="n">
-        <v>141</v>
+        <v>1394.9688</v>
       </c>
       <c r="G78" t="n">
-        <v>356.6</v>
+        <v>-19927.46456264</v>
       </c>
       <c r="H78" t="n">
-        <v>360.55</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>362</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,36 +3138,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C79" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D79" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E79" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F79" t="n">
-        <v>14700.1637</v>
+        <v>6.2129</v>
       </c>
       <c r="G79" t="n">
-        <v>356.2666666666667</v>
+        <v>-19921.25166264</v>
       </c>
       <c r="H79" t="n">
-        <v>360.4</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>362</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,36 +3179,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C80" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D80" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E80" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F80" t="n">
-        <v>5497.5778</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>356.2</v>
+        <v>-19951.25166264</v>
       </c>
       <c r="H80" t="n">
-        <v>360.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,36 +3214,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C81" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D81" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E81" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>6.2129</v>
       </c>
       <c r="G81" t="n">
-        <v>356.0666666666667</v>
+        <v>-19951.25166264</v>
       </c>
       <c r="H81" t="n">
-        <v>360.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,36 +3249,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C82" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D82" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E82" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F82" t="n">
-        <v>288.1799</v>
+        <v>1595.4202</v>
       </c>
       <c r="G82" t="n">
-        <v>355.9333333333333</v>
+        <v>-19951.25166264</v>
       </c>
       <c r="H82" t="n">
-        <v>360.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,36 +3284,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C83" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D83" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E83" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F83" t="n">
-        <v>1972.0868</v>
+        <v>95.9194</v>
       </c>
       <c r="G83" t="n">
-        <v>355.8</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H83" t="n">
-        <v>359.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,36 +3319,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C84" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D84" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E84" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F84" t="n">
-        <v>328.8828</v>
+        <v>300.0015</v>
       </c>
       <c r="G84" t="n">
-        <v>355.6</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H84" t="n">
-        <v>359.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,36 +3354,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C85" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D85" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E85" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F85" t="n">
-        <v>87.5763</v>
+        <v>200.001</v>
       </c>
       <c r="G85" t="n">
-        <v>355.6</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H85" t="n">
-        <v>359.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="K85" t="n">
+        <v>361</v>
+      </c>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,36 +3393,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C86" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D86" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E86" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F86" t="n">
-        <v>104.506</v>
+        <v>209.5742</v>
       </c>
       <c r="G86" t="n">
-        <v>355.6</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H86" t="n">
-        <v>359.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>361</v>
+      </c>
+      <c r="K86" t="n">
+        <v>361</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,36 +3436,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C87" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D87" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E87" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F87" t="n">
-        <v>140.845</v>
+        <v>4315.5497</v>
       </c>
       <c r="G87" t="n">
-        <v>355.6666666666667</v>
+        <v>-24170.88196264</v>
       </c>
       <c r="H87" t="n">
-        <v>359.45</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>361</v>
+      </c>
+      <c r="K87" t="n">
+        <v>361</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,36 +3479,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C88" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D88" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E88" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F88" t="n">
-        <v>71</v>
+        <v>2.0087</v>
       </c>
       <c r="G88" t="n">
-        <v>355.7333333333333</v>
+        <v>-24168.87326264001</v>
       </c>
       <c r="H88" t="n">
-        <v>359.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="K88" t="n">
+        <v>360</v>
+      </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,36 +3518,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C89" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D89" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E89" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F89" t="n">
-        <v>3930.7894</v>
+        <v>0.9631</v>
       </c>
       <c r="G89" t="n">
-        <v>355.5333333333334</v>
+        <v>-24169.83636264001</v>
       </c>
       <c r="H89" t="n">
-        <v>359.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>361</v>
+      </c>
+      <c r="K89" t="n">
+        <v>360</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,36 +3561,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C90" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D90" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E90" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F90" t="n">
-        <v>4087.7092</v>
+        <v>52.2514</v>
       </c>
       <c r="G90" t="n">
-        <v>355.4666666666666</v>
+        <v>-24222.08776264001</v>
       </c>
       <c r="H90" t="n">
-        <v>359.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>360</v>
+      </c>
+      <c r="K90" t="n">
+        <v>360</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,36 +3604,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C91" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D91" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E91" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>13.0628</v>
       </c>
       <c r="G91" t="n">
-        <v>355.1333333333333</v>
+        <v>-24235.15056264001</v>
       </c>
       <c r="H91" t="n">
-        <v>358.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>359</v>
+      </c>
+      <c r="K91" t="n">
+        <v>359</v>
+      </c>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,36 +3643,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C92" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D92" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E92" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F92" t="n">
-        <v>4608.98</v>
+        <v>34.9372</v>
       </c>
       <c r="G92" t="n">
-        <v>355.0666666666667</v>
+        <v>-24235.15056264001</v>
       </c>
       <c r="H92" t="n">
-        <v>358.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>357</v>
+      </c>
+      <c r="K92" t="n">
+        <v>359</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,36 +3686,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C93" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D93" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E93" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F93" t="n">
-        <v>103.2188</v>
+        <v>34.7578</v>
       </c>
       <c r="G93" t="n">
-        <v>354.8</v>
+        <v>-24200.39276264001</v>
       </c>
       <c r="H93" t="n">
-        <v>358.5333333333334</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>357</v>
+      </c>
+      <c r="K93" t="n">
+        <v>359</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,24 +3741,25 @@
         <v>356</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>807.3253999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>355</v>
+        <v>-25007.71816264001</v>
       </c>
       <c r="H94" t="n">
-        <v>358.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>358</v>
+      </c>
+      <c r="K94" t="n">
+        <v>358</v>
+      </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,36 +3768,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C95" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D95" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E95" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F95" t="n">
-        <v>247.8031</v>
+        <v>96.876</v>
       </c>
       <c r="G95" t="n">
-        <v>354.9333333333333</v>
+        <v>-24910.84216264001</v>
       </c>
       <c r="H95" t="n">
-        <v>358.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>356</v>
+      </c>
+      <c r="K95" t="n">
+        <v>358</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,36 +3811,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C96" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D96" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E96" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F96" t="n">
-        <v>2421.6139</v>
+        <v>429</v>
       </c>
       <c r="G96" t="n">
-        <v>354.8666666666667</v>
+        <v>-24910.84216264001</v>
       </c>
       <c r="H96" t="n">
-        <v>357.9666666666666</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>357</v>
+      </c>
+      <c r="K96" t="n">
+        <v>358</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,36 +3854,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C97" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D97" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E97" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F97" t="n">
-        <v>535.8139</v>
+        <v>824.5236</v>
       </c>
       <c r="G97" t="n">
-        <v>354.8666666666667</v>
+        <v>-24910.84216264001</v>
       </c>
       <c r="H97" t="n">
-        <v>357.7833333333334</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="K97" t="n">
+        <v>357</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,36 +3893,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C98" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D98" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E98" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F98" t="n">
-        <v>104</v>
+        <v>3577.7502</v>
       </c>
       <c r="G98" t="n">
-        <v>354.8666666666667</v>
+        <v>-21333.09196264001</v>
       </c>
       <c r="H98" t="n">
-        <v>357.6</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+        <v>357</v>
+      </c>
+      <c r="K98" t="n">
+        <v>357</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,36 +3936,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>356</v>
+      </c>
+      <c r="C99" t="n">
         <v>355</v>
-      </c>
-      <c r="C99" t="n">
-        <v>356</v>
       </c>
       <c r="D99" t="n">
         <v>356</v>
       </c>
       <c r="E99" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F99" t="n">
-        <v>3727.8139</v>
+        <v>3157.7207</v>
       </c>
       <c r="G99" t="n">
-        <v>354.9333333333333</v>
+        <v>-24490.81266264001</v>
       </c>
       <c r="H99" t="n">
-        <v>357.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>358</v>
+      </c>
+      <c r="K99" t="n">
+        <v>357</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,36 +3979,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C100" t="n">
         <v>356</v>
       </c>
       <c r="D100" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F100" t="n">
-        <v>1042</v>
+        <v>444.8521</v>
       </c>
       <c r="G100" t="n">
-        <v>355</v>
+        <v>-24045.96056264001</v>
       </c>
       <c r="H100" t="n">
-        <v>357.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>357</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +4020,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>355</v>
+      </c>
+      <c r="C101" t="n">
+        <v>355</v>
+      </c>
+      <c r="D101" t="n">
+        <v>355</v>
+      </c>
+      <c r="E101" t="n">
+        <v>355</v>
+      </c>
+      <c r="F101" t="n">
+        <v>277</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-24322.96056264001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>356</v>
       </c>
-      <c r="C101" t="n">
-        <v>356</v>
-      </c>
-      <c r="D101" t="n">
-        <v>356</v>
-      </c>
-      <c r="E101" t="n">
-        <v>356</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2380.6205</v>
-      </c>
-      <c r="G101" t="n">
-        <v>355</v>
-      </c>
-      <c r="H101" t="n">
-        <v>357.2833333333334</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="K101" t="n">
+        <v>357</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,24 +4075,29 @@
         <v>356</v>
       </c>
       <c r="F102" t="n">
-        <v>368</v>
+        <v>1.5</v>
       </c>
       <c r="G102" t="n">
+        <v>-24321.46056264001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>355</v>
       </c>
-      <c r="H102" t="n">
-        <v>357.2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="K102" t="n">
+        <v>357</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4411,33 +4109,38 @@
         <v>356</v>
       </c>
       <c r="C103" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D103" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E103" t="n">
         <v>356</v>
       </c>
       <c r="F103" t="n">
-        <v>6383.2424</v>
+        <v>250.5</v>
       </c>
       <c r="G103" t="n">
-        <v>355.4666666666666</v>
+        <v>-24321.46056264001</v>
       </c>
       <c r="H103" t="n">
-        <v>357.25</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>356</v>
+      </c>
+      <c r="K103" t="n">
+        <v>357</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4149,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C104" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D104" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E104" t="n">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F104" t="n">
-        <v>159</v>
+        <v>5351.7431</v>
       </c>
       <c r="G104" t="n">
-        <v>356.2</v>
+        <v>-18969.71746264001</v>
       </c>
       <c r="H104" t="n">
-        <v>357.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>356</v>
+      </c>
+      <c r="K104" t="n">
+        <v>357</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4192,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C105" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D105" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E105" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F105" t="n">
-        <v>4275.5578</v>
+        <v>1.4</v>
       </c>
       <c r="G105" t="n">
-        <v>356.4666666666666</v>
+        <v>-18968.31746264001</v>
       </c>
       <c r="H105" t="n">
-        <v>357.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>357</v>
+      </c>
+      <c r="K105" t="n">
+        <v>357</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4235,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C106" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D106" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E106" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F106" t="n">
-        <v>240.382</v>
+        <v>1000</v>
       </c>
       <c r="G106" t="n">
-        <v>357.2</v>
+        <v>-19968.31746264001</v>
       </c>
       <c r="H106" t="n">
-        <v>357.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+        <v>358</v>
+      </c>
+      <c r="K106" t="n">
+        <v>357</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4278,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C107" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D107" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E107" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F107" t="n">
-        <v>14194.5745</v>
+        <v>141</v>
       </c>
       <c r="G107" t="n">
-        <v>358.1333333333333</v>
+        <v>-19827.31746264001</v>
       </c>
       <c r="H107" t="n">
-        <v>357.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>355</v>
+      </c>
+      <c r="K107" t="n">
+        <v>357</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,36 +4321,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C108" t="n">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="D108" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E108" t="n">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F108" t="n">
-        <v>4312.5922</v>
+        <v>14700.1637</v>
       </c>
       <c r="G108" t="n">
-        <v>359.5333333333334</v>
+        <v>-34527.48116264001</v>
       </c>
       <c r="H108" t="n">
-        <v>357.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>358</v>
+      </c>
+      <c r="K108" t="n">
+        <v>357</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,36 +4364,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C109" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D109" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E109" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F109" t="n">
-        <v>1052.7427</v>
+        <v>5497.5778</v>
       </c>
       <c r="G109" t="n">
-        <v>360.8</v>
+        <v>-29029.90336264001</v>
       </c>
       <c r="H109" t="n">
-        <v>357.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>357</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +4405,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C110" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D110" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E110" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F110" t="n">
-        <v>11.04</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>362.2</v>
+        <v>-29029.90336264001</v>
       </c>
       <c r="H110" t="n">
-        <v>358.2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>357</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +4446,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C111" t="n">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D111" t="n">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="E111" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F111" t="n">
-        <v>2992.56</v>
+        <v>288.1799</v>
       </c>
       <c r="G111" t="n">
-        <v>363.6666666666667</v>
+        <v>-29029.90336264001</v>
       </c>
       <c r="H111" t="n">
-        <v>358.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>357</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,36 +4487,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C112" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D112" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E112" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F112" t="n">
-        <v>1314.7706</v>
+        <v>1972.0868</v>
       </c>
       <c r="G112" t="n">
-        <v>365</v>
+        <v>-29029.90336264001</v>
       </c>
       <c r="H112" t="n">
-        <v>358.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>357</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +4528,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C113" t="n">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D113" t="n">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="E113" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F113" t="n">
-        <v>6043.1512</v>
+        <v>328.8828</v>
       </c>
       <c r="G113" t="n">
-        <v>366.5333333333334</v>
+        <v>-29029.90336264001</v>
       </c>
       <c r="H113" t="n">
-        <v>359.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>357</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,36 +4569,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C114" t="n">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D114" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="E114" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F114" t="n">
-        <v>12490.7158</v>
+        <v>87.5763</v>
       </c>
       <c r="G114" t="n">
-        <v>367.8666666666667</v>
+        <v>-29029.90336264001</v>
       </c>
       <c r="H114" t="n">
-        <v>359.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>357</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,36 +4610,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C115" t="n">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="D115" t="n">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="E115" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F115" t="n">
-        <v>3803.6982</v>
+        <v>104.506</v>
       </c>
       <c r="G115" t="n">
-        <v>369.2666666666667</v>
+        <v>-28925.39736264001</v>
       </c>
       <c r="H115" t="n">
-        <v>359.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>357</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,36 +4651,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C116" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D116" t="n">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E116" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F116" t="n">
-        <v>2033</v>
+        <v>140.845</v>
       </c>
       <c r="G116" t="n">
-        <v>370.6</v>
+        <v>-28925.39736264001</v>
       </c>
       <c r="H116" t="n">
-        <v>359.7833333333334</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>356</v>
+      </c>
+      <c r="K116" t="n">
+        <v>357</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,36 +4694,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C117" t="n">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D117" t="n">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E117" t="n">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F117" t="n">
-        <v>1925.715</v>
+        <v>71</v>
       </c>
       <c r="G117" t="n">
-        <v>372</v>
+        <v>-28854.39736264001</v>
       </c>
       <c r="H117" t="n">
-        <v>360.05</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>357</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,36 +4735,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C118" t="n">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D118" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="E118" t="n">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="F118" t="n">
-        <v>4141.6998</v>
+        <v>3930.7894</v>
       </c>
       <c r="G118" t="n">
-        <v>372.8666666666667</v>
+        <v>-32785.18676264001</v>
       </c>
       <c r="H118" t="n">
-        <v>360.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>357</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,36 +4776,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C119" t="n">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D119" t="n">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="E119" t="n">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="F119" t="n">
-        <v>1.309</v>
+        <v>4087.7092</v>
       </c>
       <c r="G119" t="n">
-        <v>374.0666666666667</v>
+        <v>-28697.47756264001</v>
       </c>
       <c r="H119" t="n">
-        <v>360.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>357</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,36 +4817,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C120" t="n">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D120" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="E120" t="n">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="F120" t="n">
-        <v>11318.0197</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>375.2</v>
+        <v>-28897.47756264001</v>
       </c>
       <c r="H120" t="n">
-        <v>360.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>357</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,36 +4858,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C121" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D121" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="E121" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F121" t="n">
-        <v>99.98560000000001</v>
+        <v>4608.98</v>
       </c>
       <c r="G121" t="n">
-        <v>376.0666666666667</v>
+        <v>-24288.49756264001</v>
       </c>
       <c r="H121" t="n">
-        <v>361.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>357</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,36 +4899,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C122" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D122" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="E122" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F122" t="n">
-        <v>1181.1911</v>
+        <v>103.2188</v>
       </c>
       <c r="G122" t="n">
-        <v>376.6666666666667</v>
+        <v>-24288.49756264001</v>
       </c>
       <c r="H122" t="n">
-        <v>361.6</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>357</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,36 +4940,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C123" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D123" t="n">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E123" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F123" t="n">
-        <v>1659.4558</v>
+        <v>6</v>
       </c>
       <c r="G123" t="n">
-        <v>376.7333333333333</v>
+        <v>-24282.49756264001</v>
       </c>
       <c r="H123" t="n">
-        <v>361.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>357</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,36 +4981,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C124" t="n">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="D124" t="n">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E124" t="n">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="F124" t="n">
-        <v>1204.1418</v>
+        <v>247.8031</v>
       </c>
       <c r="G124" t="n">
-        <v>376.8</v>
+        <v>-24530.30066264001</v>
       </c>
       <c r="H124" t="n">
-        <v>362.2166666666666</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+        <v>356</v>
+      </c>
+      <c r="K124" t="n">
+        <v>357</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,36 +5024,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C125" t="n">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D125" t="n">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="E125" t="n">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="F125" t="n">
-        <v>5648.9503</v>
+        <v>2421.6139</v>
       </c>
       <c r="G125" t="n">
-        <v>377.2666666666667</v>
+        <v>-24530.30066264001</v>
       </c>
       <c r="H125" t="n">
-        <v>362.65</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>357</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,36 +5065,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C126" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D126" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E126" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="F126" t="n">
-        <v>1658.1936</v>
+        <v>535.8139</v>
       </c>
       <c r="G126" t="n">
-        <v>377.3333333333333</v>
+        <v>-23994.48676264001</v>
       </c>
       <c r="H126" t="n">
-        <v>362.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>357</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,36 +5106,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C127" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D127" t="n">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="E127" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="F127" t="n">
-        <v>691.4</v>
+        <v>104</v>
       </c>
       <c r="G127" t="n">
-        <v>377.4666666666666</v>
+        <v>-23994.48676264001</v>
       </c>
       <c r="H127" t="n">
-        <v>363.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>357</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,36 +5147,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C128" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D128" t="n">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E128" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F128" t="n">
-        <v>3992.8198</v>
+        <v>3727.8139</v>
       </c>
       <c r="G128" t="n">
-        <v>377.2666666666667</v>
+        <v>-20266.67286264001</v>
       </c>
       <c r="H128" t="n">
-        <v>363.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>357</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,36 +5188,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C129" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D129" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E129" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F129" t="n">
-        <v>2219.5864</v>
+        <v>1042</v>
       </c>
       <c r="G129" t="n">
-        <v>377.2</v>
+        <v>-20266.67286264001</v>
       </c>
       <c r="H129" t="n">
-        <v>363.9</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>357</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,36 +5229,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C130" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D130" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="E130" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F130" t="n">
-        <v>3413.0747851</v>
+        <v>2380.6205</v>
       </c>
       <c r="G130" t="n">
-        <v>377.0666666666667</v>
+        <v>-20266.67286264001</v>
       </c>
       <c r="H130" t="n">
-        <v>364.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>357</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,36 +5270,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C131" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D131" t="n">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="E131" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F131" t="n">
-        <v>3045.6334149</v>
+        <v>368</v>
       </c>
       <c r="G131" t="n">
-        <v>377</v>
+        <v>-20266.67286264001</v>
       </c>
       <c r="H131" t="n">
-        <v>364.55</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>357</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,36 +5311,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C132" t="n">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D132" t="n">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E132" t="n">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F132" t="n">
-        <v>8496.811900000001</v>
+        <v>6383.2424</v>
       </c>
       <c r="G132" t="n">
-        <v>376.8</v>
+        <v>-13883.43046264001</v>
       </c>
       <c r="H132" t="n">
-        <v>364.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>357</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,36 +5352,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C133" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D133" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E133" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F133" t="n">
-        <v>687.5346</v>
+        <v>159</v>
       </c>
       <c r="G133" t="n">
-        <v>376.3333333333333</v>
+        <v>-13883.43046264001</v>
       </c>
       <c r="H133" t="n">
-        <v>365.1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>357</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,36 +5393,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C134" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D134" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E134" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F134" t="n">
-        <v>31.613</v>
+        <v>4275.5578</v>
       </c>
       <c r="G134" t="n">
-        <v>375.6</v>
+        <v>-18158.98826264001</v>
       </c>
       <c r="H134" t="n">
-        <v>365.35</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>357</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,36 +5434,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C135" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D135" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E135" t="n">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F135" t="n">
-        <v>1238.2936</v>
+        <v>240.382</v>
       </c>
       <c r="G135" t="n">
-        <v>375.1333333333333</v>
+        <v>-17918.60626264001</v>
       </c>
       <c r="H135" t="n">
-        <v>365.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>357</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,36 +5475,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C136" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D136" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E136" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F136" t="n">
-        <v>313.6396</v>
+        <v>14194.5745</v>
       </c>
       <c r="G136" t="n">
-        <v>374.6666666666667</v>
+        <v>-3724.031762640008</v>
       </c>
       <c r="H136" t="n">
-        <v>365.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>357</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,36 +5516,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C137" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D137" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E137" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F137" t="n">
-        <v>926.4835</v>
+        <v>4312.5922</v>
       </c>
       <c r="G137" t="n">
-        <v>374.2666666666667</v>
+        <v>588.5604373599917</v>
       </c>
       <c r="H137" t="n">
-        <v>366.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>357</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,36 +5557,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C138" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D138" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E138" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F138" t="n">
-        <v>477.9282</v>
+        <v>1052.7427</v>
       </c>
       <c r="G138" t="n">
-        <v>374.0666666666667</v>
+        <v>588.5604373599917</v>
       </c>
       <c r="H138" t="n">
-        <v>366.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>357</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5776,36 +5598,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C139" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D139" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E139" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F139" t="n">
-        <v>19.9072</v>
+        <v>11.04</v>
       </c>
       <c r="G139" t="n">
-        <v>373.8</v>
+        <v>588.5604373599917</v>
       </c>
       <c r="H139" t="n">
-        <v>366.6</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>357</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,36 +5639,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C140" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D140" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E140" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F140" t="n">
-        <v>31.4726</v>
+        <v>2992.56</v>
       </c>
       <c r="G140" t="n">
-        <v>373</v>
+        <v>3581.120437359992</v>
       </c>
       <c r="H140" t="n">
-        <v>366.85</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>357</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,36 +5680,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C141" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D141" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E141" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F141" t="n">
-        <v>506.8697</v>
+        <v>1314.7706</v>
       </c>
       <c r="G141" t="n">
-        <v>372.4666666666666</v>
+        <v>2266.349837359991</v>
       </c>
       <c r="H141" t="n">
-        <v>367.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>357</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,36 +5721,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C142" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D142" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E142" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F142" t="n">
-        <v>303.67</v>
+        <v>6043.1512</v>
       </c>
       <c r="G142" t="n">
-        <v>371.9333333333333</v>
+        <v>8309.501037359991</v>
       </c>
       <c r="H142" t="n">
-        <v>367.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>357</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,36 +5762,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C143" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D143" t="n">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E143" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F143" t="n">
-        <v>1.4</v>
+        <v>12490.7158</v>
       </c>
       <c r="G143" t="n">
-        <v>371.7333333333333</v>
+        <v>-4181.214762640009</v>
       </c>
       <c r="H143" t="n">
-        <v>367.6</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>357</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,36 +5803,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C144" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D144" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E144" t="n">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F144" t="n">
-        <v>241.1759</v>
+        <v>3803.6982</v>
       </c>
       <c r="G144" t="n">
-        <v>371.3333333333333</v>
+        <v>-377.5165626400094</v>
       </c>
       <c r="H144" t="n">
-        <v>367.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>357</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,36 +5844,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C145" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D145" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E145" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F145" t="n">
-        <v>317.0741</v>
+        <v>2033</v>
       </c>
       <c r="G145" t="n">
-        <v>370.8666666666667</v>
+        <v>-2410.516562640009</v>
       </c>
       <c r="H145" t="n">
-        <v>368.05</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>357</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6042,36 +5885,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C146" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D146" t="n">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E146" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F146" t="n">
-        <v>333.8854</v>
+        <v>1925.715</v>
       </c>
       <c r="G146" t="n">
-        <v>370.4</v>
+        <v>-484.8015626400095</v>
       </c>
       <c r="H146" t="n">
-        <v>368.25</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>357</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,36 +5926,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C147" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D147" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E147" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F147" t="n">
-        <v>1029.5089</v>
+        <v>4141.6998</v>
       </c>
       <c r="G147" t="n">
-        <v>369.9333333333333</v>
+        <v>-484.8015626400095</v>
       </c>
       <c r="H147" t="n">
-        <v>368.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>357</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,36 +5967,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C148" t="n">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D148" t="n">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E148" t="n">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F148" t="n">
-        <v>59.87</v>
+        <v>1.309</v>
       </c>
       <c r="G148" t="n">
-        <v>369.7333333333333</v>
+        <v>-483.4925626400095</v>
       </c>
       <c r="H148" t="n">
-        <v>368.6</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>357</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,37 +6008,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C149" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D149" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E149" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F149" t="n">
-        <v>340.8909</v>
+        <v>11318.0197</v>
       </c>
       <c r="G149" t="n">
-        <v>369.4666666666666</v>
+        <v>-11801.51226264001</v>
       </c>
       <c r="H149" t="n">
-        <v>368.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>357</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1.051022408963586</v>
       </c>
     </row>
     <row r="150">
@@ -6194,36 +6049,1048 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C150" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D150" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E150" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F150" t="n">
-        <v>121.3511</v>
+        <v>99.98560000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>369.4666666666666</v>
+        <v>-11801.51226264001</v>
       </c>
       <c r="H150" t="n">
-        <v>369.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>377</v>
+      </c>
+      <c r="C151" t="n">
+        <v>377</v>
+      </c>
+      <c r="D151" t="n">
+        <v>377</v>
+      </c>
+      <c r="E151" t="n">
+        <v>377</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1181.1911</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-11801.51226264001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>377</v>
+      </c>
+      <c r="C152" t="n">
+        <v>376</v>
+      </c>
+      <c r="D152" t="n">
+        <v>378</v>
+      </c>
+      <c r="E152" t="n">
+        <v>376</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1659.4558</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-13460.96806264001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>376</v>
+      </c>
+      <c r="C153" t="n">
+        <v>376</v>
+      </c>
+      <c r="D153" t="n">
+        <v>378</v>
+      </c>
+      <c r="E153" t="n">
+        <v>376</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1204.1418</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-13460.96806264001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>378</v>
+      </c>
+      <c r="C154" t="n">
+        <v>382</v>
+      </c>
+      <c r="D154" t="n">
+        <v>383</v>
+      </c>
+      <c r="E154" t="n">
+        <v>376</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5648.9503</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-7812.017762640009</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>377</v>
+      </c>
+      <c r="C155" t="n">
+        <v>377</v>
+      </c>
+      <c r="D155" t="n">
+        <v>377</v>
+      </c>
+      <c r="E155" t="n">
+        <v>377</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1658.1936</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-9470.21136264001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>377</v>
+      </c>
+      <c r="C156" t="n">
+        <v>377</v>
+      </c>
+      <c r="D156" t="n">
+        <v>378</v>
+      </c>
+      <c r="E156" t="n">
+        <v>377</v>
+      </c>
+      <c r="F156" t="n">
+        <v>691.4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-9470.21136264001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>377</v>
+      </c>
+      <c r="C157" t="n">
+        <v>375</v>
+      </c>
+      <c r="D157" t="n">
+        <v>377</v>
+      </c>
+      <c r="E157" t="n">
+        <v>375</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3992.8198</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>375</v>
+      </c>
+      <c r="C158" t="n">
+        <v>375</v>
+      </c>
+      <c r="D158" t="n">
+        <v>375</v>
+      </c>
+      <c r="E158" t="n">
+        <v>375</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2219.5864</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>375</v>
+      </c>
+      <c r="C159" t="n">
+        <v>375</v>
+      </c>
+      <c r="D159" t="n">
+        <v>376</v>
+      </c>
+      <c r="E159" t="n">
+        <v>375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3413.0747851</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>376</v>
+      </c>
+      <c r="C160" t="n">
+        <v>375</v>
+      </c>
+      <c r="D160" t="n">
+        <v>377</v>
+      </c>
+      <c r="E160" t="n">
+        <v>375</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3045.6334149</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>376</v>
+      </c>
+      <c r="C161" t="n">
+        <v>374</v>
+      </c>
+      <c r="D161" t="n">
+        <v>376</v>
+      </c>
+      <c r="E161" t="n">
+        <v>374</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8496.811900000001</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-21959.84306264001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>370</v>
+      </c>
+      <c r="C162" t="n">
+        <v>370</v>
+      </c>
+      <c r="D162" t="n">
+        <v>371</v>
+      </c>
+      <c r="E162" t="n">
+        <v>369</v>
+      </c>
+      <c r="F162" t="n">
+        <v>687.5346</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-22647.37766264001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>370</v>
+      </c>
+      <c r="C163" t="n">
+        <v>371</v>
+      </c>
+      <c r="D163" t="n">
+        <v>371</v>
+      </c>
+      <c r="E163" t="n">
+        <v>370</v>
+      </c>
+      <c r="F163" t="n">
+        <v>31.613</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-22615.76466264001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>371</v>
+      </c>
+      <c r="C164" t="n">
+        <v>370</v>
+      </c>
+      <c r="D164" t="n">
+        <v>371</v>
+      </c>
+      <c r="E164" t="n">
+        <v>370</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1238.2936</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-23854.05826264001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>370</v>
+      </c>
+      <c r="C165" t="n">
+        <v>370</v>
+      </c>
+      <c r="D165" t="n">
+        <v>370</v>
+      </c>
+      <c r="E165" t="n">
+        <v>370</v>
+      </c>
+      <c r="F165" t="n">
+        <v>313.6396</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-23854.05826264001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>371</v>
+      </c>
+      <c r="C166" t="n">
+        <v>371</v>
+      </c>
+      <c r="D166" t="n">
+        <v>371</v>
+      </c>
+      <c r="E166" t="n">
+        <v>371</v>
+      </c>
+      <c r="F166" t="n">
+        <v>926.4835</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-22927.57476264001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>371</v>
+      </c>
+      <c r="C167" t="n">
+        <v>373</v>
+      </c>
+      <c r="D167" t="n">
+        <v>374</v>
+      </c>
+      <c r="E167" t="n">
+        <v>367</v>
+      </c>
+      <c r="F167" t="n">
+        <v>477.9282</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-22449.64656264001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>372</v>
+      </c>
+      <c r="C168" t="n">
+        <v>372</v>
+      </c>
+      <c r="D168" t="n">
+        <v>372</v>
+      </c>
+      <c r="E168" t="n">
+        <v>372</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19.9072</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-22469.55376264001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>371</v>
+      </c>
+      <c r="C169" t="n">
+        <v>370</v>
+      </c>
+      <c r="D169" t="n">
+        <v>371</v>
+      </c>
+      <c r="E169" t="n">
+        <v>370</v>
+      </c>
+      <c r="F169" t="n">
+        <v>31.4726</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-22501.02636264002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>370</v>
+      </c>
+      <c r="C170" t="n">
+        <v>369</v>
+      </c>
+      <c r="D170" t="n">
+        <v>370</v>
+      </c>
+      <c r="E170" t="n">
+        <v>369</v>
+      </c>
+      <c r="F170" t="n">
+        <v>506.8697</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-23007.89606264001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>370</v>
+      </c>
+      <c r="C171" t="n">
+        <v>369</v>
+      </c>
+      <c r="D171" t="n">
+        <v>370</v>
+      </c>
+      <c r="E171" t="n">
+        <v>369</v>
+      </c>
+      <c r="F171" t="n">
+        <v>303.67</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-23007.89606264001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>372</v>
+      </c>
+      <c r="C172" t="n">
+        <v>372</v>
+      </c>
+      <c r="D172" t="n">
+        <v>372</v>
+      </c>
+      <c r="E172" t="n">
+        <v>372</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-23006.49606264001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>369</v>
+      </c>
+      <c r="C173" t="n">
+        <v>369</v>
+      </c>
+      <c r="D173" t="n">
+        <v>369</v>
+      </c>
+      <c r="E173" t="n">
+        <v>369</v>
+      </c>
+      <c r="F173" t="n">
+        <v>241.1759</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-23247.67196264001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>369</v>
+      </c>
+      <c r="C174" t="n">
+        <v>368</v>
+      </c>
+      <c r="D174" t="n">
+        <v>369</v>
+      </c>
+      <c r="E174" t="n">
+        <v>368</v>
+      </c>
+      <c r="F174" t="n">
+        <v>317.0741</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-23564.74606264001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>368</v>
+      </c>
+      <c r="C175" t="n">
+        <v>368</v>
+      </c>
+      <c r="D175" t="n">
+        <v>368</v>
+      </c>
+      <c r="E175" t="n">
+        <v>368</v>
+      </c>
+      <c r="F175" t="n">
+        <v>333.8854</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-23564.74606264001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>367</v>
+      </c>
+      <c r="C176" t="n">
+        <v>367</v>
+      </c>
+      <c r="D176" t="n">
+        <v>367</v>
+      </c>
+      <c r="E176" t="n">
+        <v>367</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1029.5089</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-24594.25496264001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>368</v>
+      </c>
+      <c r="C177" t="n">
+        <v>367</v>
+      </c>
+      <c r="D177" t="n">
+        <v>368</v>
+      </c>
+      <c r="E177" t="n">
+        <v>367</v>
+      </c>
+      <c r="F177" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-24594.25496264001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>367</v>
+      </c>
+      <c r="C178" t="n">
+        <v>367</v>
+      </c>
+      <c r="D178" t="n">
+        <v>367</v>
+      </c>
+      <c r="E178" t="n">
+        <v>367</v>
+      </c>
+      <c r="F178" t="n">
+        <v>340.8909</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-24594.25496264001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>370</v>
+      </c>
+      <c r="C179" t="n">
+        <v>370</v>
+      </c>
+      <c r="D179" t="n">
+        <v>370</v>
+      </c>
+      <c r="E179" t="n">
+        <v>370</v>
+      </c>
+      <c r="F179" t="n">
+        <v>121.3511</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-24472.90386264001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C2" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D2" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E2" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F2" t="n">
-        <v>409</v>
+        <v>1.9295</v>
       </c>
       <c r="G2" t="n">
-        <v>-10283.8907</v>
+        <v>365.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C3" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D3" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E3" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F3" t="n">
-        <v>136.3</v>
+        <v>11.2892</v>
       </c>
       <c r="G3" t="n">
-        <v>-10283.8907</v>
+        <v>363.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C4" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D4" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E4" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>-10283.8907</v>
+        <v>363.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F5" t="n">
-        <v>206.9999</v>
+        <v>170.5482</v>
       </c>
       <c r="G5" t="n">
-        <v>-10490.8906</v>
+        <v>363.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E6" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>239.7896</v>
       </c>
       <c r="G6" t="n">
-        <v>-10490.8906</v>
+        <v>362</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C7" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D7" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E7" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F7" t="n">
-        <v>384.4584</v>
+        <v>137.8687</v>
       </c>
       <c r="G7" t="n">
-        <v>-10490.8906</v>
+        <v>362</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C8" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D8" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E8" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F8" t="n">
-        <v>3445.4798</v>
+        <v>233.8768</v>
       </c>
       <c r="G8" t="n">
-        <v>-10490.8906</v>
+        <v>361.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E9" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F9" t="n">
-        <v>149</v>
+        <v>111.2337</v>
       </c>
       <c r="G9" t="n">
-        <v>-10490.8906</v>
+        <v>362.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C10" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D10" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E10" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F10" t="n">
-        <v>360.1</v>
+        <v>318.1994</v>
       </c>
       <c r="G10" t="n">
-        <v>-10850.9906</v>
+        <v>363</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C11" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D11" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E11" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F11" t="n">
-        <v>840.425</v>
+        <v>227.3275</v>
       </c>
       <c r="G11" t="n">
-        <v>-10010.5656</v>
+        <v>362.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C12" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D12" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E12" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F12" t="n">
-        <v>137.3802</v>
+        <v>681.8006</v>
       </c>
       <c r="G12" t="n">
-        <v>-10010.5656</v>
+        <v>362.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C13" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D13" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E13" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F13" t="n">
-        <v>1868.3408</v>
+        <v>227.3275</v>
       </c>
       <c r="G13" t="n">
-        <v>-10010.5656</v>
+        <v>362</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C14" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D14" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E14" t="n">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F14" t="n">
-        <v>325</v>
+        <v>981.1402</v>
       </c>
       <c r="G14" t="n">
-        <v>-10010.5656</v>
+        <v>362.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C15" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D15" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E15" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F15" t="n">
-        <v>2999.6952</v>
+        <v>1.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-10010.5656</v>
+        <v>364</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C16" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D16" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E16" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F16" t="n">
-        <v>344.8195</v>
+        <v>234.1044</v>
       </c>
       <c r="G16" t="n">
-        <v>-10010.5656</v>
+        <v>363.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C17" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D17" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E17" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F17" t="n">
-        <v>496.9663</v>
+        <v>1208.4677</v>
       </c>
       <c r="G17" t="n">
-        <v>-10010.5656</v>
+        <v>361.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C18" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D18" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E18" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F18" t="n">
-        <v>921.4</v>
+        <v>617.5044</v>
       </c>
       <c r="G18" t="n">
-        <v>-9089.165600000002</v>
+        <v>363.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C19" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D19" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E19" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F19" t="n">
-        <v>1400</v>
+        <v>222.0503</v>
       </c>
       <c r="G19" t="n">
-        <v>-9089.165600000002</v>
+        <v>364</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C20" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D20" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E20" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F20" t="n">
-        <v>1086.5578</v>
+        <v>1.4001</v>
       </c>
       <c r="G20" t="n">
-        <v>-10175.7234</v>
+        <v>364</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C21" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D21" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E21" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F21" t="n">
-        <v>449.4</v>
+        <v>260</v>
       </c>
       <c r="G21" t="n">
-        <v>-10625.1234</v>
+        <v>366</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C22" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D22" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E22" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F22" t="n">
-        <v>1848.2</v>
+        <v>546</v>
       </c>
       <c r="G22" t="n">
-        <v>-8776.923400000001</v>
+        <v>366</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C23" t="n">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D23" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E23" t="n">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F23" t="n">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>-9146.923400000001</v>
+        <v>366</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C24" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D24" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E24" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F24" t="n">
-        <v>778.2</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>-8368.723400000001</v>
+        <v>366</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C25" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D25" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E25" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F25" t="n">
-        <v>90.7</v>
+        <v>13.0468</v>
       </c>
       <c r="G25" t="n">
-        <v>-8368.723400000001</v>
+        <v>366</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C26" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D26" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E26" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>990.4965999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-8367.323400000001</v>
+        <v>365</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C27" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D27" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E27" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F27" t="n">
-        <v>98.83240000000001</v>
+        <v>165.2</v>
       </c>
       <c r="G27" t="n">
-        <v>-8466.1558</v>
+        <v>363</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C28" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D28" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E28" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F28" t="n">
-        <v>101.1688</v>
+        <v>2624.7586</v>
       </c>
       <c r="G28" t="n">
-        <v>-8466.1558</v>
+        <v>361.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C29" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D29" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E29" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F29" t="n">
-        <v>444.2314</v>
+        <v>12.2895</v>
       </c>
       <c r="G29" t="n">
-        <v>-8466.1558</v>
+        <v>361</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C30" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D30" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E30" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F30" t="n">
-        <v>1.4</v>
+        <v>136.9413</v>
       </c>
       <c r="G30" t="n">
-        <v>-8464.755800000001</v>
+        <v>361</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C31" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D31" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E31" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F31" t="n">
-        <v>6280.1229</v>
+        <v>800.8944</v>
       </c>
       <c r="G31" t="n">
-        <v>-14744.8787</v>
+        <v>360.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C32" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D32" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E32" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F32" t="n">
-        <v>1.5</v>
+        <v>818.7234</v>
       </c>
       <c r="G32" t="n">
-        <v>-14743.3787</v>
+        <v>360</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C33" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D33" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E33" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F33" t="n">
-        <v>551.2125</v>
+        <v>588.4212</v>
       </c>
       <c r="G33" t="n">
-        <v>-14192.1662</v>
+        <v>360</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>362</v>
+      </c>
+      <c r="C34" t="n">
+        <v>362</v>
+      </c>
+      <c r="D34" t="n">
+        <v>362</v>
+      </c>
+      <c r="E34" t="n">
+        <v>362</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G34" t="n">
         <v>361</v>
-      </c>
-      <c r="C34" t="n">
-        <v>361</v>
-      </c>
-      <c r="D34" t="n">
-        <v>361</v>
-      </c>
-      <c r="E34" t="n">
-        <v>361</v>
-      </c>
-      <c r="F34" t="n">
-        <v>55.401</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-14192.1662</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C35" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D35" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E35" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F35" t="n">
-        <v>1977.0982</v>
+        <v>565.0144</v>
       </c>
       <c r="G35" t="n">
-        <v>-12215.068</v>
+        <v>361</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C36" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D36" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E36" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F36" t="n">
-        <v>98.0497</v>
+        <v>1394.9688</v>
       </c>
       <c r="G36" t="n">
-        <v>-12313.1177</v>
+        <v>360</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,76 +1691,91 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>362</v>
+      </c>
+      <c r="C37" t="n">
+        <v>362</v>
+      </c>
+      <c r="D37" t="n">
+        <v>362</v>
+      </c>
+      <c r="E37" t="n">
+        <v>362</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.2129</v>
+      </c>
+      <c r="G37" t="n">
         <v>361</v>
       </c>
-      <c r="C37" t="n">
-        <v>361</v>
-      </c>
-      <c r="D37" t="n">
-        <v>361</v>
-      </c>
-      <c r="E37" t="n">
-        <v>361</v>
-      </c>
-      <c r="F37" t="n">
-        <v>93.8878</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-12407.0055</v>
-      </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>360</v>
+      </c>
+      <c r="K37" t="n">
+        <v>360</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C38" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D38" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E38" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F38" t="n">
-        <v>1.4</v>
+        <v>30</v>
       </c>
       <c r="G38" t="n">
-        <v>-12405.6055</v>
+        <v>361</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>362</v>
+      </c>
+      <c r="K38" t="n">
+        <v>360</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1740,990 +1794,1218 @@
         <v>360</v>
       </c>
       <c r="F39" t="n">
-        <v>104</v>
+        <v>6.2129</v>
       </c>
       <c r="G39" t="n">
-        <v>-12509.6055</v>
+        <v>360</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>360</v>
+      </c>
+      <c r="K39" t="n">
+        <v>360</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C40" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D40" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E40" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F40" t="n">
-        <v>137.36263736</v>
+        <v>1595.4202</v>
       </c>
       <c r="G40" t="n">
-        <v>-12372.24286264</v>
+        <v>360</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>360</v>
+      </c>
+      <c r="K40" t="n">
+        <v>360</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C41" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E41" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F41" t="n">
-        <v>1270.7975</v>
+        <v>95.9194</v>
       </c>
       <c r="G41" t="n">
-        <v>-13643.04036264</v>
+        <v>360.5</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>360</v>
+      </c>
+      <c r="K41" t="n">
+        <v>360</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C42" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D42" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E42" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3626</v>
+        <v>300.0015</v>
       </c>
       <c r="G42" t="n">
-        <v>-13643.04036264</v>
+        <v>361</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>361</v>
+      </c>
+      <c r="K42" t="n">
+        <v>360</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C43" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D43" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E43" t="n">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F43" t="n">
-        <v>1.4</v>
+        <v>200.001</v>
       </c>
       <c r="G43" t="n">
-        <v>-13641.64036264</v>
+        <v>361</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>361</v>
+      </c>
+      <c r="K43" t="n">
+        <v>361</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C44" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D44" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E44" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F44" t="n">
-        <v>1.9295</v>
+        <v>209.5742</v>
       </c>
       <c r="G44" t="n">
-        <v>-13643.56986264</v>
+        <v>361</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>361</v>
+      </c>
+      <c r="K44" t="n">
+        <v>361</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C45" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D45" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E45" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F45" t="n">
-        <v>11.2892</v>
+        <v>4315.5497</v>
       </c>
       <c r="G45" t="n">
-        <v>-13654.85906264</v>
+        <v>360.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>361</v>
+      </c>
+      <c r="K45" t="n">
+        <v>361</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C46" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D46" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E46" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F46" t="n">
-        <v>1.4</v>
+        <v>2.0087</v>
       </c>
       <c r="G46" t="n">
-        <v>-13653.45906264</v>
+        <v>360.5</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>360</v>
+      </c>
+      <c r="K46" t="n">
+        <v>360</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C47" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D47" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E47" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F47" t="n">
-        <v>170.5482</v>
+        <v>0.9631</v>
       </c>
       <c r="G47" t="n">
-        <v>-13824.00726264</v>
+        <v>360.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>361</v>
+      </c>
+      <c r="K47" t="n">
+        <v>360</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C48" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D48" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E48" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F48" t="n">
-        <v>239.7896</v>
+        <v>52.2514</v>
       </c>
       <c r="G48" t="n">
-        <v>-13824.00726264</v>
+        <v>359.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>360</v>
+      </c>
+      <c r="K48" t="n">
+        <v>360</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C49" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D49" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E49" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F49" t="n">
-        <v>137.8687</v>
+        <v>13.0628</v>
       </c>
       <c r="G49" t="n">
-        <v>-13824.00726264</v>
+        <v>358</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>359</v>
+      </c>
+      <c r="K49" t="n">
+        <v>359</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C50" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D50" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E50" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F50" t="n">
-        <v>233.8768</v>
+        <v>34.9372</v>
       </c>
       <c r="G50" t="n">
-        <v>-14057.88406264</v>
+        <v>357</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>357</v>
+      </c>
+      <c r="K50" t="n">
+        <v>359</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C51" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D51" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E51" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F51" t="n">
-        <v>111.2337</v>
+        <v>34.7578</v>
       </c>
       <c r="G51" t="n">
-        <v>-13946.65036264</v>
+        <v>357.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>357</v>
+      </c>
+      <c r="K51" t="n">
+        <v>359</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C52" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D52" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E52" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F52" t="n">
-        <v>318.1994</v>
+        <v>807.3253999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-14264.84976264</v>
+        <v>357</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>358</v>
+      </c>
+      <c r="K52" t="n">
+        <v>358</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C53" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D53" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E53" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F53" t="n">
-        <v>227.3275</v>
+        <v>96.876</v>
       </c>
       <c r="G53" t="n">
-        <v>-14037.52226264</v>
+        <v>356.5</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>356</v>
+      </c>
+      <c r="K53" t="n">
+        <v>358</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C54" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D54" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E54" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F54" t="n">
-        <v>681.8006</v>
+        <v>429</v>
       </c>
       <c r="G54" t="n">
-        <v>-14719.32286264</v>
+        <v>357</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>357</v>
+      </c>
+      <c r="K54" t="n">
+        <v>358</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C55" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D55" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E55" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F55" t="n">
-        <v>227.3275</v>
+        <v>824.5236</v>
       </c>
       <c r="G55" t="n">
-        <v>-14719.32286264</v>
+        <v>357</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>357</v>
+      </c>
+      <c r="K55" t="n">
+        <v>357</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C56" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D56" t="n">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E56" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F56" t="n">
-        <v>981.1402</v>
+        <v>3577.7502</v>
       </c>
       <c r="G56" t="n">
-        <v>-13738.18266264</v>
+        <v>357.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>357</v>
+      </c>
+      <c r="K56" t="n">
+        <v>357</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C57" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D57" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E57" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F57" t="n">
-        <v>1.4</v>
+        <v>3157.7207</v>
       </c>
       <c r="G57" t="n">
-        <v>-13736.78266264</v>
+        <v>356.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>358</v>
+      </c>
+      <c r="K57" t="n">
+        <v>357</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C58" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D58" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E58" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F58" t="n">
-        <v>234.1044</v>
+        <v>444.8521</v>
       </c>
       <c r="G58" t="n">
-        <v>-13970.88706264</v>
+        <v>355.5</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>355</v>
+      </c>
+      <c r="K58" t="n">
+        <v>357</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C59" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D59" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E59" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F59" t="n">
-        <v>1208.4677</v>
+        <v>277</v>
       </c>
       <c r="G59" t="n">
-        <v>-15179.35476264</v>
+        <v>355.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>356</v>
+      </c>
+      <c r="K59" t="n">
+        <v>357</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C60" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D60" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E60" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F60" t="n">
-        <v>617.5044</v>
+        <v>1.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-14561.85036264</v>
+        <v>355.5</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>355</v>
+      </c>
+      <c r="K60" t="n">
+        <v>357</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C61" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D61" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E61" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F61" t="n">
-        <v>222.0503</v>
+        <v>250.5</v>
       </c>
       <c r="G61" t="n">
-        <v>-14783.90066264</v>
+        <v>356</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>356</v>
+      </c>
+      <c r="K61" t="n">
+        <v>357</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C62" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D62" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E62" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F62" t="n">
-        <v>1.4001</v>
+        <v>5351.7431</v>
       </c>
       <c r="G62" t="n">
-        <v>-14782.50056264</v>
+        <v>356.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>356</v>
+      </c>
+      <c r="K62" t="n">
+        <v>357</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C63" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D63" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E63" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F63" t="n">
-        <v>260</v>
+        <v>1.4</v>
       </c>
       <c r="G63" t="n">
-        <v>-14782.50056264</v>
+        <v>357.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>357</v>
+      </c>
+      <c r="K63" t="n">
+        <v>357</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C64" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D64" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E64" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F64" t="n">
-        <v>546</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>-14782.50056264</v>
+        <v>356.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>358</v>
+      </c>
+      <c r="K64" t="n">
+        <v>357</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C65" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D65" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E65" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="G65" t="n">
-        <v>-14782.50056264</v>
+        <v>356.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>355</v>
+      </c>
+      <c r="K65" t="n">
+        <v>357</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C66" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D66" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E66" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>14700.1637</v>
       </c>
       <c r="G66" t="n">
-        <v>-14782.50056264</v>
+        <v>355.5</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>358</v>
+      </c>
+      <c r="K66" t="n">
+        <v>357</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C67" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D67" t="n">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E67" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F67" t="n">
-        <v>13.0468</v>
+        <v>5497.5778</v>
       </c>
       <c r="G67" t="n">
-        <v>-14782.50056264</v>
+        <v>354</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +3014,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>357</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D68" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E68" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F68" t="n">
-        <v>990.4965999999999</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-15772.99716264</v>
+        <v>355</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +3056,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>357</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C69" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D69" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E69" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F69" t="n">
-        <v>165.2</v>
+        <v>288.1799</v>
       </c>
       <c r="G69" t="n">
-        <v>-15938.19716264</v>
+        <v>355</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3098,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>357</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C70" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D70" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E70" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F70" t="n">
-        <v>2624.7586</v>
+        <v>1972.0868</v>
       </c>
       <c r="G70" t="n">
-        <v>-18562.95576264</v>
+        <v>355</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3140,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>357</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C71" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D71" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E71" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F71" t="n">
-        <v>12.2895</v>
+        <v>328.8828</v>
       </c>
       <c r="G71" t="n">
-        <v>-18562.95576264</v>
+        <v>355</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3182,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>357</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C72" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D72" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E72" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F72" t="n">
-        <v>136.9413</v>
+        <v>87.5763</v>
       </c>
       <c r="G72" t="n">
-        <v>-18562.95576264</v>
+        <v>355</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3224,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>357</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C73" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D73" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E73" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F73" t="n">
-        <v>800.8944</v>
+        <v>104.506</v>
       </c>
       <c r="G73" t="n">
-        <v>-19363.85016264</v>
+        <v>355.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3266,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>357</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C74" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D74" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E74" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F74" t="n">
-        <v>818.7234</v>
+        <v>140.845</v>
       </c>
       <c r="G74" t="n">
-        <v>-19363.85016264</v>
+        <v>356</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3308,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>357</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C75" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D75" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E75" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F75" t="n">
-        <v>588.4212</v>
+        <v>71</v>
       </c>
       <c r="G75" t="n">
-        <v>-19363.85016264</v>
+        <v>356.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3350,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>357</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C76" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D76" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E76" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F76" t="n">
-        <v>1.4</v>
+        <v>3930.7894</v>
       </c>
       <c r="G76" t="n">
-        <v>-19362.45016264</v>
+        <v>355</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,113 +3392,126 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>357</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C77" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D77" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E77" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F77" t="n">
-        <v>565.0144</v>
+        <v>4087.7092</v>
       </c>
       <c r="G77" t="n">
-        <v>-19927.46456264</v>
+        <v>354.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>362</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>362</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C78" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D78" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E78" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F78" t="n">
-        <v>1394.9688</v>
+        <v>200</v>
       </c>
       <c r="G78" t="n">
-        <v>-19927.46456264</v>
+        <v>354.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>356</v>
+      </c>
       <c r="K78" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C79" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D79" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E79" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F79" t="n">
-        <v>6.2129</v>
+        <v>4608.98</v>
       </c>
       <c r="G79" t="n">
-        <v>-19921.25166264</v>
+        <v>353.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,38 +3521,39 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C80" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D80" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E80" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>103.2188</v>
       </c>
       <c r="G80" t="n">
-        <v>-19951.25166264</v>
+        <v>354</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3203,33 +3562,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>357</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C81" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D81" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E81" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F81" t="n">
-        <v>6.2129</v>
+        <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>-19951.25166264</v>
+        <v>355</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3238,33 +3604,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>357</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C82" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D82" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E82" t="n">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F82" t="n">
-        <v>1595.4202</v>
+        <v>247.8031</v>
       </c>
       <c r="G82" t="n">
-        <v>-19951.25166264</v>
+        <v>355</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3273,33 +3646,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>357</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C83" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D83" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E83" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F83" t="n">
-        <v>95.9194</v>
+        <v>2421.6139</v>
       </c>
       <c r="G83" t="n">
-        <v>-19855.33226264</v>
+        <v>354</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3308,33 +3688,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>357</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C84" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D84" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E84" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F84" t="n">
-        <v>300.0015</v>
+        <v>535.8139</v>
       </c>
       <c r="G84" t="n">
-        <v>-19855.33226264</v>
+        <v>354.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3343,625 +3730,636 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>357</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C85" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D85" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E85" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F85" t="n">
-        <v>200.001</v>
+        <v>104</v>
       </c>
       <c r="G85" t="n">
-        <v>-19855.33226264</v>
+        <v>355</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>361</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>361</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C86" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D86" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E86" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F86" t="n">
-        <v>209.5742</v>
+        <v>3727.8139</v>
       </c>
       <c r="G86" t="n">
-        <v>-19855.33226264</v>
+        <v>355.5</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>361</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C87" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D87" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E87" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F87" t="n">
-        <v>4315.5497</v>
+        <v>1042</v>
       </c>
       <c r="G87" t="n">
-        <v>-24170.88196264</v>
+        <v>356</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>361</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C88" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D88" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E88" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F88" t="n">
-        <v>2.0087</v>
+        <v>2380.6205</v>
       </c>
       <c r="G88" t="n">
-        <v>-24168.87326264001</v>
+        <v>356</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>360</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>360</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C89" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D89" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E89" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9631</v>
+        <v>368</v>
       </c>
       <c r="G89" t="n">
-        <v>-24169.83636264001</v>
+        <v>356</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>361</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C90" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D90" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E90" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F90" t="n">
-        <v>52.2514</v>
+        <v>6383.2424</v>
       </c>
       <c r="G90" t="n">
-        <v>-24222.08776264001</v>
+        <v>360</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>360</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C91" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D91" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E91" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F91" t="n">
-        <v>13.0628</v>
+        <v>159</v>
       </c>
       <c r="G91" t="n">
-        <v>-24235.15056264001</v>
+        <v>364</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>359</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>359</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C92" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D92" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E92" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F92" t="n">
-        <v>34.9372</v>
+        <v>4275.5578</v>
       </c>
       <c r="G92" t="n">
-        <v>-24235.15056264001</v>
+        <v>362</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>357</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C93" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D93" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E93" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F93" t="n">
-        <v>34.7578</v>
+        <v>240.382</v>
       </c>
       <c r="G93" t="n">
-        <v>-24200.39276264001</v>
+        <v>362</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>357</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C94" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="D94" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E94" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F94" t="n">
-        <v>807.3253999999999</v>
+        <v>14194.5745</v>
       </c>
       <c r="G94" t="n">
-        <v>-25007.71816264001</v>
+        <v>366</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>358</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>358</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
+        <v>357</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C95" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D95" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E95" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F95" t="n">
-        <v>96.876</v>
+        <v>4312.5922</v>
       </c>
       <c r="G95" t="n">
-        <v>-24910.84216264001</v>
+        <v>371.5</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>356</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C96" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D96" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E96" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F96" t="n">
-        <v>429</v>
+        <v>1052.7427</v>
       </c>
       <c r="G96" t="n">
-        <v>-24910.84216264001</v>
+        <v>375</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>357</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C97" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D97" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E97" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F97" t="n">
-        <v>824.5236</v>
+        <v>11.04</v>
       </c>
       <c r="G97" t="n">
-        <v>-24910.84216264001</v>
+        <v>375</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>357</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>357</v>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C98" t="n">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D98" t="n">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E98" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F98" t="n">
-        <v>3577.7502</v>
+        <v>2992.56</v>
       </c>
       <c r="G98" t="n">
-        <v>-21333.09196264001</v>
+        <v>375.5</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>357</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>357</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C99" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D99" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E99" t="n">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F99" t="n">
-        <v>3157.7207</v>
+        <v>1314.7706</v>
       </c>
       <c r="G99" t="n">
-        <v>-24490.81266264001</v>
+        <v>375.5</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>358</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>357</v>
       </c>
@@ -3973,28 +4371,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C100" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="D100" t="n">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="E100" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F100" t="n">
-        <v>444.8521</v>
+        <v>6043.1512</v>
       </c>
       <c r="G100" t="n">
-        <v>-24045.96056264001</v>
+        <v>376.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4014,38 +4413,37 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C101" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D101" t="n">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="E101" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F101" t="n">
-        <v>277</v>
+        <v>12490.7158</v>
       </c>
       <c r="G101" t="n">
-        <v>-24322.96056264001</v>
+        <v>377</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>356</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>357</v>
       </c>
@@ -4057,48 +4455,50 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C102" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="D102" t="n">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="E102" t="n">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="F102" t="n">
-        <v>1.5</v>
+        <v>3803.6982</v>
       </c>
       <c r="G102" t="n">
-        <v>-24321.46056264001</v>
+        <v>376.5</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>355</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>357</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>1.051022408963586</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.028089887640449</v>
       </c>
     </row>
     <row r="103">
@@ -4106,610 +4506,526 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C103" t="n">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D103" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E103" t="n">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="F103" t="n">
-        <v>250.5</v>
+        <v>2033</v>
       </c>
       <c r="G103" t="n">
-        <v>-24321.46056264001</v>
+        <v>376.5</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>356</v>
-      </c>
-      <c r="K103" t="n">
-        <v>357</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C104" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D104" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="E104" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F104" t="n">
-        <v>5351.7431</v>
+        <v>1925.715</v>
       </c>
       <c r="G104" t="n">
-        <v>-18969.71746264001</v>
+        <v>376.5</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>356</v>
-      </c>
-      <c r="K104" t="n">
-        <v>357</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C105" t="n">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D105" t="n">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="E105" t="n">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F105" t="n">
-        <v>1.4</v>
+        <v>4141.6998</v>
       </c>
       <c r="G105" t="n">
-        <v>-18968.31746264001</v>
+        <v>377</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>357</v>
-      </c>
-      <c r="K105" t="n">
-        <v>357</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C106" t="n">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="D106" t="n">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="E106" t="n">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>1.309</v>
       </c>
       <c r="G106" t="n">
-        <v>-19968.31746264001</v>
+        <v>379.5</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>358</v>
-      </c>
-      <c r="K106" t="n">
-        <v>357</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C107" t="n">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D107" t="n">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="E107" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F107" t="n">
-        <v>141</v>
+        <v>11318.0197</v>
       </c>
       <c r="G107" t="n">
-        <v>-19827.31746264001</v>
+        <v>379.5</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>355</v>
-      </c>
-      <c r="K107" t="n">
-        <v>357</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C108" t="n">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="D108" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E108" t="n">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="F108" t="n">
-        <v>14700.1637</v>
+        <v>99.98560000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-34527.48116264001</v>
+        <v>377</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>358</v>
-      </c>
-      <c r="K108" t="n">
-        <v>357</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C109" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D109" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E109" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F109" t="n">
-        <v>5497.5778</v>
+        <v>1181.1911</v>
       </c>
       <c r="G109" t="n">
-        <v>-29029.90336264001</v>
+        <v>377</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>357</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C110" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D110" t="n">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E110" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>1659.4558</v>
       </c>
       <c r="G110" t="n">
-        <v>-29029.90336264001</v>
+        <v>376.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>357</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C111" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D111" t="n">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E111" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F111" t="n">
-        <v>288.1799</v>
+        <v>1204.1418</v>
       </c>
       <c r="G111" t="n">
-        <v>-29029.90336264001</v>
+        <v>376</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>357</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C112" t="n">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="D112" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E112" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="F112" t="n">
-        <v>1972.0868</v>
+        <v>5648.9503</v>
       </c>
       <c r="G112" t="n">
-        <v>-29029.90336264001</v>
+        <v>379</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>357</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C113" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D113" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="E113" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F113" t="n">
-        <v>328.8828</v>
+        <v>1658.1936</v>
       </c>
       <c r="G113" t="n">
-        <v>-29029.90336264001</v>
+        <v>379.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>357</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C114" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D114" t="n">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E114" t="n">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F114" t="n">
-        <v>87.5763</v>
+        <v>691.4</v>
       </c>
       <c r="G114" t="n">
-        <v>-29029.90336264001</v>
+        <v>377</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>357</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C115" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="D115" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="E115" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="F115" t="n">
-        <v>104.506</v>
+        <v>3992.8198</v>
       </c>
       <c r="G115" t="n">
-        <v>-28925.39736264001</v>
+        <v>376</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>357</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C116" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="D116" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="E116" t="n">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="F116" t="n">
-        <v>140.845</v>
+        <v>2219.5864</v>
       </c>
       <c r="G116" t="n">
-        <v>-28925.39736264001</v>
+        <v>375</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>356</v>
-      </c>
-      <c r="K116" t="n">
-        <v>357</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C117" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D117" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="E117" t="n">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F117" t="n">
-        <v>71</v>
+        <v>3413.0747851</v>
       </c>
       <c r="G117" t="n">
-        <v>-28854.39736264001</v>
+        <v>375</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4718,162 +5034,142 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>357</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C118" t="n">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="D118" t="n">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="E118" t="n">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F118" t="n">
-        <v>3930.7894</v>
+        <v>3045.6334149</v>
       </c>
       <c r="G118" t="n">
-        <v>-32785.18676264001</v>
+        <v>375</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>357</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C119" t="n">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D119" t="n">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="E119" t="n">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="F119" t="n">
-        <v>4087.7092</v>
+        <v>8496.811900000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-28697.47756264001</v>
+        <v>374.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>357</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C120" t="n">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D120" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E120" t="n">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>687.5346</v>
       </c>
       <c r="G120" t="n">
-        <v>-28897.47756264001</v>
+        <v>372</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>357</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C121" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="D121" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E121" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F121" t="n">
-        <v>4608.98</v>
+        <v>31.613</v>
       </c>
       <c r="G121" t="n">
-        <v>-24288.49756264001</v>
+        <v>370.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4882,39 +5178,34 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>357</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C122" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D122" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E122" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="F122" t="n">
-        <v>103.2188</v>
+        <v>1238.2936</v>
       </c>
       <c r="G122" t="n">
-        <v>-24288.49756264001</v>
+        <v>370.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4923,39 +5214,34 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>357</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C123" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D123" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E123" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F123" t="n">
-        <v>6</v>
+        <v>313.6396</v>
       </c>
       <c r="G123" t="n">
-        <v>-24282.49756264001</v>
+        <v>370</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4964,82 +5250,70 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>357</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C124" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="D124" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E124" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F124" t="n">
-        <v>247.8031</v>
+        <v>926.4835</v>
       </c>
       <c r="G124" t="n">
-        <v>-24530.30066264001</v>
+        <v>370.5</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>356</v>
-      </c>
-      <c r="K124" t="n">
-        <v>357</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C125" t="n">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D125" t="n">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="E125" t="n">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F125" t="n">
-        <v>2421.6139</v>
+        <v>477.9282</v>
       </c>
       <c r="G125" t="n">
-        <v>-24530.30066264001</v>
+        <v>372</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5048,39 +5322,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>357</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C126" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D126" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="E126" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F126" t="n">
-        <v>535.8139</v>
+        <v>19.9072</v>
       </c>
       <c r="G126" t="n">
-        <v>-23994.48676264001</v>
+        <v>372.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5089,39 +5358,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>357</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C127" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D127" t="n">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="E127" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F127" t="n">
-        <v>104</v>
+        <v>31.4726</v>
       </c>
       <c r="G127" t="n">
-        <v>-23994.48676264001</v>
+        <v>371</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5130,39 +5394,34 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>357</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C128" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D128" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E128" t="n">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F128" t="n">
-        <v>3727.8139</v>
+        <v>506.8697</v>
       </c>
       <c r="G128" t="n">
-        <v>-20266.67286264001</v>
+        <v>369.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5171,39 +5430,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>357</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C129" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D129" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E129" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F129" t="n">
-        <v>1042</v>
+        <v>303.67</v>
       </c>
       <c r="G129" t="n">
-        <v>-20266.67286264001</v>
+        <v>369</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5212,39 +5466,34 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>357</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C130" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D130" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="E130" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F130" t="n">
-        <v>2380.6205</v>
+        <v>1.4</v>
       </c>
       <c r="G130" t="n">
-        <v>-20266.67286264001</v>
+        <v>370.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5253,39 +5502,34 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>357</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C131" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D131" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E131" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F131" t="n">
-        <v>368</v>
+        <v>241.1759</v>
       </c>
       <c r="G131" t="n">
-        <v>-20266.67286264001</v>
+        <v>370.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5294,39 +5538,34 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>357</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C132" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D132" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E132" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F132" t="n">
-        <v>6383.2424</v>
+        <v>317.0741</v>
       </c>
       <c r="G132" t="n">
-        <v>-13883.43046264001</v>
+        <v>368.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5335,39 +5574,34 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>357</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C133" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D133" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E133" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F133" t="n">
-        <v>159</v>
+        <v>333.8854</v>
       </c>
       <c r="G133" t="n">
-        <v>-13883.43046264001</v>
+        <v>368</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5376,39 +5610,34 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>357</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C134" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D134" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E134" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F134" t="n">
-        <v>4275.5578</v>
+        <v>1029.5089</v>
       </c>
       <c r="G134" t="n">
-        <v>-18158.98826264001</v>
+        <v>367.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5417,39 +5646,34 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>357</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C135" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D135" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E135" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F135" t="n">
-        <v>240.382</v>
+        <v>59.87</v>
       </c>
       <c r="G135" t="n">
-        <v>-17918.60626264001</v>
+        <v>367</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5458,39 +5682,34 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>357</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C136" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D136" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E136" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F136" t="n">
-        <v>14194.5745</v>
+        <v>340.8909</v>
       </c>
       <c r="G136" t="n">
-        <v>-3724.031762640008</v>
+        <v>367</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5499,39 +5718,34 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>357</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C137" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D137" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E137" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F137" t="n">
-        <v>4312.5922</v>
+        <v>121.3511</v>
       </c>
       <c r="G137" t="n">
-        <v>588.5604373599917</v>
+        <v>368.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5540,1559 +5754,12 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>357</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>375</v>
-      </c>
-      <c r="C138" t="n">
-        <v>375</v>
-      </c>
-      <c r="D138" t="n">
-        <v>375</v>
-      </c>
-      <c r="E138" t="n">
-        <v>375</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1052.7427</v>
-      </c>
-      <c r="G138" t="n">
-        <v>588.5604373599917</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>357</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>375</v>
-      </c>
-      <c r="C139" t="n">
-        <v>375</v>
-      </c>
-      <c r="D139" t="n">
-        <v>375</v>
-      </c>
-      <c r="E139" t="n">
-        <v>375</v>
-      </c>
-      <c r="F139" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="G139" t="n">
-        <v>588.5604373599917</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>357</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>376</v>
-      </c>
-      <c r="C140" t="n">
-        <v>376</v>
-      </c>
-      <c r="D140" t="n">
-        <v>376</v>
-      </c>
-      <c r="E140" t="n">
-        <v>375</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2992.56</v>
-      </c>
-      <c r="G140" t="n">
-        <v>3581.120437359992</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>357</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>377</v>
-      </c>
-      <c r="C141" t="n">
-        <v>375</v>
-      </c>
-      <c r="D141" t="n">
-        <v>377</v>
-      </c>
-      <c r="E141" t="n">
-        <v>375</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1314.7706</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2266.349837359991</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>357</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>375</v>
-      </c>
-      <c r="C142" t="n">
-        <v>378</v>
-      </c>
-      <c r="D142" t="n">
-        <v>378</v>
-      </c>
-      <c r="E142" t="n">
-        <v>375</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6043.1512</v>
-      </c>
-      <c r="G142" t="n">
-        <v>8309.501037359991</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>357</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>375</v>
-      </c>
-      <c r="C143" t="n">
-        <v>376</v>
-      </c>
-      <c r="D143" t="n">
-        <v>380</v>
-      </c>
-      <c r="E143" t="n">
-        <v>375</v>
-      </c>
-      <c r="F143" t="n">
-        <v>12490.7158</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-4181.214762640009</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>357</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>376</v>
-      </c>
-      <c r="C144" t="n">
-        <v>377</v>
-      </c>
-      <c r="D144" t="n">
-        <v>383</v>
-      </c>
-      <c r="E144" t="n">
-        <v>376</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3803.6982</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-377.5165626400094</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>357</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>377</v>
-      </c>
-      <c r="C145" t="n">
-        <v>376</v>
-      </c>
-      <c r="D145" t="n">
-        <v>377</v>
-      </c>
-      <c r="E145" t="n">
-        <v>376</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2033</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2410.516562640009</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>357</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>377</v>
-      </c>
-      <c r="C146" t="n">
-        <v>377</v>
-      </c>
-      <c r="D146" t="n">
-        <v>382</v>
-      </c>
-      <c r="E146" t="n">
-        <v>377</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1925.715</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-484.8015626400095</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>357</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>377</v>
-      </c>
-      <c r="C147" t="n">
-        <v>377</v>
-      </c>
-      <c r="D147" t="n">
-        <v>377</v>
-      </c>
-      <c r="E147" t="n">
-        <v>377</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4141.6998</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-484.8015626400095</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>357</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>382</v>
-      </c>
-      <c r="C148" t="n">
-        <v>382</v>
-      </c>
-      <c r="D148" t="n">
-        <v>382</v>
-      </c>
-      <c r="E148" t="n">
-        <v>382</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1.309</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-483.4925626400095</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>357</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>377</v>
-      </c>
-      <c r="C149" t="n">
-        <v>377</v>
-      </c>
-      <c r="D149" t="n">
-        <v>377</v>
-      </c>
-      <c r="E149" t="n">
-        <v>377</v>
-      </c>
-      <c r="F149" t="n">
-        <v>11318.0197</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-11801.51226264001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>357</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1.051022408963586</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>377</v>
-      </c>
-      <c r="C150" t="n">
-        <v>377</v>
-      </c>
-      <c r="D150" t="n">
-        <v>377</v>
-      </c>
-      <c r="E150" t="n">
-        <v>377</v>
-      </c>
-      <c r="F150" t="n">
-        <v>99.98560000000001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-11801.51226264001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>377</v>
-      </c>
-      <c r="C151" t="n">
-        <v>377</v>
-      </c>
-      <c r="D151" t="n">
-        <v>377</v>
-      </c>
-      <c r="E151" t="n">
-        <v>377</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1181.1911</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-11801.51226264001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>377</v>
-      </c>
-      <c r="C152" t="n">
-        <v>376</v>
-      </c>
-      <c r="D152" t="n">
-        <v>378</v>
-      </c>
-      <c r="E152" t="n">
-        <v>376</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1659.4558</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-13460.96806264001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>376</v>
-      </c>
-      <c r="C153" t="n">
-        <v>376</v>
-      </c>
-      <c r="D153" t="n">
-        <v>378</v>
-      </c>
-      <c r="E153" t="n">
-        <v>376</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1204.1418</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-13460.96806264001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>378</v>
-      </c>
-      <c r="C154" t="n">
-        <v>382</v>
-      </c>
-      <c r="D154" t="n">
-        <v>383</v>
-      </c>
-      <c r="E154" t="n">
-        <v>376</v>
-      </c>
-      <c r="F154" t="n">
-        <v>5648.9503</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-7812.017762640009</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>377</v>
-      </c>
-      <c r="C155" t="n">
-        <v>377</v>
-      </c>
-      <c r="D155" t="n">
-        <v>377</v>
-      </c>
-      <c r="E155" t="n">
-        <v>377</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1658.1936</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-9470.21136264001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>377</v>
-      </c>
-      <c r="C156" t="n">
-        <v>377</v>
-      </c>
-      <c r="D156" t="n">
-        <v>378</v>
-      </c>
-      <c r="E156" t="n">
-        <v>377</v>
-      </c>
-      <c r="F156" t="n">
-        <v>691.4</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-9470.21136264001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>377</v>
-      </c>
-      <c r="C157" t="n">
-        <v>375</v>
-      </c>
-      <c r="D157" t="n">
-        <v>377</v>
-      </c>
-      <c r="E157" t="n">
-        <v>375</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3992.8198</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>375</v>
-      </c>
-      <c r="C158" t="n">
-        <v>375</v>
-      </c>
-      <c r="D158" t="n">
-        <v>375</v>
-      </c>
-      <c r="E158" t="n">
-        <v>375</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2219.5864</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>375</v>
-      </c>
-      <c r="C159" t="n">
-        <v>375</v>
-      </c>
-      <c r="D159" t="n">
-        <v>376</v>
-      </c>
-      <c r="E159" t="n">
-        <v>375</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3413.0747851</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>376</v>
-      </c>
-      <c r="C160" t="n">
-        <v>375</v>
-      </c>
-      <c r="D160" t="n">
-        <v>377</v>
-      </c>
-      <c r="E160" t="n">
-        <v>375</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3045.6334149</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>376</v>
-      </c>
-      <c r="C161" t="n">
-        <v>374</v>
-      </c>
-      <c r="D161" t="n">
-        <v>376</v>
-      </c>
-      <c r="E161" t="n">
-        <v>374</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8496.811900000001</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-21959.84306264001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>370</v>
-      </c>
-      <c r="C162" t="n">
-        <v>370</v>
-      </c>
-      <c r="D162" t="n">
-        <v>371</v>
-      </c>
-      <c r="E162" t="n">
-        <v>369</v>
-      </c>
-      <c r="F162" t="n">
-        <v>687.5346</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-22647.37766264001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>370</v>
-      </c>
-      <c r="C163" t="n">
-        <v>371</v>
-      </c>
-      <c r="D163" t="n">
-        <v>371</v>
-      </c>
-      <c r="E163" t="n">
-        <v>370</v>
-      </c>
-      <c r="F163" t="n">
-        <v>31.613</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-22615.76466264001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>371</v>
-      </c>
-      <c r="C164" t="n">
-        <v>370</v>
-      </c>
-      <c r="D164" t="n">
-        <v>371</v>
-      </c>
-      <c r="E164" t="n">
-        <v>370</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1238.2936</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-23854.05826264001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>370</v>
-      </c>
-      <c r="C165" t="n">
-        <v>370</v>
-      </c>
-      <c r="D165" t="n">
-        <v>370</v>
-      </c>
-      <c r="E165" t="n">
-        <v>370</v>
-      </c>
-      <c r="F165" t="n">
-        <v>313.6396</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-23854.05826264001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>371</v>
-      </c>
-      <c r="C166" t="n">
-        <v>371</v>
-      </c>
-      <c r="D166" t="n">
-        <v>371</v>
-      </c>
-      <c r="E166" t="n">
-        <v>371</v>
-      </c>
-      <c r="F166" t="n">
-        <v>926.4835</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-22927.57476264001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>371</v>
-      </c>
-      <c r="C167" t="n">
-        <v>373</v>
-      </c>
-      <c r="D167" t="n">
-        <v>374</v>
-      </c>
-      <c r="E167" t="n">
-        <v>367</v>
-      </c>
-      <c r="F167" t="n">
-        <v>477.9282</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-22449.64656264001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>372</v>
-      </c>
-      <c r="C168" t="n">
-        <v>372</v>
-      </c>
-      <c r="D168" t="n">
-        <v>372</v>
-      </c>
-      <c r="E168" t="n">
-        <v>372</v>
-      </c>
-      <c r="F168" t="n">
-        <v>19.9072</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-22469.55376264001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>371</v>
-      </c>
-      <c r="C169" t="n">
-        <v>370</v>
-      </c>
-      <c r="D169" t="n">
-        <v>371</v>
-      </c>
-      <c r="E169" t="n">
-        <v>370</v>
-      </c>
-      <c r="F169" t="n">
-        <v>31.4726</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-22501.02636264002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>370</v>
-      </c>
-      <c r="C170" t="n">
-        <v>369</v>
-      </c>
-      <c r="D170" t="n">
-        <v>370</v>
-      </c>
-      <c r="E170" t="n">
-        <v>369</v>
-      </c>
-      <c r="F170" t="n">
-        <v>506.8697</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-23007.89606264001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>370</v>
-      </c>
-      <c r="C171" t="n">
-        <v>369</v>
-      </c>
-      <c r="D171" t="n">
-        <v>370</v>
-      </c>
-      <c r="E171" t="n">
-        <v>369</v>
-      </c>
-      <c r="F171" t="n">
-        <v>303.67</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-23007.89606264001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>372</v>
-      </c>
-      <c r="C172" t="n">
-        <v>372</v>
-      </c>
-      <c r="D172" t="n">
-        <v>372</v>
-      </c>
-      <c r="E172" t="n">
-        <v>372</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-23006.49606264001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>369</v>
-      </c>
-      <c r="C173" t="n">
-        <v>369</v>
-      </c>
-      <c r="D173" t="n">
-        <v>369</v>
-      </c>
-      <c r="E173" t="n">
-        <v>369</v>
-      </c>
-      <c r="F173" t="n">
-        <v>241.1759</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-23247.67196264001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>369</v>
-      </c>
-      <c r="C174" t="n">
-        <v>368</v>
-      </c>
-      <c r="D174" t="n">
-        <v>369</v>
-      </c>
-      <c r="E174" t="n">
-        <v>368</v>
-      </c>
-      <c r="F174" t="n">
-        <v>317.0741</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-23564.74606264001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>368</v>
-      </c>
-      <c r="C175" t="n">
-        <v>368</v>
-      </c>
-      <c r="D175" t="n">
-        <v>368</v>
-      </c>
-      <c r="E175" t="n">
-        <v>368</v>
-      </c>
-      <c r="F175" t="n">
-        <v>333.8854</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-23564.74606264001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>367</v>
-      </c>
-      <c r="C176" t="n">
-        <v>367</v>
-      </c>
-      <c r="D176" t="n">
-        <v>367</v>
-      </c>
-      <c r="E176" t="n">
-        <v>367</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1029.5089</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-24594.25496264001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>368</v>
-      </c>
-      <c r="C177" t="n">
-        <v>367</v>
-      </c>
-      <c r="D177" t="n">
-        <v>368</v>
-      </c>
-      <c r="E177" t="n">
-        <v>367</v>
-      </c>
-      <c r="F177" t="n">
-        <v>59.87</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-24594.25496264001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>367</v>
-      </c>
-      <c r="C178" t="n">
-        <v>367</v>
-      </c>
-      <c r="D178" t="n">
-        <v>367</v>
-      </c>
-      <c r="E178" t="n">
-        <v>367</v>
-      </c>
-      <c r="F178" t="n">
-        <v>340.8909</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-24594.25496264001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>370</v>
-      </c>
-      <c r="C179" t="n">
-        <v>370</v>
-      </c>
-      <c r="D179" t="n">
-        <v>370</v>
-      </c>
-      <c r="E179" t="n">
-        <v>370</v>
-      </c>
-      <c r="F179" t="n">
-        <v>121.3511</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-24472.90386264001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
+      <c r="N137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C2" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D2" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E2" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9295</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>365.5</v>
+        <v>-12374.7583</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C3" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D3" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E3" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F3" t="n">
-        <v>11.2892</v>
+        <v>28.4335</v>
       </c>
       <c r="G3" t="n">
-        <v>363.5</v>
+        <v>-12374.7583</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>357</v>
+      </c>
+      <c r="K3" t="n">
+        <v>357</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C4" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D4" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E4" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>679.2309</v>
       </c>
       <c r="G4" t="n">
-        <v>363.5</v>
+        <v>-13053.9892</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>357</v>
+      </c>
+      <c r="K4" t="n">
+        <v>357</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C5" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D5" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E5" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>170.5482</v>
+        <v>349</v>
       </c>
       <c r="G5" t="n">
-        <v>363.5</v>
+        <v>-13402.9892</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>355</v>
+      </c>
+      <c r="K5" t="n">
+        <v>357</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C6" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D6" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E6" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F6" t="n">
-        <v>239.7896</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>362</v>
+        <v>-13401.5692</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>353</v>
+      </c>
+      <c r="K6" t="n">
+        <v>353</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C7" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D7" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E7" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F7" t="n">
-        <v>137.8687</v>
+        <v>665</v>
       </c>
       <c r="G7" t="n">
-        <v>362</v>
+        <v>-13401.5692</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>354</v>
+      </c>
+      <c r="K7" t="n">
+        <v>353</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +686,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C8" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D8" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E8" t="n">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8768</v>
+        <v>428</v>
       </c>
       <c r="G8" t="n">
-        <v>361.5</v>
+        <v>-13401.5692</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="n">
+        <v>353</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +730,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C9" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D9" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E9" t="n">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F9" t="n">
-        <v>111.2337</v>
+        <v>6322.2018</v>
       </c>
       <c r="G9" t="n">
-        <v>362.5</v>
+        <v>-7079.3674</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>353</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +774,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C10" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D10" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E10" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F10" t="n">
-        <v>318.1994</v>
+        <v>391.2995</v>
       </c>
       <c r="G10" t="n">
-        <v>363</v>
+        <v>-7079.3674</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>356</v>
+      </c>
+      <c r="K10" t="n">
+        <v>353</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +818,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C11" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D11" t="n">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E11" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F11" t="n">
-        <v>227.3275</v>
+        <v>5768.3863</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5</v>
+        <v>-12847.7537</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>356</v>
+      </c>
+      <c r="K11" t="n">
+        <v>353</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +862,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C12" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D12" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E12" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F12" t="n">
-        <v>681.8006</v>
+        <v>482.2511</v>
       </c>
       <c r="G12" t="n">
-        <v>362.5</v>
+        <v>-12365.5026</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>353</v>
+      </c>
+      <c r="K12" t="n">
+        <v>353</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +906,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E13" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F13" t="n">
-        <v>227.3275</v>
+        <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>362</v>
+        <v>-12364.0926</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>356</v>
+      </c>
+      <c r="K13" t="n">
+        <v>353</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +950,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C14" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D14" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E14" t="n">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F14" t="n">
-        <v>981.1402</v>
+        <v>24.508</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5</v>
+        <v>-12388.6006</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>357</v>
+      </c>
+      <c r="K14" t="n">
+        <v>353</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +994,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C15" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D15" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E15" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>364</v>
+        <v>-12388.6006</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>353</v>
+      </c>
+      <c r="K15" t="n">
+        <v>353</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1038,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C16" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D16" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E16" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1044</v>
+        <v>27.6</v>
       </c>
       <c r="G16" t="n">
-        <v>363.5</v>
+        <v>-12361.0006</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>353</v>
+      </c>
+      <c r="K16" t="n">
+        <v>353</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1082,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C17" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D17" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E17" t="n">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F17" t="n">
-        <v>1208.4677</v>
+        <v>717.4411</v>
       </c>
       <c r="G17" t="n">
-        <v>361.5</v>
+        <v>-13078.4417</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>356</v>
+      </c>
+      <c r="K17" t="n">
+        <v>353</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1126,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C18" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D18" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E18" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F18" t="n">
-        <v>617.5044</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>363.5</v>
+        <v>-13076.8417</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>351</v>
+      </c>
+      <c r="K18" t="n">
+        <v>353</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1170,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C19" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D19" t="n">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E19" t="n">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F19" t="n">
-        <v>222.0503</v>
+        <v>235.4268</v>
       </c>
       <c r="G19" t="n">
-        <v>364</v>
+        <v>-13076.8417</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>353</v>
+      </c>
+      <c r="K19" t="n">
+        <v>353</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1214,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C20" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D20" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E20" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4001</v>
+        <v>1246</v>
       </c>
       <c r="G20" t="n">
-        <v>364</v>
+        <v>-11830.8417</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>353</v>
+      </c>
+      <c r="K20" t="n">
+        <v>353</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1258,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C21" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D21" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E21" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F21" t="n">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="G21" t="n">
-        <v>366</v>
+        <v>-11830.8417</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>357</v>
+      </c>
+      <c r="K21" t="n">
+        <v>353</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1302,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C22" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D22" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E22" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F22" t="n">
-        <v>546</v>
+        <v>820.34</v>
       </c>
       <c r="G22" t="n">
-        <v>366</v>
+        <v>-11830.8417</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>357</v>
+      </c>
+      <c r="K22" t="n">
+        <v>353</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1346,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C23" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D23" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E23" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G23" t="n">
-        <v>366</v>
+        <v>-11718.8417</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>357</v>
+      </c>
+      <c r="K23" t="n">
+        <v>353</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1390,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C24" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D24" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E24" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G24" t="n">
-        <v>366</v>
+        <v>-11718.8417</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>358</v>
+      </c>
+      <c r="K24" t="n">
+        <v>353</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1434,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C25" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D25" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E25" t="n">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0468</v>
+        <v>955.6199</v>
       </c>
       <c r="G25" t="n">
-        <v>366</v>
+        <v>-11718.8417</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1458,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>353</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1476,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C26" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D26" t="n">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E26" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F26" t="n">
-        <v>990.4965999999999</v>
+        <v>1685.2425</v>
       </c>
       <c r="G26" t="n">
-        <v>365</v>
+        <v>-10033.5992</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1500,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>353</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1518,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C27" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D27" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E27" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F27" t="n">
-        <v>165.2</v>
+        <v>1566.9735</v>
       </c>
       <c r="G27" t="n">
-        <v>363</v>
+        <v>-10033.5992</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1542,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>353</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1560,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C28" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D28" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E28" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F28" t="n">
-        <v>2624.7586</v>
+        <v>614.0182</v>
       </c>
       <c r="G28" t="n">
-        <v>361.5</v>
+        <v>-10033.5992</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1584,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>353</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1602,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C29" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D29" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E29" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F29" t="n">
-        <v>12.2895</v>
+        <v>457.2017</v>
       </c>
       <c r="G29" t="n">
-        <v>361</v>
+        <v>-10033.5992</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>353</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1644,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E30" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F30" t="n">
-        <v>136.9413</v>
+        <v>250.2915</v>
       </c>
       <c r="G30" t="n">
-        <v>361</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1668,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>353</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1686,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C31" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D31" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E31" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F31" t="n">
-        <v>800.8944</v>
+        <v>409</v>
       </c>
       <c r="G31" t="n">
-        <v>360.5</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1710,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>353</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1728,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C32" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D32" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E32" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F32" t="n">
-        <v>818.7234</v>
+        <v>136.3</v>
       </c>
       <c r="G32" t="n">
-        <v>360</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1752,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>353</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1770,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C33" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D33" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E33" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F33" t="n">
-        <v>588.4212</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>360</v>
+        <v>-10283.8907</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>353</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1812,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C34" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D34" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E34" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F34" t="n">
-        <v>1.4</v>
+        <v>206.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>361</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1836,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>353</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1854,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C35" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D35" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E35" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F35" t="n">
-        <v>565.0144</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>361</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1878,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>353</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1896,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F36" t="n">
-        <v>1394.9688</v>
+        <v>384.4584</v>
       </c>
       <c r="G36" t="n">
-        <v>360</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>353</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,36 +1938,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C37" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D37" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E37" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F37" t="n">
-        <v>6.2129</v>
+        <v>3445.4798</v>
       </c>
       <c r="G37" t="n">
-        <v>361</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>360</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>360</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1738,38 +1980,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D38" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E38" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G38" t="n">
-        <v>361</v>
+        <v>-10490.8906</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>362</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1782,38 +2022,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C39" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D39" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E39" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F39" t="n">
-        <v>6.2129</v>
+        <v>360.1</v>
       </c>
       <c r="G39" t="n">
-        <v>360</v>
+        <v>-10850.9906</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>360</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -1826,36 +2064,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C40" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D40" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E40" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F40" t="n">
-        <v>1595.4202</v>
+        <v>840.425</v>
       </c>
       <c r="G40" t="n">
-        <v>360</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>360</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>360</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1866,38 +2106,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C41" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D41" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E41" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F41" t="n">
-        <v>95.9194</v>
+        <v>137.3802</v>
       </c>
       <c r="G41" t="n">
-        <v>360.5</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>360</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1910,38 +2148,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C42" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D42" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E42" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F42" t="n">
-        <v>300.0015</v>
+        <v>1868.3408</v>
       </c>
       <c r="G42" t="n">
-        <v>361</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>361</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1954,36 +2190,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C43" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D43" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E43" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F43" t="n">
-        <v>200.001</v>
+        <v>325</v>
       </c>
       <c r="G43" t="n">
-        <v>361</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>361</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>361</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1994,38 +2232,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C44" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D44" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E44" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F44" t="n">
-        <v>209.5742</v>
+        <v>2999.6952</v>
       </c>
       <c r="G44" t="n">
-        <v>361</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>361</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2038,38 +2274,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C45" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D45" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E45" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F45" t="n">
-        <v>4315.5497</v>
+        <v>344.8195</v>
       </c>
       <c r="G45" t="n">
-        <v>360.5</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>361</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2082,36 +2316,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C46" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D46" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E46" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0087</v>
+        <v>496.9663</v>
       </c>
       <c r="G46" t="n">
-        <v>360.5</v>
+        <v>-10010.5656</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>360</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>360</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2122,38 +2358,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C47" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D47" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E47" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9631</v>
+        <v>921.4</v>
       </c>
       <c r="G47" t="n">
-        <v>360.5</v>
+        <v>-9089.165600000002</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>361</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2166,38 +2400,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C48" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D48" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E48" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F48" t="n">
-        <v>52.2514</v>
+        <v>1400</v>
       </c>
       <c r="G48" t="n">
-        <v>359.5</v>
+        <v>-9089.165600000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>360</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2210,36 +2442,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C49" t="n">
         <v>357</v>
       </c>
       <c r="D49" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E49" t="n">
         <v>357</v>
       </c>
       <c r="F49" t="n">
-        <v>13.0628</v>
+        <v>1086.5578</v>
       </c>
       <c r="G49" t="n">
-        <v>358</v>
+        <v>-10175.7234</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>359</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>359</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2250,38 +2484,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C50" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D50" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E50" t="n">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F50" t="n">
-        <v>34.9372</v>
+        <v>449.4</v>
       </c>
       <c r="G50" t="n">
-        <v>357</v>
+        <v>-10625.1234</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>357</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2294,38 +2526,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C51" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D51" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E51" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F51" t="n">
-        <v>34.7578</v>
+        <v>1848.2</v>
       </c>
       <c r="G51" t="n">
-        <v>357.5</v>
+        <v>-8776.923400000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>357</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2341,33 +2571,35 @@
         <v>356</v>
       </c>
       <c r="C52" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D52" t="n">
         <v>356</v>
       </c>
       <c r="E52" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F52" t="n">
-        <v>807.3253999999999</v>
+        <v>370</v>
       </c>
       <c r="G52" t="n">
-        <v>357</v>
+        <v>-9146.923400000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>358</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>358</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2390,26 +2622,24 @@
         <v>357</v>
       </c>
       <c r="F53" t="n">
-        <v>96.876</v>
+        <v>778.2</v>
       </c>
       <c r="G53" t="n">
-        <v>356.5</v>
+        <v>-8368.723400000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>356</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2434,26 +2664,24 @@
         <v>357</v>
       </c>
       <c r="F54" t="n">
-        <v>429</v>
+        <v>90.7</v>
       </c>
       <c r="G54" t="n">
-        <v>357</v>
+        <v>-8368.723400000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>357</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2466,36 +2694,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C55" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D55" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E55" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F55" t="n">
-        <v>824.5236</v>
+        <v>1.4</v>
       </c>
       <c r="G55" t="n">
-        <v>357</v>
+        <v>-8367.323400000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>357</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>357</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2509,35 +2739,33 @@
         <v>357</v>
       </c>
       <c r="C56" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E56" t="n">
         <v>357</v>
       </c>
       <c r="F56" t="n">
-        <v>3577.7502</v>
+        <v>98.83240000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>357.5</v>
+        <v>-8466.1558</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>357</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -2550,34 +2778,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C57" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D57" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E57" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F57" t="n">
-        <v>3157.7207</v>
+        <v>101.1688</v>
       </c>
       <c r="G57" t="n">
-        <v>356.5</v>
+        <v>-8466.1558</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>358</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2594,34 +2820,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C58" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D58" t="n">
         <v>357</v>
       </c>
       <c r="E58" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F58" t="n">
-        <v>444.8521</v>
+        <v>444.2314</v>
       </c>
       <c r="G58" t="n">
-        <v>355.5</v>
+        <v>-8466.1558</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>355</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2638,34 +2862,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C59" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D59" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E59" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F59" t="n">
-        <v>277</v>
+        <v>1.4</v>
       </c>
       <c r="G59" t="n">
-        <v>355.5</v>
+        <v>-8464.755800000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>356</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2685,31 +2907,29 @@
         <v>356</v>
       </c>
       <c r="C60" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D60" t="n">
         <v>356</v>
       </c>
       <c r="E60" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>6280.1229</v>
       </c>
       <c r="G60" t="n">
-        <v>355.5</v>
+        <v>-14744.8787</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>355</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2726,34 +2946,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C61" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D61" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E61" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F61" t="n">
-        <v>250.5</v>
+        <v>1.5</v>
       </c>
       <c r="G61" t="n">
-        <v>356</v>
+        <v>-14743.3787</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>356</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2773,31 +2991,29 @@
         <v>357</v>
       </c>
       <c r="C62" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D62" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E62" t="n">
         <v>357</v>
       </c>
       <c r="F62" t="n">
-        <v>5351.7431</v>
+        <v>551.2125</v>
       </c>
       <c r="G62" t="n">
-        <v>356.5</v>
+        <v>-14192.1662</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>356</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2814,34 +3030,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C63" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D63" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E63" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F63" t="n">
-        <v>1.4</v>
+        <v>55.401</v>
       </c>
       <c r="G63" t="n">
-        <v>357.5</v>
+        <v>-14192.1662</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>357</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2858,34 +3072,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C64" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D64" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E64" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>1977.0982</v>
       </c>
       <c r="G64" t="n">
-        <v>356.5</v>
+        <v>-12215.068</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>358</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2902,34 +3114,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C65" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D65" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E65" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F65" t="n">
-        <v>141</v>
+        <v>98.0497</v>
       </c>
       <c r="G65" t="n">
-        <v>356.5</v>
+        <v>-12313.1177</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>355</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2946,34 +3156,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C66" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D66" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E66" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F66" t="n">
-        <v>14700.1637</v>
+        <v>93.8878</v>
       </c>
       <c r="G66" t="n">
-        <v>355.5</v>
+        <v>-12407.0055</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>358</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2990,22 +3198,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C67" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D67" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E67" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F67" t="n">
-        <v>5497.5778</v>
+        <v>1.4</v>
       </c>
       <c r="G67" t="n">
-        <v>354</v>
+        <v>-12405.6055</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3015,7 +3223,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3032,22 +3240,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C68" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D68" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E68" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>104</v>
       </c>
       <c r="G68" t="n">
-        <v>355</v>
+        <v>-12509.6055</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3057,7 +3265,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3074,22 +3282,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C69" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D69" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E69" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F69" t="n">
-        <v>288.1799</v>
+        <v>137.36263736</v>
       </c>
       <c r="G69" t="n">
-        <v>355</v>
+        <v>-12372.24286264</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3099,7 +3307,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3116,22 +3324,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C70" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D70" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E70" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F70" t="n">
-        <v>1972.0868</v>
+        <v>1270.7975</v>
       </c>
       <c r="G70" t="n">
-        <v>355</v>
+        <v>-13643.04036264</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3141,7 +3349,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3158,22 +3366,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C71" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D71" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E71" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F71" t="n">
-        <v>328.8828</v>
+        <v>137.3626</v>
       </c>
       <c r="G71" t="n">
-        <v>355</v>
+        <v>-13643.04036264</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3183,7 +3391,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3200,22 +3408,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C72" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D72" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E72" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F72" t="n">
-        <v>87.5763</v>
+        <v>1.4</v>
       </c>
       <c r="G72" t="n">
-        <v>355</v>
+        <v>-13641.64036264</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3225,7 +3433,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3242,22 +3450,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C73" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D73" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E73" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F73" t="n">
-        <v>104.506</v>
+        <v>1.9295</v>
       </c>
       <c r="G73" t="n">
-        <v>355.5</v>
+        <v>-13643.56986264</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3267,7 +3475,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3284,22 +3492,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C74" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D74" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E74" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F74" t="n">
-        <v>140.845</v>
+        <v>11.2892</v>
       </c>
       <c r="G74" t="n">
-        <v>356</v>
+        <v>-13654.85906264</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3309,7 +3517,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3326,22 +3534,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C75" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D75" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E75" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F75" t="n">
-        <v>71</v>
+        <v>1.4</v>
       </c>
       <c r="G75" t="n">
-        <v>356.5</v>
+        <v>-13653.45906264</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3351,7 +3559,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3368,22 +3576,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C76" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D76" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E76" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F76" t="n">
-        <v>3930.7894</v>
+        <v>170.5482</v>
       </c>
       <c r="G76" t="n">
-        <v>355</v>
+        <v>-13824.00726264</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3393,7 +3601,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3410,22 +3618,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C77" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D77" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E77" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F77" t="n">
-        <v>4087.7092</v>
+        <v>239.7896</v>
       </c>
       <c r="G77" t="n">
-        <v>354.5</v>
+        <v>-13824.00726264</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3435,7 +3643,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3452,34 +3660,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C78" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D78" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E78" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>137.8687</v>
       </c>
       <c r="G78" t="n">
-        <v>354.5</v>
+        <v>-13824.00726264</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>356</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3496,22 +3702,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C79" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D79" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E79" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F79" t="n">
-        <v>4608.98</v>
+        <v>233.8768</v>
       </c>
       <c r="G79" t="n">
-        <v>353.5</v>
+        <v>-14057.88406264</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3521,7 +3727,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3538,22 +3744,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C80" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D80" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E80" t="n">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F80" t="n">
-        <v>103.2188</v>
+        <v>111.2337</v>
       </c>
       <c r="G80" t="n">
-        <v>354</v>
+        <v>-13946.65036264</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3563,7 +3769,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3580,22 +3786,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C81" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D81" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E81" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>318.1994</v>
       </c>
       <c r="G81" t="n">
-        <v>355</v>
+        <v>-14264.84976264</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3605,7 +3811,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3622,22 +3828,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C82" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D82" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E82" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F82" t="n">
-        <v>247.8031</v>
+        <v>227.3275</v>
       </c>
       <c r="G82" t="n">
-        <v>355</v>
+        <v>-14037.52226264</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3647,7 +3853,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3664,22 +3870,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C83" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D83" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E83" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F83" t="n">
-        <v>2421.6139</v>
+        <v>681.8006</v>
       </c>
       <c r="G83" t="n">
-        <v>354</v>
+        <v>-14719.32286264</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3689,7 +3895,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3706,22 +3912,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C84" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D84" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E84" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F84" t="n">
-        <v>535.8139</v>
+        <v>227.3275</v>
       </c>
       <c r="G84" t="n">
-        <v>354.5</v>
+        <v>-14719.32286264</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3731,7 +3937,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3748,22 +3954,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C85" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D85" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E85" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F85" t="n">
-        <v>104</v>
+        <v>981.1402</v>
       </c>
       <c r="G85" t="n">
-        <v>355</v>
+        <v>-13738.18266264</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3773,7 +3979,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3790,22 +3996,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C86" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D86" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E86" t="n">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F86" t="n">
-        <v>3727.8139</v>
+        <v>1.4</v>
       </c>
       <c r="G86" t="n">
-        <v>355.5</v>
+        <v>-13736.78266264</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3815,7 +4021,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3832,22 +4038,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C87" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D87" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E87" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F87" t="n">
-        <v>1042</v>
+        <v>234.1044</v>
       </c>
       <c r="G87" t="n">
-        <v>356</v>
+        <v>-13970.88706264</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3857,7 +4063,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3874,22 +4080,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C88" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D88" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E88" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F88" t="n">
-        <v>2380.6205</v>
+        <v>1208.4677</v>
       </c>
       <c r="G88" t="n">
-        <v>356</v>
+        <v>-15179.35476264</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3899,7 +4105,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3916,22 +4122,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C89" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D89" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E89" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F89" t="n">
-        <v>368</v>
+        <v>617.5044</v>
       </c>
       <c r="G89" t="n">
-        <v>356</v>
+        <v>-14561.85036264</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3941,7 +4147,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3958,22 +4164,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C90" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D90" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E90" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F90" t="n">
-        <v>6383.2424</v>
+        <v>222.0503</v>
       </c>
       <c r="G90" t="n">
-        <v>360</v>
+        <v>-14783.90066264</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3983,7 +4189,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4000,22 +4206,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C91" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D91" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E91" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F91" t="n">
-        <v>159</v>
+        <v>1.4001</v>
       </c>
       <c r="G91" t="n">
-        <v>364</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4025,7 +4231,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4042,22 +4248,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C92" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D92" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E92" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F92" t="n">
-        <v>4275.5578</v>
+        <v>260</v>
       </c>
       <c r="G92" t="n">
-        <v>362</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4067,7 +4273,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4084,22 +4290,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C93" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D93" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E93" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F93" t="n">
-        <v>240.382</v>
+        <v>546</v>
       </c>
       <c r="G93" t="n">
-        <v>362</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4109,7 +4315,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4126,22 +4332,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C94" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D94" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E94" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F94" t="n">
-        <v>14194.5745</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>366</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4151,7 +4357,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4168,22 +4374,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C95" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D95" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E95" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F95" t="n">
-        <v>4312.5922</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>371.5</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4193,7 +4399,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4210,22 +4416,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C96" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D96" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E96" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F96" t="n">
-        <v>1052.7427</v>
+        <v>13.0468</v>
       </c>
       <c r="G96" t="n">
-        <v>375</v>
+        <v>-14782.50056264</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4235,7 +4441,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4252,22 +4458,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C97" t="n">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D97" t="n">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E97" t="n">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F97" t="n">
-        <v>11.04</v>
+        <v>990.4965999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>375</v>
+        <v>-15772.99716264</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4277,7 +4483,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4294,22 +4500,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C98" t="n">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D98" t="n">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E98" t="n">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F98" t="n">
-        <v>2992.56</v>
+        <v>165.2</v>
       </c>
       <c r="G98" t="n">
-        <v>375.5</v>
+        <v>-15938.19716264</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4319,7 +4525,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4336,22 +4542,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C99" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D99" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E99" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F99" t="n">
-        <v>1314.7706</v>
+        <v>2624.7586</v>
       </c>
       <c r="G99" t="n">
-        <v>375.5</v>
+        <v>-18562.95576264</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4361,7 +4567,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4378,22 +4584,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C100" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D100" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E100" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F100" t="n">
-        <v>6043.1512</v>
+        <v>12.2895</v>
       </c>
       <c r="G100" t="n">
-        <v>376.5</v>
+        <v>-18562.95576264</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4403,7 +4609,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4420,22 +4626,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C101" t="n">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D101" t="n">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="E101" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F101" t="n">
-        <v>12490.7158</v>
+        <v>136.9413</v>
       </c>
       <c r="G101" t="n">
-        <v>377</v>
+        <v>-18562.95576264</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4445,7 +4651,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4462,76 +4668,80 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C102" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D102" t="n">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E102" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F102" t="n">
-        <v>3803.6982</v>
+        <v>800.8944</v>
       </c>
       <c r="G102" t="n">
-        <v>376.5</v>
+        <v>-19363.85016264</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>1.051022408963586</v>
-      </c>
-      <c r="N102" t="n">
-        <v>1.028089887640449</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C103" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D103" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E103" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F103" t="n">
-        <v>2033</v>
+        <v>818.7234</v>
       </c>
       <c r="G103" t="n">
-        <v>376.5</v>
+        <v>-19363.85016264</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>353</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4752,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C104" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D104" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="E104" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="F104" t="n">
-        <v>1925.715</v>
+        <v>588.4212</v>
       </c>
       <c r="G104" t="n">
-        <v>376.5</v>
+        <v>-19363.85016264</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4566,8 +4776,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>353</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4578,32 +4794,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C105" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D105" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E105" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F105" t="n">
-        <v>4141.6998</v>
+        <v>1.4</v>
       </c>
       <c r="G105" t="n">
-        <v>377</v>
+        <v>-19362.45016264</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>353</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4614,32 +4836,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="C106" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D106" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="E106" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="F106" t="n">
-        <v>1.309</v>
+        <v>565.0144</v>
       </c>
       <c r="G106" t="n">
-        <v>379.5</v>
+        <v>-19927.46456264</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>353</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4650,32 +4878,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C107" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D107" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E107" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="F107" t="n">
-        <v>11318.0197</v>
+        <v>1394.9688</v>
       </c>
       <c r="G107" t="n">
-        <v>379.5</v>
+        <v>-19927.46456264</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>353</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4686,32 +4920,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C108" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D108" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E108" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F108" t="n">
-        <v>99.98560000000001</v>
+        <v>6.2129</v>
       </c>
       <c r="G108" t="n">
-        <v>377</v>
+        <v>-19921.25166264</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>353</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4722,32 +4962,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C109" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D109" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E109" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="F109" t="n">
-        <v>1181.1911</v>
+        <v>30</v>
       </c>
       <c r="G109" t="n">
-        <v>377</v>
+        <v>-19951.25166264</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>353</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4758,32 +5004,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C110" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D110" t="n">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E110" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F110" t="n">
-        <v>1659.4558</v>
+        <v>6.2129</v>
       </c>
       <c r="G110" t="n">
-        <v>376.5</v>
+        <v>-19951.25166264</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>353</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4794,32 +5046,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C111" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D111" t="n">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E111" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F111" t="n">
-        <v>1204.1418</v>
+        <v>1595.4202</v>
       </c>
       <c r="G111" t="n">
-        <v>376</v>
+        <v>-19951.25166264</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>353</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4830,32 +5088,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C112" t="n">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D112" t="n">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="E112" t="n">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="F112" t="n">
-        <v>5648.9503</v>
+        <v>95.9194</v>
       </c>
       <c r="G112" t="n">
-        <v>379</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>353</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4866,32 +5130,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C113" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D113" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E113" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F113" t="n">
-        <v>1658.1936</v>
+        <v>300.0015</v>
       </c>
       <c r="G113" t="n">
-        <v>379.5</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>353</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4902,32 +5172,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C114" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D114" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E114" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F114" t="n">
-        <v>691.4</v>
+        <v>200.001</v>
       </c>
       <c r="G114" t="n">
-        <v>377</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>353</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4938,32 +5214,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C115" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D115" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E115" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F115" t="n">
-        <v>3992.8198</v>
+        <v>209.5742</v>
       </c>
       <c r="G115" t="n">
-        <v>376</v>
+        <v>-19855.33226264</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>353</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4974,32 +5256,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C116" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D116" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E116" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F116" t="n">
-        <v>2219.5864</v>
+        <v>4315.5497</v>
       </c>
       <c r="G116" t="n">
-        <v>375</v>
+        <v>-24170.88196264</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>353</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +5298,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C117" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D117" t="n">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E117" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F117" t="n">
-        <v>3413.0747851</v>
+        <v>2.0087</v>
       </c>
       <c r="G117" t="n">
-        <v>375</v>
+        <v>-24168.87326264001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5034,8 +5322,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>353</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5046,32 +5340,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C118" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D118" t="n">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E118" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F118" t="n">
-        <v>3045.6334149</v>
+        <v>0.9631</v>
       </c>
       <c r="G118" t="n">
-        <v>375</v>
+        <v>-24169.83636264001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>353</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5082,32 +5382,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C119" t="n">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D119" t="n">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E119" t="n">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F119" t="n">
-        <v>8496.811900000001</v>
+        <v>52.2514</v>
       </c>
       <c r="G119" t="n">
-        <v>374.5</v>
+        <v>-24222.08776264001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>353</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5118,32 +5424,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C120" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D120" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E120" t="n">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F120" t="n">
-        <v>687.5346</v>
+        <v>13.0628</v>
       </c>
       <c r="G120" t="n">
-        <v>372</v>
+        <v>-24235.15056264001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>353</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5154,22 +5466,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C121" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D121" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E121" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F121" t="n">
-        <v>31.613</v>
+        <v>34.9372</v>
       </c>
       <c r="G121" t="n">
-        <v>370.5</v>
+        <v>-24235.15056264001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5178,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>353</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +5508,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C122" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D122" t="n">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E122" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F122" t="n">
-        <v>1238.2936</v>
+        <v>34.7578</v>
       </c>
       <c r="G122" t="n">
-        <v>370.5</v>
+        <v>-24200.39276264001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5214,8 +5532,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>353</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5226,22 +5550,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C123" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D123" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E123" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F123" t="n">
-        <v>313.6396</v>
+        <v>807.3253999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>370</v>
+        <v>-25007.71816264001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5250,8 +5574,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>353</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5262,22 +5592,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C124" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D124" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E124" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F124" t="n">
-        <v>926.4835</v>
+        <v>96.876</v>
       </c>
       <c r="G124" t="n">
-        <v>370.5</v>
+        <v>-24910.84216264001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5286,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>353</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5634,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C125" t="n">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D125" t="n">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E125" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F125" t="n">
-        <v>477.9282</v>
+        <v>429</v>
       </c>
       <c r="G125" t="n">
-        <v>372</v>
+        <v>-24910.84216264001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5322,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>353</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5334,22 +5676,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C126" t="n">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D126" t="n">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E126" t="n">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F126" t="n">
-        <v>19.9072</v>
+        <v>824.5236</v>
       </c>
       <c r="G126" t="n">
-        <v>372.5</v>
+        <v>-24910.84216264001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5358,8 +5700,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>353</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5370,22 +5718,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C127" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D127" t="n">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="E127" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F127" t="n">
-        <v>31.4726</v>
+        <v>3577.7502</v>
       </c>
       <c r="G127" t="n">
-        <v>371</v>
+        <v>-21333.09196264001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5394,8 +5742,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>353</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5406,22 +5760,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C128" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D128" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E128" t="n">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F128" t="n">
-        <v>506.8697</v>
+        <v>3157.7207</v>
       </c>
       <c r="G128" t="n">
-        <v>369.5</v>
+        <v>-24490.81266264001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5430,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>353</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5442,22 +5802,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C129" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D129" t="n">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E129" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F129" t="n">
-        <v>303.67</v>
+        <v>444.8521</v>
       </c>
       <c r="G129" t="n">
-        <v>369</v>
+        <v>-24045.96056264001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5466,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>353</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5478,22 +5844,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C130" t="n">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D130" t="n">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E130" t="n">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F130" t="n">
-        <v>1.4</v>
+        <v>277</v>
       </c>
       <c r="G130" t="n">
-        <v>370.5</v>
+        <v>-24322.96056264001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5502,8 +5868,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>353</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5514,22 +5886,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C131" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D131" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E131" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F131" t="n">
-        <v>241.1759</v>
+        <v>1.5</v>
       </c>
       <c r="G131" t="n">
-        <v>370.5</v>
+        <v>-24321.46056264001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5538,8 +5910,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>353</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5550,22 +5928,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C132" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D132" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E132" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F132" t="n">
-        <v>317.0741</v>
+        <v>250.5</v>
       </c>
       <c r="G132" t="n">
-        <v>368.5</v>
+        <v>-24321.46056264001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5574,8 +5952,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>353</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5586,22 +5970,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C133" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D133" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E133" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F133" t="n">
-        <v>333.8854</v>
+        <v>5351.7431</v>
       </c>
       <c r="G133" t="n">
-        <v>368</v>
+        <v>-18969.71746264001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5610,8 +5994,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>353</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5622,22 +6012,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C134" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D134" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E134" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F134" t="n">
-        <v>1029.5089</v>
+        <v>1.4</v>
       </c>
       <c r="G134" t="n">
-        <v>367.5</v>
+        <v>-18968.31746264001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5646,8 +6036,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>353</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5658,22 +6054,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C135" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D135" t="n">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E135" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F135" t="n">
-        <v>59.87</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>367</v>
+        <v>-19968.31746264001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5682,8 +6078,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>353</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5694,22 +6096,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C136" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D136" t="n">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E136" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F136" t="n">
-        <v>340.8909</v>
+        <v>141</v>
       </c>
       <c r="G136" t="n">
-        <v>367</v>
+        <v>-19827.31746264001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5718,8 +6120,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>353</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5730,36 +6138,2840 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>356</v>
+      </c>
+      <c r="C137" t="n">
+        <v>353</v>
+      </c>
+      <c r="D137" t="n">
+        <v>356</v>
+      </c>
+      <c r="E137" t="n">
+        <v>353</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14700.1637</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-34527.48116264001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>353</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>356</v>
+      </c>
+      <c r="C138" t="n">
+        <v>355</v>
+      </c>
+      <c r="D138" t="n">
+        <v>356</v>
+      </c>
+      <c r="E138" t="n">
+        <v>355</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5497.5778</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-29029.90336264001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>353</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>355</v>
+      </c>
+      <c r="C139" t="n">
+        <v>355</v>
+      </c>
+      <c r="D139" t="n">
+        <v>355</v>
+      </c>
+      <c r="E139" t="n">
+        <v>355</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-29029.90336264001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>353</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>355</v>
+      </c>
+      <c r="C140" t="n">
+        <v>355</v>
+      </c>
+      <c r="D140" t="n">
+        <v>355</v>
+      </c>
+      <c r="E140" t="n">
+        <v>355</v>
+      </c>
+      <c r="F140" t="n">
+        <v>288.1799</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-29029.90336264001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>353</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>355</v>
+      </c>
+      <c r="C141" t="n">
+        <v>355</v>
+      </c>
+      <c r="D141" t="n">
+        <v>355</v>
+      </c>
+      <c r="E141" t="n">
+        <v>355</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1972.0868</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-29029.90336264001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>353</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>355</v>
+      </c>
+      <c r="C142" t="n">
+        <v>355</v>
+      </c>
+      <c r="D142" t="n">
+        <v>355</v>
+      </c>
+      <c r="E142" t="n">
+        <v>355</v>
+      </c>
+      <c r="F142" t="n">
+        <v>328.8828</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-29029.90336264001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>353</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>355</v>
+      </c>
+      <c r="C143" t="n">
+        <v>355</v>
+      </c>
+      <c r="D143" t="n">
+        <v>355</v>
+      </c>
+      <c r="E143" t="n">
+        <v>355</v>
+      </c>
+      <c r="F143" t="n">
+        <v>87.5763</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-29029.90336264001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>353</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>356</v>
+      </c>
+      <c r="C144" t="n">
+        <v>356</v>
+      </c>
+      <c r="D144" t="n">
+        <v>356</v>
+      </c>
+      <c r="E144" t="n">
+        <v>356</v>
+      </c>
+      <c r="F144" t="n">
+        <v>104.506</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-28925.39736264001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>353</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>356</v>
+      </c>
+      <c r="C145" t="n">
+        <v>356</v>
+      </c>
+      <c r="D145" t="n">
+        <v>356</v>
+      </c>
+      <c r="E145" t="n">
+        <v>356</v>
+      </c>
+      <c r="F145" t="n">
+        <v>140.845</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-28925.39736264001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>353</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>357</v>
+      </c>
+      <c r="C146" t="n">
+        <v>357</v>
+      </c>
+      <c r="D146" t="n">
+        <v>357</v>
+      </c>
+      <c r="E146" t="n">
+        <v>357</v>
+      </c>
+      <c r="F146" t="n">
+        <v>71</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-28854.39736264001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>353</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>354</v>
+      </c>
+      <c r="C147" t="n">
+        <v>353</v>
+      </c>
+      <c r="D147" t="n">
+        <v>354</v>
+      </c>
+      <c r="E147" t="n">
+        <v>353</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3930.7894</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-32785.18676264001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>353</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>353</v>
+      </c>
+      <c r="C148" t="n">
+        <v>356</v>
+      </c>
+      <c r="D148" t="n">
+        <v>356</v>
+      </c>
+      <c r="E148" t="n">
+        <v>353</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4087.7092</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-28697.47756264001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>353</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>354</v>
+      </c>
+      <c r="C149" t="n">
+        <v>353</v>
+      </c>
+      <c r="D149" t="n">
+        <v>354</v>
+      </c>
+      <c r="E149" t="n">
+        <v>353</v>
+      </c>
+      <c r="F149" t="n">
+        <v>200</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-28897.47756264001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>353</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>354</v>
+      </c>
+      <c r="C150" t="n">
+        <v>354</v>
+      </c>
+      <c r="D150" t="n">
+        <v>354</v>
+      </c>
+      <c r="E150" t="n">
+        <v>354</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4608.98</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-24288.49756264001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>353</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>354</v>
+      </c>
+      <c r="C151" t="n">
+        <v>354</v>
+      </c>
+      <c r="D151" t="n">
+        <v>354</v>
+      </c>
+      <c r="E151" t="n">
+        <v>354</v>
+      </c>
+      <c r="F151" t="n">
+        <v>103.2188</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-24288.49756264001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>353</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>356</v>
+      </c>
+      <c r="C152" t="n">
+        <v>356</v>
+      </c>
+      <c r="D152" t="n">
+        <v>356</v>
+      </c>
+      <c r="E152" t="n">
+        <v>356</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-24282.49756264001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>353</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>354</v>
+      </c>
+      <c r="C153" t="n">
+        <v>354</v>
+      </c>
+      <c r="D153" t="n">
+        <v>354</v>
+      </c>
+      <c r="E153" t="n">
+        <v>354</v>
+      </c>
+      <c r="F153" t="n">
+        <v>247.8031</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-24530.30066264001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>353</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>354</v>
+      </c>
+      <c r="C154" t="n">
+        <v>354</v>
+      </c>
+      <c r="D154" t="n">
+        <v>354</v>
+      </c>
+      <c r="E154" t="n">
+        <v>354</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2421.6139</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-24530.30066264001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>353</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>355</v>
+      </c>
+      <c r="C155" t="n">
+        <v>355</v>
+      </c>
+      <c r="D155" t="n">
+        <v>355</v>
+      </c>
+      <c r="E155" t="n">
+        <v>355</v>
+      </c>
+      <c r="F155" t="n">
+        <v>535.8139</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-23994.48676264001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>353</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>355</v>
+      </c>
+      <c r="C156" t="n">
+        <v>355</v>
+      </c>
+      <c r="D156" t="n">
+        <v>355</v>
+      </c>
+      <c r="E156" t="n">
+        <v>355</v>
+      </c>
+      <c r="F156" t="n">
+        <v>104</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-23994.48676264001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>353</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>355</v>
+      </c>
+      <c r="C157" t="n">
+        <v>356</v>
+      </c>
+      <c r="D157" t="n">
+        <v>356</v>
+      </c>
+      <c r="E157" t="n">
+        <v>355</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3727.8139</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-20266.67286264001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>353</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>356</v>
+      </c>
+      <c r="C158" t="n">
+        <v>356</v>
+      </c>
+      <c r="D158" t="n">
+        <v>356</v>
+      </c>
+      <c r="E158" t="n">
+        <v>356</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1042</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-20266.67286264001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>353</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>356</v>
+      </c>
+      <c r="C159" t="n">
+        <v>356</v>
+      </c>
+      <c r="D159" t="n">
+        <v>356</v>
+      </c>
+      <c r="E159" t="n">
+        <v>356</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2380.6205</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-20266.67286264001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>353</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>356</v>
+      </c>
+      <c r="C160" t="n">
+        <v>356</v>
+      </c>
+      <c r="D160" t="n">
+        <v>356</v>
+      </c>
+      <c r="E160" t="n">
+        <v>356</v>
+      </c>
+      <c r="F160" t="n">
+        <v>368</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-20266.67286264001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>353</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>356</v>
+      </c>
+      <c r="C161" t="n">
+        <v>364</v>
+      </c>
+      <c r="D161" t="n">
+        <v>364</v>
+      </c>
+      <c r="E161" t="n">
+        <v>356</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6383.2424</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-13883.43046264001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>353</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>364</v>
+      </c>
+      <c r="C162" t="n">
+        <v>364</v>
+      </c>
+      <c r="D162" t="n">
+        <v>364</v>
+      </c>
+      <c r="E162" t="n">
+        <v>364</v>
+      </c>
+      <c r="F162" t="n">
+        <v>159</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-13883.43046264001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>353</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>364</v>
+      </c>
+      <c r="C163" t="n">
+        <v>360</v>
+      </c>
+      <c r="D163" t="n">
+        <v>364</v>
+      </c>
+      <c r="E163" t="n">
+        <v>360</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4275.5578</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-18158.98826264001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>353</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>363</v>
+      </c>
+      <c r="C164" t="n">
+        <v>364</v>
+      </c>
+      <c r="D164" t="n">
+        <v>364</v>
+      </c>
+      <c r="E164" t="n">
+        <v>363</v>
+      </c>
+      <c r="F164" t="n">
+        <v>240.382</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-17918.60626264001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>353</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>365</v>
+      </c>
+      <c r="C165" t="n">
+        <v>368</v>
+      </c>
+      <c r="D165" t="n">
+        <v>368</v>
+      </c>
+      <c r="E165" t="n">
+        <v>365</v>
+      </c>
+      <c r="F165" t="n">
+        <v>14194.5745</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3724.031762640008</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>353</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>368</v>
+      </c>
+      <c r="C166" t="n">
+        <v>375</v>
+      </c>
+      <c r="D166" t="n">
+        <v>375</v>
+      </c>
+      <c r="E166" t="n">
+        <v>368</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4312.5922</v>
+      </c>
+      <c r="G166" t="n">
+        <v>588.5604373599917</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>353</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>375</v>
+      </c>
+      <c r="C167" t="n">
+        <v>375</v>
+      </c>
+      <c r="D167" t="n">
+        <v>375</v>
+      </c>
+      <c r="E167" t="n">
+        <v>375</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1052.7427</v>
+      </c>
+      <c r="G167" t="n">
+        <v>588.5604373599917</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>353</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>375</v>
+      </c>
+      <c r="C168" t="n">
+        <v>375</v>
+      </c>
+      <c r="D168" t="n">
+        <v>375</v>
+      </c>
+      <c r="E168" t="n">
+        <v>375</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="G168" t="n">
+        <v>588.5604373599917</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>353</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>376</v>
+      </c>
+      <c r="C169" t="n">
+        <v>376</v>
+      </c>
+      <c r="D169" t="n">
+        <v>376</v>
+      </c>
+      <c r="E169" t="n">
+        <v>375</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2992.56</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3581.120437359992</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>353</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>377</v>
+      </c>
+      <c r="C170" t="n">
+        <v>375</v>
+      </c>
+      <c r="D170" t="n">
+        <v>377</v>
+      </c>
+      <c r="E170" t="n">
+        <v>375</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1314.7706</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2266.349837359991</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>353</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>375</v>
+      </c>
+      <c r="C171" t="n">
+        <v>378</v>
+      </c>
+      <c r="D171" t="n">
+        <v>378</v>
+      </c>
+      <c r="E171" t="n">
+        <v>375</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6043.1512</v>
+      </c>
+      <c r="G171" t="n">
+        <v>8309.501037359991</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>353</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>375</v>
+      </c>
+      <c r="C172" t="n">
+        <v>376</v>
+      </c>
+      <c r="D172" t="n">
+        <v>380</v>
+      </c>
+      <c r="E172" t="n">
+        <v>375</v>
+      </c>
+      <c r="F172" t="n">
+        <v>12490.7158</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4181.214762640009</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>353</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>376</v>
+      </c>
+      <c r="C173" t="n">
+        <v>377</v>
+      </c>
+      <c r="D173" t="n">
+        <v>383</v>
+      </c>
+      <c r="E173" t="n">
+        <v>376</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3803.6982</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-377.5165626400094</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>353</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>377</v>
+      </c>
+      <c r="C174" t="n">
+        <v>376</v>
+      </c>
+      <c r="D174" t="n">
+        <v>377</v>
+      </c>
+      <c r="E174" t="n">
+        <v>376</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2033</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2410.516562640009</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>353</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>377</v>
+      </c>
+      <c r="C175" t="n">
+        <v>377</v>
+      </c>
+      <c r="D175" t="n">
+        <v>382</v>
+      </c>
+      <c r="E175" t="n">
+        <v>377</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1925.715</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-484.8015626400095</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>353</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>377</v>
+      </c>
+      <c r="C176" t="n">
+        <v>377</v>
+      </c>
+      <c r="D176" t="n">
+        <v>377</v>
+      </c>
+      <c r="E176" t="n">
+        <v>377</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4141.6998</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-484.8015626400095</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>353</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>382</v>
+      </c>
+      <c r="C177" t="n">
+        <v>382</v>
+      </c>
+      <c r="D177" t="n">
+        <v>382</v>
+      </c>
+      <c r="E177" t="n">
+        <v>382</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.309</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-483.4925626400095</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>353</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1.077152974504249</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1.011331444759207</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>377</v>
+      </c>
+      <c r="C178" t="n">
+        <v>377</v>
+      </c>
+      <c r="D178" t="n">
+        <v>377</v>
+      </c>
+      <c r="E178" t="n">
+        <v>377</v>
+      </c>
+      <c r="F178" t="n">
+        <v>11318.0197</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-11801.51226264001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>377</v>
+      </c>
+      <c r="C179" t="n">
+        <v>377</v>
+      </c>
+      <c r="D179" t="n">
+        <v>377</v>
+      </c>
+      <c r="E179" t="n">
+        <v>377</v>
+      </c>
+      <c r="F179" t="n">
+        <v>99.98560000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-11801.51226264001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>377</v>
+      </c>
+      <c r="C180" t="n">
+        <v>377</v>
+      </c>
+      <c r="D180" t="n">
+        <v>377</v>
+      </c>
+      <c r="E180" t="n">
+        <v>377</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1181.1911</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-11801.51226264001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>377</v>
+      </c>
+      <c r="C181" t="n">
+        <v>376</v>
+      </c>
+      <c r="D181" t="n">
+        <v>378</v>
+      </c>
+      <c r="E181" t="n">
+        <v>376</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1659.4558</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-13460.96806264001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>376</v>
+      </c>
+      <c r="C182" t="n">
+        <v>376</v>
+      </c>
+      <c r="D182" t="n">
+        <v>378</v>
+      </c>
+      <c r="E182" t="n">
+        <v>376</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1204.1418</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-13460.96806264001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>378</v>
+      </c>
+      <c r="C183" t="n">
+        <v>382</v>
+      </c>
+      <c r="D183" t="n">
+        <v>383</v>
+      </c>
+      <c r="E183" t="n">
+        <v>376</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5648.9503</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-7812.017762640009</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>377</v>
+      </c>
+      <c r="C184" t="n">
+        <v>377</v>
+      </c>
+      <c r="D184" t="n">
+        <v>377</v>
+      </c>
+      <c r="E184" t="n">
+        <v>377</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1658.1936</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-9470.21136264001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>377</v>
+      </c>
+      <c r="C185" t="n">
+        <v>377</v>
+      </c>
+      <c r="D185" t="n">
+        <v>378</v>
+      </c>
+      <c r="E185" t="n">
+        <v>377</v>
+      </c>
+      <c r="F185" t="n">
+        <v>691.4</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-9470.21136264001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>377</v>
+      </c>
+      <c r="C186" t="n">
+        <v>375</v>
+      </c>
+      <c r="D186" t="n">
+        <v>377</v>
+      </c>
+      <c r="E186" t="n">
+        <v>375</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3992.8198</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>375</v>
+      </c>
+      <c r="C187" t="n">
+        <v>375</v>
+      </c>
+      <c r="D187" t="n">
+        <v>375</v>
+      </c>
+      <c r="E187" t="n">
+        <v>375</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2219.5864</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>375</v>
+      </c>
+      <c r="C188" t="n">
+        <v>375</v>
+      </c>
+      <c r="D188" t="n">
+        <v>376</v>
+      </c>
+      <c r="E188" t="n">
+        <v>375</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3413.0747851</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>376</v>
+      </c>
+      <c r="C189" t="n">
+        <v>375</v>
+      </c>
+      <c r="D189" t="n">
+        <v>377</v>
+      </c>
+      <c r="E189" t="n">
+        <v>375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3045.6334149</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-13463.03116264001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>376</v>
+      </c>
+      <c r="C190" t="n">
+        <v>374</v>
+      </c>
+      <c r="D190" t="n">
+        <v>376</v>
+      </c>
+      <c r="E190" t="n">
+        <v>374</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8496.811900000001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-21959.84306264001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>370</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C191" t="n">
         <v>370</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D191" t="n">
+        <v>371</v>
+      </c>
+      <c r="E191" t="n">
+        <v>369</v>
+      </c>
+      <c r="F191" t="n">
+        <v>687.5346</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-22647.37766264001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
         <v>370</v>
       </c>
-      <c r="E137" t="n">
+      <c r="C192" t="n">
+        <v>371</v>
+      </c>
+      <c r="D192" t="n">
+        <v>371</v>
+      </c>
+      <c r="E192" t="n">
         <v>370</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F192" t="n">
+        <v>31.613</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-22615.76466264001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>371</v>
+      </c>
+      <c r="C193" t="n">
+        <v>370</v>
+      </c>
+      <c r="D193" t="n">
+        <v>371</v>
+      </c>
+      <c r="E193" t="n">
+        <v>370</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1238.2936</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-23854.05826264001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>370</v>
+      </c>
+      <c r="C194" t="n">
+        <v>370</v>
+      </c>
+      <c r="D194" t="n">
+        <v>370</v>
+      </c>
+      <c r="E194" t="n">
+        <v>370</v>
+      </c>
+      <c r="F194" t="n">
+        <v>313.6396</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-23854.05826264001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>371</v>
+      </c>
+      <c r="C195" t="n">
+        <v>371</v>
+      </c>
+      <c r="D195" t="n">
+        <v>371</v>
+      </c>
+      <c r="E195" t="n">
+        <v>371</v>
+      </c>
+      <c r="F195" t="n">
+        <v>926.4835</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-22927.57476264001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>371</v>
+      </c>
+      <c r="C196" t="n">
+        <v>373</v>
+      </c>
+      <c r="D196" t="n">
+        <v>374</v>
+      </c>
+      <c r="E196" t="n">
+        <v>367</v>
+      </c>
+      <c r="F196" t="n">
+        <v>477.9282</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-22449.64656264001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>372</v>
+      </c>
+      <c r="C197" t="n">
+        <v>372</v>
+      </c>
+      <c r="D197" t="n">
+        <v>372</v>
+      </c>
+      <c r="E197" t="n">
+        <v>372</v>
+      </c>
+      <c r="F197" t="n">
+        <v>19.9072</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-22469.55376264001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>371</v>
+      </c>
+      <c r="C198" t="n">
+        <v>370</v>
+      </c>
+      <c r="D198" t="n">
+        <v>371</v>
+      </c>
+      <c r="E198" t="n">
+        <v>370</v>
+      </c>
+      <c r="F198" t="n">
+        <v>31.4726</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-22501.02636264002</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>370</v>
+      </c>
+      <c r="C199" t="n">
+        <v>369</v>
+      </c>
+      <c r="D199" t="n">
+        <v>370</v>
+      </c>
+      <c r="E199" t="n">
+        <v>369</v>
+      </c>
+      <c r="F199" t="n">
+        <v>506.8697</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-23007.89606264001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>370</v>
+      </c>
+      <c r="C200" t="n">
+        <v>369</v>
+      </c>
+      <c r="D200" t="n">
+        <v>370</v>
+      </c>
+      <c r="E200" t="n">
+        <v>369</v>
+      </c>
+      <c r="F200" t="n">
+        <v>303.67</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-23007.89606264001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>372</v>
+      </c>
+      <c r="C201" t="n">
+        <v>372</v>
+      </c>
+      <c r="D201" t="n">
+        <v>372</v>
+      </c>
+      <c r="E201" t="n">
+        <v>372</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-23006.49606264001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>369</v>
+      </c>
+      <c r="C202" t="n">
+        <v>369</v>
+      </c>
+      <c r="D202" t="n">
+        <v>369</v>
+      </c>
+      <c r="E202" t="n">
+        <v>369</v>
+      </c>
+      <c r="F202" t="n">
+        <v>241.1759</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-23247.67196264001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>369</v>
+      </c>
+      <c r="C203" t="n">
+        <v>368</v>
+      </c>
+      <c r="D203" t="n">
+        <v>369</v>
+      </c>
+      <c r="E203" t="n">
+        <v>368</v>
+      </c>
+      <c r="F203" t="n">
+        <v>317.0741</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-23564.74606264001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>368</v>
+      </c>
+      <c r="C204" t="n">
+        <v>368</v>
+      </c>
+      <c r="D204" t="n">
+        <v>368</v>
+      </c>
+      <c r="E204" t="n">
+        <v>368</v>
+      </c>
+      <c r="F204" t="n">
+        <v>333.8854</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-23564.74606264001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>367</v>
+      </c>
+      <c r="C205" t="n">
+        <v>367</v>
+      </c>
+      <c r="D205" t="n">
+        <v>367</v>
+      </c>
+      <c r="E205" t="n">
+        <v>367</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1029.5089</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-24594.25496264001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>368</v>
+      </c>
+      <c r="C206" t="n">
+        <v>367</v>
+      </c>
+      <c r="D206" t="n">
+        <v>368</v>
+      </c>
+      <c r="E206" t="n">
+        <v>367</v>
+      </c>
+      <c r="F206" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-24594.25496264001</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>367</v>
+      </c>
+      <c r="C207" t="n">
+        <v>367</v>
+      </c>
+      <c r="D207" t="n">
+        <v>367</v>
+      </c>
+      <c r="E207" t="n">
+        <v>367</v>
+      </c>
+      <c r="F207" t="n">
+        <v>340.8909</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-24594.25496264001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>370</v>
+      </c>
+      <c r="C208" t="n">
+        <v>370</v>
+      </c>
+      <c r="D208" t="n">
+        <v>370</v>
+      </c>
+      <c r="E208" t="n">
+        <v>370</v>
+      </c>
+      <c r="F208" t="n">
         <v>121.3511</v>
       </c>
-      <c r="G137" t="n">
-        <v>368.5</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>-24472.90386264001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-12374.7583</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-12374.7583</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J3" t="n">
         <v>357</v>
       </c>
-      <c r="K3" t="n">
-        <v>357</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-13053.9892</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J4" t="n">
         <v>357</v>
       </c>
-      <c r="K4" t="n">
-        <v>357</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-13402.9892</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
-      </c>
-      <c r="K5" t="n">
-        <v>357</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>357</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>-13401.5692</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J6" t="n">
         <v>353</v>
       </c>
-      <c r="K6" t="n">
-        <v>353</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>-13401.5692</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
-      </c>
-      <c r="K7" t="n">
-        <v>353</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>-13401.5692</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
-      </c>
-      <c r="K8" t="n">
-        <v>353</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,23 @@
         <v>-7079.3674</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="J9" t="n">
-        <v>354</v>
-      </c>
-      <c r="K9" t="n">
-        <v>353</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +763,21 @@
         <v>-7079.3674</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>356</v>
-      </c>
-      <c r="K10" t="n">
-        <v>353</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +802,23 @@
         <v>-12847.7537</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
-      </c>
-      <c r="K11" t="n">
-        <v>353</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +843,21 @@
         <v>-12365.5026</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>353</v>
       </c>
-      <c r="K12" t="n">
-        <v>353</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +882,21 @@
         <v>-12364.0926</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>356</v>
-      </c>
-      <c r="K13" t="n">
-        <v>353</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +921,23 @@
         <v>-12388.6006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J14" t="n">
-        <v>357</v>
-      </c>
-      <c r="K14" t="n">
-        <v>353</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +962,23 @@
         <v>-12388.6006</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J15" t="n">
         <v>353</v>
       </c>
-      <c r="K15" t="n">
-        <v>353</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1056,26 +1003,23 @@
         <v>-12361.0006</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J16" t="n">
         <v>353</v>
       </c>
-      <c r="K16" t="n">
-        <v>353</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,26 +1044,23 @@
         <v>-13078.4417</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="J17" t="n">
-        <v>356</v>
-      </c>
-      <c r="K17" t="n">
-        <v>353</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1144,26 +1085,23 @@
         <v>-13076.8417</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="J18" t="n">
-        <v>351</v>
-      </c>
-      <c r="K18" t="n">
-        <v>353</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1188,26 +1126,23 @@
         <v>-13076.8417</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J19" t="n">
         <v>353</v>
       </c>
-      <c r="K19" t="n">
-        <v>353</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1232,26 +1167,23 @@
         <v>-11830.8417</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J20" t="n">
         <v>353</v>
       </c>
-      <c r="K20" t="n">
-        <v>353</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1276,26 +1208,23 @@
         <v>-11830.8417</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J21" t="n">
-        <v>357</v>
-      </c>
-      <c r="K21" t="n">
-        <v>353</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1320,26 +1249,23 @@
         <v>-11830.8417</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J22" t="n">
-        <v>357</v>
-      </c>
-      <c r="K22" t="n">
-        <v>353</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1364,26 +1290,23 @@
         <v>-11718.8417</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="J23" t="n">
-        <v>357</v>
-      </c>
-      <c r="K23" t="n">
-        <v>353</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1408,26 +1331,21 @@
         <v>-11718.8417</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>358</v>
-      </c>
-      <c r="K24" t="n">
-        <v>353</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1452,24 +1370,23 @@
         <v>-11718.8417</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>353</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>358</v>
+      </c>
+      <c r="J25" t="n">
+        <v>353</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1496,22 +1413,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>353</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>353</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1538,22 +1452,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>353</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>353</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1580,22 +1491,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>353</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>353</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1622,22 +1530,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>353</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>353</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1664,22 +1569,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>353</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>353</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1706,22 +1608,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>353</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>353</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1748,22 +1647,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>353</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>353</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1790,22 +1686,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>353</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>353</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1832,22 +1725,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>353</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>353</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1874,22 +1764,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>353</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>353</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1916,22 +1803,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>353</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>353</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1958,22 +1842,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>353</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>353</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,22 +1881,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>353</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>353</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2042,22 +1920,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>353</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>353</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2084,22 +1959,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>353</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>353</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2126,22 +1998,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>353</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>353</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2168,22 +2037,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>353</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>353</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2210,22 +2076,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>353</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>353</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2252,22 +2115,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>353</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>353</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2294,22 +2154,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>353</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>353</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2336,22 +2193,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>353</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>353</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,22 +2232,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>353</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>353</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,22 +2271,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>353</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>353</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2462,22 +2310,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>353</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>353</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2504,22 +2349,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>353</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>353</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2546,22 +2388,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>353</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>353</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2588,22 +2427,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>353</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>353</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2630,22 +2466,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>353</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>353</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2672,22 +2505,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>353</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>353</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2714,22 +2544,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>353</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>353</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2756,22 +2583,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>353</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>353</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2798,22 +2622,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>353</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>353</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,22 +2661,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>353</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>353</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2882,22 +2700,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>353</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>353</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2924,22 +2739,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>353</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>353</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2966,22 +2778,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>353</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>353</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3008,22 +2817,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>353</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>353</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3050,22 +2856,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>353</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>353</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3092,22 +2895,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>353</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>353</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3134,22 +2934,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>353</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>353</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3174,24 +2971,21 @@
         <v>-12407.0055</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>353</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>353</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1.017662889518414</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3216,24 +3010,15 @@
         <v>-12405.6055</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>353</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3258,24 +3043,15 @@
         <v>-12509.6055</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>353</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3302,22 +3078,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>353</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3342,24 +3109,15 @@
         <v>-13643.04036264</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>353</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3386,22 +3144,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>353</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3428,22 +3177,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>353</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3468,24 +3208,15 @@
         <v>-13643.56986264</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>353</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3510,24 +3241,15 @@
         <v>-13654.85906264</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>353</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3552,24 +3274,15 @@
         <v>-13653.45906264</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>353</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3594,24 +3307,15 @@
         <v>-13824.00726264</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>353</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3638,22 +3342,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>353</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3678,24 +3373,15 @@
         <v>-13824.00726264</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>353</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3722,22 +3408,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>353</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3764,22 +3441,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>353</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3806,22 +3474,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>353</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,22 +3507,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>353</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,22 +3540,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>353</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,22 +3573,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>353</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3974,22 +3606,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>353</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,22 +3639,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>353</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4058,22 +3672,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>353</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4100,22 +3705,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>353</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4142,22 +3738,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>353</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4182,24 +3769,15 @@
         <v>-14783.90066264</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>353</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4224,24 +3802,15 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>353</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4266,24 +3835,15 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>353</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4310,22 +3870,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>353</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4350,24 +3901,15 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>353</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4392,24 +3934,15 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>353</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4436,22 +3969,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>353</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4478,22 +4002,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>353</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4520,22 +4035,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>353</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4562,22 +4068,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>353</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4604,22 +4101,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>353</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4646,22 +4134,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>353</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4686,24 +4165,15 @@
         <v>-19363.85016264</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>353</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4728,24 +4198,15 @@
         <v>-19363.85016264</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>353</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4770,24 +4231,15 @@
         <v>-19363.85016264</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>353</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4812,24 +4264,15 @@
         <v>-19362.45016264</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>353</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4854,24 +4297,15 @@
         <v>-19927.46456264</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>353</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4896,24 +4330,15 @@
         <v>-19927.46456264</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>353</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4938,24 +4363,15 @@
         <v>-19921.25166264</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>353</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4982,22 +4398,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>353</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5024,22 +4431,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>353</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5066,22 +4464,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>353</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5106,24 +4495,15 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>353</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5148,24 +4528,15 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>353</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5190,24 +4561,15 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>353</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5232,24 +4594,15 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>353</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5274,24 +4627,15 @@
         <v>-24170.88196264</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>353</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5316,24 +4660,15 @@
         <v>-24168.87326264001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>353</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5358,24 +4693,15 @@
         <v>-24169.83636264001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>353</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5400,24 +4726,15 @@
         <v>-24222.08776264001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>353</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5442,24 +4759,15 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>353</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5484,24 +4792,15 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>353</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5526,24 +4825,15 @@
         <v>-24200.39276264001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>353</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5568,24 +4858,15 @@
         <v>-25007.71816264001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>353</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5610,24 +4891,15 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>353</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5652,24 +4924,15 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>353</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5694,24 +4957,15 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>353</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5736,24 +4990,15 @@
         <v>-21333.09196264001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>353</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5780,22 +5025,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>353</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5822,22 +5058,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>353</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5864,22 +5091,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>353</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5906,22 +5124,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>353</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5948,22 +5157,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>353</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5990,22 +5190,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>353</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6030,24 +5221,15 @@
         <v>-18968.31746264001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>353</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6072,24 +5254,15 @@
         <v>-19968.31746264001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>353</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6114,24 +5287,15 @@
         <v>-19827.31746264001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>353</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6158,22 +5322,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>353</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6200,22 +5355,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>353</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6242,22 +5388,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>353</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6284,22 +5421,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>353</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6326,22 +5454,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>353</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6368,22 +5487,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>353</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6410,22 +5520,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>353</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6452,22 +5553,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>353</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6494,22 +5586,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>353</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6536,22 +5619,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>353</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6578,22 +5652,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>353</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6620,22 +5685,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>353</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6662,22 +5718,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>353</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6704,22 +5751,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>353</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6746,22 +5784,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>353</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6788,22 +5817,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>353</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6830,22 +5850,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>353</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6872,22 +5883,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>353</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6914,22 +5916,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>353</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6956,22 +5949,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>353</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6998,22 +5982,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>353</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7040,22 +6015,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>353</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7082,22 +6048,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>353</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7124,22 +6081,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>353</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7166,22 +6114,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>353</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7208,22 +6147,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>353</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7250,22 +6180,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>353</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7292,22 +6213,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>353</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7334,22 +6246,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>353</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7376,22 +6279,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>353</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7418,22 +6312,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>353</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7460,22 +6345,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>353</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7502,22 +6378,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>353</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7544,22 +6411,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>353</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7586,22 +6444,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>353</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7628,22 +6477,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>353</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7670,22 +6510,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>353</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7710,24 +6541,15 @@
         <v>-2410.516562640009</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>353</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7754,22 +6576,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>353</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7796,22 +6609,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>353</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7838,24 +6642,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>353</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1.077152974504249</v>
-      </c>
-      <c r="N177" t="n">
-        <v>1.011331444759207</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7880,18 +6673,15 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7916,18 +6706,15 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7952,18 +6739,15 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7988,18 +6772,15 @@
         <v>-13460.96806264001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8024,18 +6805,15 @@
         <v>-13460.96806264001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8062,16 +6840,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8098,16 +6873,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8134,16 +6906,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8170,16 +6939,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8206,16 +6972,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8240,18 +7003,15 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8278,16 +7038,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8314,16 +7071,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8350,16 +7104,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8386,16 +7137,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8422,16 +7170,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8458,16 +7203,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8494,16 +7236,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8530,16 +7269,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8566,16 +7302,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8602,16 +7335,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8638,16 +7368,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8674,16 +7401,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8710,16 +7434,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8746,16 +7467,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8782,16 +7500,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8818,16 +7533,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8854,16 +7566,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8890,16 +7599,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8926,16 +7632,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8962,18 +7665,15 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>357</v>
@@ -521,7 +521,7 @@
         <v>-13053.9892</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>357</v>
@@ -562,7 +562,7 @@
         <v>-13402.9892</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>355</v>
@@ -603,7 +603,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>353</v>
@@ -640,7 +640,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>354</v>
@@ -681,7 +681,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>354</v>
@@ -722,7 +722,7 @@
         <v>-7079.3674</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>354</v>
@@ -763,9 +763,11 @@
         <v>-7079.3674</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>356</v>
+      </c>
       <c r="J10" t="n">
         <v>353</v>
       </c>
@@ -802,7 +804,7 @@
         <v>-12847.7537</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>356</v>
@@ -843,9 +845,11 @@
         <v>-12365.5026</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>353</v>
+      </c>
       <c r="J12" t="n">
         <v>353</v>
       </c>
@@ -882,9 +886,11 @@
         <v>-12364.0926</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>356</v>
+      </c>
       <c r="J13" t="n">
         <v>353</v>
       </c>
@@ -921,7 +927,7 @@
         <v>-12388.6006</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>357</v>
@@ -962,7 +968,7 @@
         <v>-12388.6006</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>353</v>
@@ -1003,7 +1009,7 @@
         <v>-12361.0006</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>353</v>
@@ -1044,7 +1050,7 @@
         <v>-13078.4417</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>356</v>
@@ -1085,7 +1091,7 @@
         <v>-13076.8417</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>351</v>
@@ -1126,7 +1132,7 @@
         <v>-13076.8417</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>353</v>
@@ -1167,7 +1173,7 @@
         <v>-11830.8417</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>353</v>
@@ -1208,7 +1214,7 @@
         <v>-11830.8417</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>357</v>
@@ -1249,11 +1255,9 @@
         <v>-11830.8417</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>353</v>
       </c>
@@ -1290,11 +1294,9 @@
         <v>-11718.8417</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>353</v>
       </c>
@@ -1370,11 +1372,9 @@
         <v>-11718.8417</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>353</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>-12407.0055</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
@@ -2979,11 +2979,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.017662889518414</v>
+        <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -3010,11 +3010,17 @@
         <v>-12405.6055</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>353</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3049,17 @@
         <v>-12509.6055</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>353</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3091,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>353</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +3127,17 @@
         <v>-13643.04036264</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>353</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3169,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>353</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>353</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3208,11 +3244,17 @@
         <v>-13643.56986264</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>353</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3283,17 @@
         <v>-13654.85906264</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>353</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3274,11 +3322,17 @@
         <v>-13653.45906264</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>353</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +3361,17 @@
         <v>-13824.00726264</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>353</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>353</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3439,17 @@
         <v>-13824.00726264</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>353</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>353</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3442,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>353</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>353</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3508,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>353</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>353</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>353</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>353</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3640,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>353</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3673,8 +3793,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>353</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>353</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3739,8 +3871,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>353</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3769,11 +3907,17 @@
         <v>-14783.90066264</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>353</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3946,17 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>353</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +3985,17 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>353</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3871,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>353</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3901,11 +4063,17 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>353</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +4102,17 @@
         <v>-14782.50056264</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>353</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3970,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>353</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4003,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>353</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4036,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>353</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4069,8 +4261,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>353</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4102,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>353</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4135,8 +4339,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>353</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +4375,17 @@
         <v>-19363.85016264</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>353</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +4414,17 @@
         <v>-19363.85016264</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>353</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +4453,17 @@
         <v>-19363.85016264</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>353</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +4492,17 @@
         <v>-19362.45016264</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>353</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4297,11 +4531,17 @@
         <v>-19927.46456264</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>353</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4570,17 @@
         <v>-19927.46456264</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>353</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4363,11 +4609,17 @@
         <v>-19921.25166264</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>353</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +4651,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>353</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>353</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>353</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4495,11 +4765,17 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>353</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4804,17 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>353</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4561,11 +4843,17 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>353</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4594,11 +4882,17 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>353</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4627,11 +4921,17 @@
         <v>-24170.88196264</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>353</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4960,17 @@
         <v>-24168.87326264001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>353</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4999,17 @@
         <v>-24169.83636264001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>353</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +5038,17 @@
         <v>-24222.08776264001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>353</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +5077,17 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>353</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4792,11 +5116,17 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>353</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4825,11 +5155,17 @@
         <v>-24200.39276264001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>353</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +5194,17 @@
         <v>-25007.71816264001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>353</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +5233,17 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>353</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +5272,17 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>353</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +5311,17 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>353</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4990,11 +5350,17 @@
         <v>-21333.09196264001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>353</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5026,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>353</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>353</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +5467,19 @@
         <v>-24322.96056264001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>356</v>
+      </c>
+      <c r="J130" t="n">
+        <v>353</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +5508,19 @@
         <v>-24321.46056264001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>355</v>
+      </c>
+      <c r="J131" t="n">
+        <v>353</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5549,19 @@
         <v>-24321.46056264001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>356</v>
+      </c>
+      <c r="J132" t="n">
+        <v>353</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>353</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +5629,17 @@
         <v>-18968.31746264001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>353</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +5668,17 @@
         <v>-19968.31746264001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>353</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5707,17 @@
         <v>-19827.31746264001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>353</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>353</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>353</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>353</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>353</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>353</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +5944,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>353</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>353</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +6019,19 @@
         <v>-28925.39736264001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>355</v>
+      </c>
+      <c r="J144" t="n">
+        <v>353</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5584,11 +6060,19 @@
         <v>-28925.39736264001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>356</v>
+      </c>
+      <c r="J145" t="n">
+        <v>353</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +6101,19 @@
         <v>-28854.39736264001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>356</v>
+      </c>
+      <c r="J146" t="n">
+        <v>353</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>353</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +6181,19 @@
         <v>-28697.47756264001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>353</v>
+      </c>
+      <c r="J148" t="n">
+        <v>353</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +6225,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>353</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +6261,19 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>353</v>
+      </c>
+      <c r="J150" t="n">
+        <v>353</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +6305,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>353</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +6341,19 @@
         <v>-24282.49756264001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>354</v>
+      </c>
+      <c r="J152" t="n">
+        <v>353</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +6385,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>353</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6424,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>353</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6463,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>353</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5950,8 +6502,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>353</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5983,8 +6541,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>353</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6016,8 +6580,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>353</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +6619,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>353</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6082,8 +6658,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>353</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +6697,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>353</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +6736,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>353</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>353</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6814,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>353</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6247,8 +6853,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>353</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +6892,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>353</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6313,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>353</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>353</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>353</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>353</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>353</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>353</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>353</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +7201,17 @@
         <v>-2410.516562640009</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>353</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>353</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>353</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7321,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>353</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6673,11 +7357,17 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>353</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +7396,17 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>353</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6739,11 +7435,17 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>353</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +7474,17 @@
         <v>-13460.96806264001</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>353</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6805,11 +7513,17 @@
         <v>-13460.96806264001</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>353</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>353</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6871,15 +7591,23 @@
         <v>-9470.21136264001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>353</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.062988668555241</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.011331444759207</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6904,7 +7632,7 @@
         <v>-9470.21136264001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6937,7 +7665,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7003,7 +7731,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7036,7 +7764,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7069,7 +7797,7 @@
         <v>-21959.84306264001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7102,7 +7830,7 @@
         <v>-22647.37766264001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7135,7 +7863,7 @@
         <v>-22615.76466264001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7168,7 +7896,7 @@
         <v>-23854.05826264001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7201,7 +7929,7 @@
         <v>-23854.05826264001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7234,7 +7962,7 @@
         <v>-22927.57476264001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7267,7 +7995,7 @@
         <v>-22449.64656264001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7300,7 +8028,7 @@
         <v>-22469.55376264001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7333,7 +8061,7 @@
         <v>-22501.02636264002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7366,7 +8094,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7399,7 +8127,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7432,7 +8160,7 @@
         <v>-23006.49606264001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7465,7 +8193,7 @@
         <v>-23247.67196264001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7498,7 +8226,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7531,7 +8259,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7564,7 +8292,7 @@
         <v>-24594.25496264001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7597,7 +8325,7 @@
         <v>-24594.25496264001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7630,7 +8358,7 @@
         <v>-24594.25496264001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7663,7 +8391,7 @@
         <v>-24472.90386264001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7674,6 +8402,6 @@
       <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-12374.7583</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>357</v>
+      </c>
+      <c r="J3" t="n">
+        <v>357</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-13053.9892</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>357</v>
+      </c>
+      <c r="J4" t="n">
+        <v>357</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-13402.9892</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>355</v>
+      </c>
+      <c r="J5" t="n">
+        <v>357</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-13401.5692</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>353</v>
+      </c>
+      <c r="J6" t="n">
+        <v>353</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-13401.5692</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>354</v>
+      </c>
+      <c r="J7" t="n">
+        <v>353</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-13401.5692</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>354</v>
+      </c>
+      <c r="J8" t="n">
+        <v>353</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-7079.3674</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>354</v>
+      </c>
+      <c r="J9" t="n">
+        <v>353</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>-7079.3674</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>356</v>
+      </c>
+      <c r="J10" t="n">
+        <v>353</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>-12847.7537</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>356</v>
+      </c>
+      <c r="J11" t="n">
+        <v>353</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>-12365.5026</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>353</v>
+      </c>
+      <c r="J12" t="n">
+        <v>353</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>-12364.0926</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>356</v>
+      </c>
+      <c r="J13" t="n">
+        <v>353</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>-12388.6006</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>357</v>
+      </c>
+      <c r="J14" t="n">
+        <v>353</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>-12388.6006</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>353</v>
+      </c>
+      <c r="J15" t="n">
+        <v>353</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,19 @@
         <v>-12361.0006</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>353</v>
+      </c>
+      <c r="J16" t="n">
+        <v>353</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1050,19 @@
         <v>-13078.4417</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>356</v>
+      </c>
+      <c r="J17" t="n">
+        <v>353</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1091,19 @@
         <v>-13076.8417</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>351</v>
+      </c>
+      <c r="J18" t="n">
+        <v>353</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1135,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>353</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1174,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>353</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1213,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>353</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1252,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>353</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1291,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>353</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1330,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>353</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1369,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>353</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1408,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>353</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1447,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>353</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1486,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>353</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1525,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>353</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1564,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>353</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1603,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>353</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>353</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1681,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>353</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>353</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>353</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>353</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>353</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>353</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>353</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>353</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>353</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>353</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>353</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>353</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>353</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>353</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>353</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>353</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>353</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>353</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>353</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>353</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>353</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2500,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>353</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2539,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>353</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>353</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>353</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>353</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>353</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>353</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>353</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>353</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2851,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>353</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2890,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>353</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>353</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>353</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>353</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3046,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>353</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3085,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>353</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>353</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3163,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>353</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>353</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>353</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>353</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>353</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>353</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>353</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>353</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3475,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>353</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>353</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3553,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>353</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>353</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3631,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>353</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>353</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>353</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>353</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3787,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>353</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3826,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>353</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3865,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>353</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3904,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>353</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3943,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>353</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>353</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>353</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>353</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>353</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>353</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>353</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>353</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>353</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>353</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>353</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>353</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>353</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>353</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>353</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>353</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>353</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>353</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>353</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>353</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>353</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>353</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>353</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>353</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4879,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>353</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4918,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>353</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>353</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4996,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>353</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5035,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>353</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +5071,19 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>359</v>
+      </c>
+      <c r="J120" t="n">
+        <v>353</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +5112,19 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>357</v>
+      </c>
+      <c r="J121" t="n">
+        <v>353</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +5153,19 @@
         <v>-24200.39276264001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>357</v>
+      </c>
+      <c r="J122" t="n">
+        <v>353</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +5194,19 @@
         <v>-25007.71816264001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>358</v>
+      </c>
+      <c r="J123" t="n">
+        <v>353</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +5235,19 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>356</v>
+      </c>
+      <c r="J124" t="n">
+        <v>353</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5276,19 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>357</v>
+      </c>
+      <c r="J125" t="n">
+        <v>353</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +5317,19 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>357</v>
+      </c>
+      <c r="J126" t="n">
+        <v>353</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +5358,19 @@
         <v>-21333.09196264001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>357</v>
+      </c>
+      <c r="J127" t="n">
+        <v>353</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5399,19 @@
         <v>-24490.81266264001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>358</v>
+      </c>
+      <c r="J128" t="n">
+        <v>353</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4647,10 +5445,12 @@
       <c r="I129" t="n">
         <v>355</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>353</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4686,7 +5486,9 @@
       <c r="I130" t="n">
         <v>356</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>353</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4725,7 +5527,9 @@
       <c r="I131" t="n">
         <v>355</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>353</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,7 +5568,9 @@
       <c r="I132" t="n">
         <v>356</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>353</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,7 +5609,9 @@
       <c r="I133" t="n">
         <v>356</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>353</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,7 +5650,9 @@
       <c r="I134" t="n">
         <v>357</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>353</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,7 +5691,9 @@
       <c r="I135" t="n">
         <v>358</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>353</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,7 +5732,9 @@
       <c r="I136" t="n">
         <v>355</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>353</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4959,7 +5773,9 @@
       <c r="I137" t="n">
         <v>358</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>353</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,7 +5812,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>353</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5033,7 +5851,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>353</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,7 +5892,9 @@
       <c r="I140" t="n">
         <v>355</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>353</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,12 +5928,12 @@
         <v>-29029.90336264001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>355</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>353</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,7 +5972,9 @@
       <c r="I142" t="n">
         <v>355</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>353</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,10 +6008,14 @@
         <v>-29029.90336264001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>355</v>
+      </c>
+      <c r="J143" t="n">
+        <v>353</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5226,7 +6054,9 @@
       <c r="I144" t="n">
         <v>355</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>353</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,10 +6090,14 @@
         <v>-28925.39736264001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>356</v>
+      </c>
+      <c r="J145" t="n">
+        <v>353</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,10 +6131,14 @@
         <v>-28854.39736264001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>356</v>
+      </c>
+      <c r="J146" t="n">
+        <v>353</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,10 +6172,14 @@
         <v>-32785.18676264001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>357</v>
+      </c>
+      <c r="J147" t="n">
+        <v>353</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,10 +6213,14 @@
         <v>-28697.47756264001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>353</v>
+      </c>
+      <c r="J148" t="n">
+        <v>353</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,10 +6254,14 @@
         <v>-28897.47756264001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>356</v>
+      </c>
+      <c r="J149" t="n">
+        <v>353</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,10 +6295,14 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>353</v>
+      </c>
+      <c r="J150" t="n">
+        <v>353</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,10 +6336,14 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>354</v>
+      </c>
+      <c r="J151" t="n">
+        <v>353</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,10 +6377,14 @@
         <v>-24282.49756264001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>354</v>
+      </c>
+      <c r="J152" t="n">
+        <v>353</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,10 +6418,14 @@
         <v>-24530.30066264001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>356</v>
+      </c>
+      <c r="J153" t="n">
+        <v>353</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,7 +6464,9 @@
       <c r="I154" t="n">
         <v>354</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>353</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,7 +6503,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>353</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,7 +6544,9 @@
       <c r="I156" t="n">
         <v>355</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>353</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,10 +6580,14 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>355</v>
+      </c>
+      <c r="J157" t="n">
+        <v>353</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5745,10 +6621,14 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>356</v>
+      </c>
+      <c r="J158" t="n">
+        <v>353</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5782,10 +6662,14 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>356</v>
+      </c>
+      <c r="J159" t="n">
+        <v>353</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,10 +6703,14 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>356</v>
+      </c>
+      <c r="J160" t="n">
+        <v>353</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5856,10 +6744,14 @@
         <v>-13883.43046264001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>356</v>
+      </c>
+      <c r="J161" t="n">
+        <v>353</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,7 +6788,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>353</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,7 +6827,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>353</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,7 +6866,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>353</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,7 +6905,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>353</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,7 +6944,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>353</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,16 +6980,20 @@
         <v>588.5604373599917</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>353</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6113,11 +7019,17 @@
         <v>588.5604373599917</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>353</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6146,11 +7058,17 @@
         <v>3581.120437359992</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>353</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6182,8 +7100,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>353</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +7136,17 @@
         <v>8309.501037359991</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>353</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6245,15 +7175,23 @@
         <v>-4181.214762640009</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>353</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>1.060155807365439</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.011331444759207</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6410,7 +7348,7 @@
         <v>-483.4925626400095</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6443,7 +7381,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6476,7 +7414,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6509,7 +7447,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6707,7 +7645,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6740,7 +7678,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6773,7 +7711,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6806,7 +7744,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6839,7 +7777,7 @@
         <v>-21959.84306264001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6872,7 +7810,7 @@
         <v>-22647.37766264001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6905,7 +7843,7 @@
         <v>-22615.76466264001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6938,7 +7876,7 @@
         <v>-23854.05826264001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7004,7 +7942,7 @@
         <v>-22927.57476264001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7037,7 +7975,7 @@
         <v>-22449.64656264001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7070,7 +8008,7 @@
         <v>-22469.55376264001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7103,7 +8041,7 @@
         <v>-22501.02636264002</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7136,7 +8074,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7169,7 +8107,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7202,7 +8140,7 @@
         <v>-23006.49606264001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7268,7 +8206,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7301,7 +8239,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7334,7 +8272,7 @@
         <v>-24594.25496264001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7433,7 +8371,7 @@
         <v>-24472.90386264001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-20 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-12374.7583</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>28.4335</v>
       </c>
       <c r="G3" t="n">
-        <v>-12374.7583</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="I3" t="n">
         <v>357</v>
       </c>
-      <c r="J3" t="n">
-        <v>357</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>679.2309</v>
       </c>
       <c r="G4" t="n">
-        <v>-13053.9892</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="I4" t="n">
         <v>357</v>
       </c>
-      <c r="J4" t="n">
-        <v>357</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>349</v>
       </c>
       <c r="G5" t="n">
-        <v>-13402.9892</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="I5" t="n">
-        <v>355</v>
-      </c>
-      <c r="J5" t="n">
-        <v>357</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>357</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>-13401.5692</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I6" t="n">
         <v>353</v>
       </c>
-      <c r="J6" t="n">
-        <v>353</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>665</v>
       </c>
       <c r="G7" t="n">
-        <v>-13401.5692</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="I7" t="n">
-        <v>354</v>
-      </c>
-      <c r="J7" t="n">
-        <v>353</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>428</v>
       </c>
       <c r="G8" t="n">
-        <v>-13401.5692</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="I8" t="n">
-        <v>354</v>
-      </c>
-      <c r="J8" t="n">
-        <v>353</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,23 @@
         <v>6322.2018</v>
       </c>
       <c r="G9" t="n">
-        <v>-7079.3674</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="I9" t="n">
-        <v>354</v>
-      </c>
-      <c r="J9" t="n">
-        <v>353</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>353</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +731,23 @@
         <v>391.2995</v>
       </c>
       <c r="G10" t="n">
-        <v>-7079.3674</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I10" t="n">
-        <v>356</v>
-      </c>
-      <c r="J10" t="n">
-        <v>353</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +769,21 @@
         <v>5768.3863</v>
       </c>
       <c r="G11" t="n">
-        <v>-12847.7537</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>356</v>
-      </c>
-      <c r="J11" t="n">
-        <v>353</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +805,23 @@
         <v>482.2511</v>
       </c>
       <c r="G12" t="n">
-        <v>-12365.5026</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I12" t="n">
         <v>353</v>
       </c>
-      <c r="J12" t="n">
-        <v>353</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +843,23 @@
         <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>-12364.0926</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I13" t="n">
-        <v>356</v>
-      </c>
-      <c r="J13" t="n">
-        <v>353</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +881,23 @@
         <v>24.508</v>
       </c>
       <c r="G14" t="n">
-        <v>-12388.6006</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="I14" t="n">
-        <v>357</v>
-      </c>
-      <c r="J14" t="n">
-        <v>353</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,26 +919,23 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>-12388.6006</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I15" t="n">
         <v>353</v>
       </c>
-      <c r="J15" t="n">
-        <v>353</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1006,26 +957,23 @@
         <v>27.6</v>
       </c>
       <c r="G16" t="n">
-        <v>-12361.0006</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I16" t="n">
         <v>353</v>
       </c>
-      <c r="J16" t="n">
-        <v>353</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1047,26 +995,23 @@
         <v>717.4411</v>
       </c>
       <c r="G17" t="n">
-        <v>-13078.4417</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I17" t="n">
-        <v>356</v>
-      </c>
-      <c r="J17" t="n">
-        <v>353</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,26 +1033,23 @@
         <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>-13076.8417</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="I18" t="n">
-        <v>351</v>
-      </c>
-      <c r="J18" t="n">
-        <v>353</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1129,24 +1071,21 @@
         <v>235.4268</v>
       </c>
       <c r="G19" t="n">
-        <v>-13076.8417</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>353</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>353</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1168,24 +1107,21 @@
         <v>1246</v>
       </c>
       <c r="G20" t="n">
-        <v>-11830.8417</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>353</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>353</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1207,24 +1143,21 @@
         <v>117</v>
       </c>
       <c r="G21" t="n">
-        <v>-11830.8417</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>353</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>353</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1246,24 +1179,21 @@
         <v>820.34</v>
       </c>
       <c r="G22" t="n">
-        <v>-11830.8417</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>353</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>353</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1285,24 +1215,21 @@
         <v>112</v>
       </c>
       <c r="G23" t="n">
-        <v>-11718.8417</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>353</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>353</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1324,24 +1251,21 @@
         <v>118</v>
       </c>
       <c r="G24" t="n">
-        <v>-11718.8417</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>353</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>353</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1363,24 +1287,21 @@
         <v>955.6199</v>
       </c>
       <c r="G25" t="n">
-        <v>-11718.8417</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>353</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>353</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1402,24 +1323,21 @@
         <v>1685.2425</v>
       </c>
       <c r="G26" t="n">
-        <v>-10033.5992</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>353</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>353</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1441,24 +1359,21 @@
         <v>1566.9735</v>
       </c>
       <c r="G27" t="n">
-        <v>-10033.5992</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>353</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>353</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1480,24 +1395,21 @@
         <v>614.0182</v>
       </c>
       <c r="G28" t="n">
-        <v>-10033.5992</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>353</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>353</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1519,24 +1431,21 @@
         <v>457.2017</v>
       </c>
       <c r="G29" t="n">
-        <v>-10033.5992</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>353</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>353</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1558,24 +1467,21 @@
         <v>250.2915</v>
       </c>
       <c r="G30" t="n">
-        <v>-10283.8907</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>353</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>353</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1597,24 +1503,21 @@
         <v>409</v>
       </c>
       <c r="G31" t="n">
-        <v>-10283.8907</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>353</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>353</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1636,24 +1539,21 @@
         <v>136.3</v>
       </c>
       <c r="G32" t="n">
-        <v>-10283.8907</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>353</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>353</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1675,24 +1575,21 @@
         <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>-10283.8907</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>353</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>353</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1714,24 +1611,21 @@
         <v>206.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-10490.8906</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>353</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>353</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1753,24 +1647,21 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>-10490.8906</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>353</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>353</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,24 +1683,21 @@
         <v>384.4584</v>
       </c>
       <c r="G36" t="n">
-        <v>-10490.8906</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>353</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>353</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1831,24 +1719,21 @@
         <v>3445.4798</v>
       </c>
       <c r="G37" t="n">
-        <v>-10490.8906</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>353</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>353</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1870,24 +1755,21 @@
         <v>149</v>
       </c>
       <c r="G38" t="n">
-        <v>-10490.8906</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>353</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>353</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1909,24 +1791,21 @@
         <v>360.1</v>
       </c>
       <c r="G39" t="n">
-        <v>-10850.9906</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>353</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>353</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1948,24 +1827,21 @@
         <v>840.425</v>
       </c>
       <c r="G40" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>353</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>353</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1987,24 +1863,21 @@
         <v>137.3802</v>
       </c>
       <c r="G41" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>353</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>353</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2026,24 +1899,21 @@
         <v>1868.3408</v>
       </c>
       <c r="G42" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>353</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>353</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2065,24 +1935,21 @@
         <v>325</v>
       </c>
       <c r="G43" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>353</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>353</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2104,24 +1971,21 @@
         <v>2999.6952</v>
       </c>
       <c r="G44" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>353</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>353</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2143,24 +2007,21 @@
         <v>344.8195</v>
       </c>
       <c r="G45" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>353</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>353</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2182,24 +2043,21 @@
         <v>496.9663</v>
       </c>
       <c r="G46" t="n">
-        <v>-10010.5656</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>353</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>353</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2221,24 +2079,21 @@
         <v>921.4</v>
       </c>
       <c r="G47" t="n">
-        <v>-9089.165600000002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>353</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>353</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2260,24 +2115,21 @@
         <v>1400</v>
       </c>
       <c r="G48" t="n">
-        <v>-9089.165600000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>353</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>353</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2299,24 +2151,21 @@
         <v>1086.5578</v>
       </c>
       <c r="G49" t="n">
-        <v>-10175.7234</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>353</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>353</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,24 +2187,21 @@
         <v>449.4</v>
       </c>
       <c r="G50" t="n">
-        <v>-10625.1234</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>353</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>353</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2377,24 +2223,21 @@
         <v>1848.2</v>
       </c>
       <c r="G51" t="n">
-        <v>-8776.923400000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>353</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>353</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,24 +2259,21 @@
         <v>370</v>
       </c>
       <c r="G52" t="n">
-        <v>-9146.923400000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>353</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>353</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2455,24 +2295,21 @@
         <v>778.2</v>
       </c>
       <c r="G53" t="n">
-        <v>-8368.723400000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>353</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>353</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,24 +2331,21 @@
         <v>90.7</v>
       </c>
       <c r="G54" t="n">
-        <v>-8368.723400000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>353</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>353</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2533,24 +2367,21 @@
         <v>1.4</v>
       </c>
       <c r="G55" t="n">
-        <v>-8367.323400000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>353</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>353</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2572,24 +2403,21 @@
         <v>98.83240000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-8466.1558</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>353</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>353</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2611,24 +2439,21 @@
         <v>101.1688</v>
       </c>
       <c r="G57" t="n">
-        <v>-8466.1558</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>353</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>353</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2650,24 +2475,21 @@
         <v>444.2314</v>
       </c>
       <c r="G58" t="n">
-        <v>-8466.1558</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>353</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>353</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2689,24 +2511,21 @@
         <v>1.4</v>
       </c>
       <c r="G59" t="n">
-        <v>-8464.755800000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>353</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>353</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2728,24 +2547,21 @@
         <v>6280.1229</v>
       </c>
       <c r="G60" t="n">
-        <v>-14744.8787</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>353</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>353</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2767,24 +2583,21 @@
         <v>1.5</v>
       </c>
       <c r="G61" t="n">
-        <v>-14743.3787</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>353</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>353</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2806,24 +2619,21 @@
         <v>551.2125</v>
       </c>
       <c r="G62" t="n">
-        <v>-14192.1662</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>353</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>353</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2845,24 +2655,21 @@
         <v>55.401</v>
       </c>
       <c r="G63" t="n">
-        <v>-14192.1662</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>353</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>353</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2884,24 +2691,21 @@
         <v>1977.0982</v>
       </c>
       <c r="G64" t="n">
-        <v>-12215.068</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>353</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>353</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2923,24 +2727,21 @@
         <v>98.0497</v>
       </c>
       <c r="G65" t="n">
-        <v>-12313.1177</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>353</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>353</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2962,24 +2763,21 @@
         <v>93.8878</v>
       </c>
       <c r="G66" t="n">
-        <v>-12407.0055</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>353</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>353</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3001,24 +2799,21 @@
         <v>1.4</v>
       </c>
       <c r="G67" t="n">
-        <v>-12405.6055</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>353</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>353</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3040,24 +2835,21 @@
         <v>104</v>
       </c>
       <c r="G68" t="n">
-        <v>-12509.6055</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>353</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>353</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3079,24 +2871,21 @@
         <v>137.36263736</v>
       </c>
       <c r="G69" t="n">
-        <v>-12372.24286264</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>353</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>353</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,24 +2907,21 @@
         <v>1270.7975</v>
       </c>
       <c r="G70" t="n">
-        <v>-13643.04036264</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>353</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>353</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3157,24 +2943,21 @@
         <v>137.3626</v>
       </c>
       <c r="G71" t="n">
-        <v>-13643.04036264</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>353</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>353</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3196,24 +2979,21 @@
         <v>1.4</v>
       </c>
       <c r="G72" t="n">
-        <v>-13641.64036264</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>353</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>353</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3235,24 +3015,21 @@
         <v>1.9295</v>
       </c>
       <c r="G73" t="n">
-        <v>-13643.56986264</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>353</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>353</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3274,24 +3051,21 @@
         <v>11.2892</v>
       </c>
       <c r="G74" t="n">
-        <v>-13654.85906264</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>353</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>353</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3313,24 +3087,21 @@
         <v>1.4</v>
       </c>
       <c r="G75" t="n">
-        <v>-13653.45906264</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>353</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>353</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3352,24 +3123,21 @@
         <v>170.5482</v>
       </c>
       <c r="G76" t="n">
-        <v>-13824.00726264</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>353</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>353</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3391,24 +3159,21 @@
         <v>239.7896</v>
       </c>
       <c r="G77" t="n">
-        <v>-13824.00726264</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>353</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>353</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3430,24 +3195,21 @@
         <v>137.8687</v>
       </c>
       <c r="G78" t="n">
-        <v>-13824.00726264</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>353</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>353</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3469,24 +3231,21 @@
         <v>233.8768</v>
       </c>
       <c r="G79" t="n">
-        <v>-14057.88406264</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>353</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>353</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,24 +3267,21 @@
         <v>111.2337</v>
       </c>
       <c r="G80" t="n">
-        <v>-13946.65036264</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>353</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>353</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3547,24 +3303,21 @@
         <v>318.1994</v>
       </c>
       <c r="G81" t="n">
-        <v>-14264.84976264</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>353</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>353</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3586,24 +3339,21 @@
         <v>227.3275</v>
       </c>
       <c r="G82" t="n">
-        <v>-14037.52226264</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>353</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>353</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3625,24 +3375,21 @@
         <v>681.8006</v>
       </c>
       <c r="G83" t="n">
-        <v>-14719.32286264</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>353</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>353</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3664,24 +3411,21 @@
         <v>227.3275</v>
       </c>
       <c r="G84" t="n">
-        <v>-14719.32286264</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>353</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>353</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3703,24 +3447,21 @@
         <v>981.1402</v>
       </c>
       <c r="G85" t="n">
-        <v>-13738.18266264</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>353</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>353</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3742,24 +3483,21 @@
         <v>1.4</v>
       </c>
       <c r="G86" t="n">
-        <v>-13736.78266264</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>353</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>353</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3781,24 +3519,21 @@
         <v>234.1044</v>
       </c>
       <c r="G87" t="n">
-        <v>-13970.88706264</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>353</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>353</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3820,24 +3555,21 @@
         <v>1208.4677</v>
       </c>
       <c r="G88" t="n">
-        <v>-15179.35476264</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>353</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>353</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3859,24 +3591,21 @@
         <v>617.5044</v>
       </c>
       <c r="G89" t="n">
-        <v>-14561.85036264</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>353</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>353</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3898,24 +3627,21 @@
         <v>222.0503</v>
       </c>
       <c r="G90" t="n">
-        <v>-14783.90066264</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>353</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>353</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3937,24 +3663,21 @@
         <v>1.4001</v>
       </c>
       <c r="G91" t="n">
-        <v>-14782.50056264</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>353</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>353</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3976,24 +3699,21 @@
         <v>260</v>
       </c>
       <c r="G92" t="n">
-        <v>-14782.50056264</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>353</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>353</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4015,24 +3735,21 @@
         <v>546</v>
       </c>
       <c r="G93" t="n">
-        <v>-14782.50056264</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>353</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>353</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4054,24 +3771,21 @@
         <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>-14782.50056264</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>353</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>353</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4093,24 +3807,21 @@
         <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>-14782.50056264</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>353</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>353</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4132,24 +3843,21 @@
         <v>13.0468</v>
       </c>
       <c r="G96" t="n">
-        <v>-14782.50056264</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>353</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>353</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4171,24 +3879,21 @@
         <v>990.4965999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-15772.99716264</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>353</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>353</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4210,24 +3915,21 @@
         <v>165.2</v>
       </c>
       <c r="G98" t="n">
-        <v>-15938.19716264</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>353</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>353</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4249,24 +3951,21 @@
         <v>2624.7586</v>
       </c>
       <c r="G99" t="n">
-        <v>-18562.95576264</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>353</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>353</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4288,24 +3987,21 @@
         <v>12.2895</v>
       </c>
       <c r="G100" t="n">
-        <v>-18562.95576264</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>353</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>353</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4327,24 +4023,21 @@
         <v>136.9413</v>
       </c>
       <c r="G101" t="n">
-        <v>-18562.95576264</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>353</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>353</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4366,24 +4059,21 @@
         <v>800.8944</v>
       </c>
       <c r="G102" t="n">
-        <v>-19363.85016264</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>353</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>353</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4405,24 +4095,21 @@
         <v>818.7234</v>
       </c>
       <c r="G103" t="n">
-        <v>-19363.85016264</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>353</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>353</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4444,24 +4131,21 @@
         <v>588.4212</v>
       </c>
       <c r="G104" t="n">
-        <v>-19363.85016264</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>353</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>353</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4483,24 +4167,21 @@
         <v>1.4</v>
       </c>
       <c r="G105" t="n">
-        <v>-19362.45016264</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>353</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>353</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4522,24 +4203,21 @@
         <v>565.0144</v>
       </c>
       <c r="G106" t="n">
-        <v>-19927.46456264</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>353</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>353</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4561,24 +4239,21 @@
         <v>1394.9688</v>
       </c>
       <c r="G107" t="n">
-        <v>-19927.46456264</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>353</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>353</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,24 +4275,21 @@
         <v>6.2129</v>
       </c>
       <c r="G108" t="n">
-        <v>-19921.25166264</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>353</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>353</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4639,24 +4311,21 @@
         <v>30</v>
       </c>
       <c r="G109" t="n">
-        <v>-19951.25166264</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>353</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>353</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4678,24 +4347,21 @@
         <v>6.2129</v>
       </c>
       <c r="G110" t="n">
-        <v>-19951.25166264</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>353</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>353</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4717,24 +4383,21 @@
         <v>1595.4202</v>
       </c>
       <c r="G111" t="n">
-        <v>-19951.25166264</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>353</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>353</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4756,24 +4419,21 @@
         <v>95.9194</v>
       </c>
       <c r="G112" t="n">
-        <v>-19855.33226264</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>353</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>353</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4795,24 +4455,21 @@
         <v>300.0015</v>
       </c>
       <c r="G113" t="n">
-        <v>-19855.33226264</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>353</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>353</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4834,24 +4491,21 @@
         <v>200.001</v>
       </c>
       <c r="G114" t="n">
-        <v>-19855.33226264</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>353</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>353</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4873,24 +4527,21 @@
         <v>209.5742</v>
       </c>
       <c r="G115" t="n">
-        <v>-19855.33226264</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>353</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>353</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4912,24 +4563,21 @@
         <v>4315.5497</v>
       </c>
       <c r="G116" t="n">
-        <v>-24170.88196264</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>353</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>353</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4951,24 +4599,21 @@
         <v>2.0087</v>
       </c>
       <c r="G117" t="n">
-        <v>-24168.87326264001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>353</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>353</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4990,24 +4635,21 @@
         <v>0.9631</v>
       </c>
       <c r="G118" t="n">
-        <v>-24169.83636264001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>353</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>353</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5029,24 +4671,21 @@
         <v>52.2514</v>
       </c>
       <c r="G119" t="n">
-        <v>-24222.08776264001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>353</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>353</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5068,26 +4707,21 @@
         <v>13.0628</v>
       </c>
       <c r="G120" t="n">
-        <v>-24235.15056264001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>359</v>
-      </c>
-      <c r="J120" t="n">
-        <v>353</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5109,26 +4743,21 @@
         <v>34.9372</v>
       </c>
       <c r="G121" t="n">
-        <v>-24235.15056264001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>357</v>
-      </c>
-      <c r="J121" t="n">
-        <v>353</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5150,26 +4779,21 @@
         <v>34.7578</v>
       </c>
       <c r="G122" t="n">
-        <v>-24200.39276264001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>357</v>
-      </c>
-      <c r="J122" t="n">
-        <v>353</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5191,26 +4815,21 @@
         <v>807.3253999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>-25007.71816264001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>358</v>
-      </c>
-      <c r="J123" t="n">
-        <v>353</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5232,26 +4851,21 @@
         <v>96.876</v>
       </c>
       <c r="G124" t="n">
-        <v>-24910.84216264001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>356</v>
-      </c>
-      <c r="J124" t="n">
-        <v>353</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5273,26 +4887,21 @@
         <v>429</v>
       </c>
       <c r="G125" t="n">
-        <v>-24910.84216264001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>357</v>
-      </c>
-      <c r="J125" t="n">
-        <v>353</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5314,26 +4923,21 @@
         <v>824.5236</v>
       </c>
       <c r="G126" t="n">
-        <v>-24910.84216264001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>357</v>
-      </c>
-      <c r="J126" t="n">
-        <v>353</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5355,26 +4959,21 @@
         <v>3577.7502</v>
       </c>
       <c r="G127" t="n">
-        <v>-21333.09196264001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>357</v>
-      </c>
-      <c r="J127" t="n">
-        <v>353</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5396,26 +4995,21 @@
         <v>3157.7207</v>
       </c>
       <c r="G128" t="n">
-        <v>-24490.81266264001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>358</v>
-      </c>
-      <c r="J128" t="n">
-        <v>353</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5437,26 +5031,21 @@
         <v>444.8521</v>
       </c>
       <c r="G129" t="n">
-        <v>-24045.96056264001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>355</v>
-      </c>
-      <c r="J129" t="n">
-        <v>353</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5478,26 +5067,23 @@
         <v>277</v>
       </c>
       <c r="G130" t="n">
-        <v>-24322.96056264001</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="I130" t="n">
-        <v>356</v>
-      </c>
-      <c r="J130" t="n">
-        <v>353</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5519,26 +5105,21 @@
         <v>1.5</v>
       </c>
       <c r="G131" t="n">
-        <v>-24321.46056264001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>355</v>
-      </c>
-      <c r="J131" t="n">
-        <v>353</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5560,26 +5141,21 @@
         <v>250.5</v>
       </c>
       <c r="G132" t="n">
-        <v>-24321.46056264001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>356</v>
-      </c>
-      <c r="J132" t="n">
-        <v>353</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5601,26 +5177,21 @@
         <v>5351.7431</v>
       </c>
       <c r="G133" t="n">
-        <v>-18969.71746264001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>356</v>
-      </c>
-      <c r="J133" t="n">
-        <v>353</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5642,26 +5213,21 @@
         <v>1.4</v>
       </c>
       <c r="G134" t="n">
-        <v>-18968.31746264001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>357</v>
-      </c>
-      <c r="J134" t="n">
-        <v>353</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5683,26 +5249,21 @@
         <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>-19968.31746264001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>358</v>
-      </c>
-      <c r="J135" t="n">
-        <v>353</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5724,26 +5285,21 @@
         <v>141</v>
       </c>
       <c r="G136" t="n">
-        <v>-19827.31746264001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>355</v>
-      </c>
-      <c r="J136" t="n">
-        <v>353</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5765,26 +5321,21 @@
         <v>14700.1637</v>
       </c>
       <c r="G137" t="n">
-        <v>-34527.48116264001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>358</v>
-      </c>
-      <c r="J137" t="n">
-        <v>353</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5806,24 +5357,21 @@
         <v>5497.5778</v>
       </c>
       <c r="G138" t="n">
-        <v>-29029.90336264001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>353</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>353</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5845,24 +5393,21 @@
         <v>1000</v>
       </c>
       <c r="G139" t="n">
-        <v>-29029.90336264001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>353</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>353</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5884,26 +5429,21 @@
         <v>288.1799</v>
       </c>
       <c r="G140" t="n">
-        <v>-29029.90336264001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>355</v>
-      </c>
-      <c r="J140" t="n">
-        <v>353</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5925,24 +5465,21 @@
         <v>1972.0868</v>
       </c>
       <c r="G141" t="n">
-        <v>-29029.90336264001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>353</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>353</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5964,26 +5501,21 @@
         <v>328.8828</v>
       </c>
       <c r="G142" t="n">
-        <v>-29029.90336264001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>355</v>
-      </c>
-      <c r="J142" t="n">
-        <v>353</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6005,26 +5537,21 @@
         <v>87.5763</v>
       </c>
       <c r="G143" t="n">
-        <v>-29029.90336264001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>355</v>
-      </c>
-      <c r="J143" t="n">
-        <v>353</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6046,26 +5573,21 @@
         <v>104.506</v>
       </c>
       <c r="G144" t="n">
-        <v>-28925.39736264001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>355</v>
-      </c>
-      <c r="J144" t="n">
-        <v>353</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6087,26 +5609,21 @@
         <v>140.845</v>
       </c>
       <c r="G145" t="n">
-        <v>-28925.39736264001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>356</v>
-      </c>
-      <c r="J145" t="n">
-        <v>353</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6128,26 +5645,21 @@
         <v>71</v>
       </c>
       <c r="G146" t="n">
-        <v>-28854.39736264001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>356</v>
-      </c>
-      <c r="J146" t="n">
-        <v>353</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6169,26 +5681,21 @@
         <v>3930.7894</v>
       </c>
       <c r="G147" t="n">
-        <v>-32785.18676264001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>357</v>
-      </c>
-      <c r="J147" t="n">
-        <v>353</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6210,26 +5717,21 @@
         <v>4087.7092</v>
       </c>
       <c r="G148" t="n">
-        <v>-28697.47756264001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
         <v>353</v>
       </c>
-      <c r="J148" t="n">
-        <v>353</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6251,26 +5753,21 @@
         <v>200</v>
       </c>
       <c r="G149" t="n">
-        <v>-28897.47756264001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>356</v>
-      </c>
-      <c r="J149" t="n">
-        <v>353</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6292,26 +5789,21 @@
         <v>4608.98</v>
       </c>
       <c r="G150" t="n">
-        <v>-24288.49756264001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
         <v>353</v>
       </c>
-      <c r="J150" t="n">
-        <v>353</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6333,26 +5825,21 @@
         <v>103.2188</v>
       </c>
       <c r="G151" t="n">
-        <v>-24288.49756264001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>354</v>
-      </c>
-      <c r="J151" t="n">
-        <v>353</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6374,26 +5861,21 @@
         <v>6</v>
       </c>
       <c r="G152" t="n">
-        <v>-24282.49756264001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>354</v>
-      </c>
-      <c r="J152" t="n">
-        <v>353</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6415,26 +5897,21 @@
         <v>247.8031</v>
       </c>
       <c r="G153" t="n">
-        <v>-24530.30066264001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>356</v>
-      </c>
-      <c r="J153" t="n">
-        <v>353</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6456,26 +5933,21 @@
         <v>2421.6139</v>
       </c>
       <c r="G154" t="n">
-        <v>-24530.30066264001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>354</v>
-      </c>
-      <c r="J154" t="n">
-        <v>353</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6497,24 +5969,21 @@
         <v>535.8139</v>
       </c>
       <c r="G155" t="n">
-        <v>-23994.48676264001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>353</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>353</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6536,26 +6005,21 @@
         <v>104</v>
       </c>
       <c r="G156" t="n">
-        <v>-23994.48676264001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>355</v>
-      </c>
-      <c r="J156" t="n">
-        <v>353</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6577,26 +6041,21 @@
         <v>3727.8139</v>
       </c>
       <c r="G157" t="n">
-        <v>-20266.67286264001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>355</v>
-      </c>
-      <c r="J157" t="n">
-        <v>353</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6618,26 +6077,21 @@
         <v>1042</v>
       </c>
       <c r="G158" t="n">
-        <v>-20266.67286264001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>356</v>
-      </c>
-      <c r="J158" t="n">
-        <v>353</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6659,26 +6113,21 @@
         <v>2380.6205</v>
       </c>
       <c r="G159" t="n">
-        <v>-20266.67286264001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>356</v>
-      </c>
-      <c r="J159" t="n">
-        <v>353</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6700,26 +6149,21 @@
         <v>368</v>
       </c>
       <c r="G160" t="n">
-        <v>-20266.67286264001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>356</v>
-      </c>
-      <c r="J160" t="n">
-        <v>353</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6741,26 +6185,21 @@
         <v>6383.2424</v>
       </c>
       <c r="G161" t="n">
-        <v>-13883.43046264001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>356</v>
-      </c>
-      <c r="J161" t="n">
-        <v>353</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>353</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6782,24 +6221,21 @@
         <v>159</v>
       </c>
       <c r="G162" t="n">
-        <v>-13883.43046264001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>353</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>353</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6821,24 +6257,21 @@
         <v>4275.5578</v>
       </c>
       <c r="G163" t="n">
-        <v>-18158.98826264001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>353</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>353</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6860,24 +6293,21 @@
         <v>240.382</v>
       </c>
       <c r="G164" t="n">
-        <v>-17918.60626264001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>353</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>353</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6899,24 +6329,21 @@
         <v>14194.5745</v>
       </c>
       <c r="G165" t="n">
-        <v>-3724.031762640008</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>353</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>353</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6938,24 +6365,21 @@
         <v>4312.5922</v>
       </c>
       <c r="G166" t="n">
-        <v>588.5604373599917</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>353</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>353</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6977,24 +6401,21 @@
         <v>1052.7427</v>
       </c>
       <c r="G167" t="n">
-        <v>588.5604373599917</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>353</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>353</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7016,24 +6437,21 @@
         <v>11.04</v>
       </c>
       <c r="G168" t="n">
-        <v>588.5604373599917</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>353</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>353</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7055,24 +6473,21 @@
         <v>2992.56</v>
       </c>
       <c r="G169" t="n">
-        <v>3581.120437359992</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>353</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>353</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7094,24 +6509,21 @@
         <v>1314.7706</v>
       </c>
       <c r="G170" t="n">
-        <v>2266.349837359991</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>353</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>353</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7133,24 +6545,21 @@
         <v>6043.1512</v>
       </c>
       <c r="G171" t="n">
-        <v>8309.501037359991</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>353</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>353</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7172,26 +6581,21 @@
         <v>12490.7158</v>
       </c>
       <c r="G172" t="n">
-        <v>-4181.214762640009</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>353</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1.060155807365439</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.011331444759207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>353</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7213,18 +6617,21 @@
         <v>3803.6982</v>
       </c>
       <c r="G173" t="n">
-        <v>-377.5165626400094</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>353</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7246,18 +6653,21 @@
         <v>2033</v>
       </c>
       <c r="G174" t="n">
-        <v>-2410.516562640009</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>353</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7279,18 +6689,21 @@
         <v>1925.715</v>
       </c>
       <c r="G175" t="n">
-        <v>-484.8015626400095</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>353</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7312,18 +6725,21 @@
         <v>4141.6998</v>
       </c>
       <c r="G176" t="n">
-        <v>-484.8015626400095</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>353</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7345,18 +6761,21 @@
         <v>1.309</v>
       </c>
       <c r="G177" t="n">
-        <v>-483.4925626400095</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>353</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7378,18 +6797,23 @@
         <v>11318.0197</v>
       </c>
       <c r="G178" t="n">
-        <v>-11801.51226264001</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>353</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1.062988668555241</v>
+      </c>
       <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>1.011331444759207</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7411,18 +6835,15 @@
         <v>99.98560000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>-11801.51226264001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7444,18 +6865,15 @@
         <v>1181.1911</v>
       </c>
       <c r="G180" t="n">
-        <v>-11801.51226264001</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7477,18 +6895,15 @@
         <v>1659.4558</v>
       </c>
       <c r="G181" t="n">
-        <v>-13460.96806264001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7510,18 +6925,15 @@
         <v>1204.1418</v>
       </c>
       <c r="G182" t="n">
-        <v>-13460.96806264001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7543,18 +6955,15 @@
         <v>5648.9503</v>
       </c>
       <c r="G183" t="n">
-        <v>-7812.017762640009</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7576,18 +6985,15 @@
         <v>1658.1936</v>
       </c>
       <c r="G184" t="n">
-        <v>-9470.21136264001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7609,18 +7015,15 @@
         <v>691.4</v>
       </c>
       <c r="G185" t="n">
-        <v>-9470.21136264001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7642,18 +7045,15 @@
         <v>3992.8198</v>
       </c>
       <c r="G186" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7675,18 +7075,15 @@
         <v>2219.5864</v>
       </c>
       <c r="G187" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7708,18 +7105,15 @@
         <v>3413.0747851</v>
       </c>
       <c r="G188" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7741,18 +7135,15 @@
         <v>3045.6334149</v>
       </c>
       <c r="G189" t="n">
-        <v>-13463.03116264001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7774,18 +7165,15 @@
         <v>8496.811900000001</v>
       </c>
       <c r="G190" t="n">
-        <v>-21959.84306264001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7807,18 +7195,15 @@
         <v>687.5346</v>
       </c>
       <c r="G191" t="n">
-        <v>-22647.37766264001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7840,18 +7225,15 @@
         <v>31.613</v>
       </c>
       <c r="G192" t="n">
-        <v>-22615.76466264001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7873,18 +7255,15 @@
         <v>1238.2936</v>
       </c>
       <c r="G193" t="n">
-        <v>-23854.05826264001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7906,18 +7285,15 @@
         <v>313.6396</v>
       </c>
       <c r="G194" t="n">
-        <v>-23854.05826264001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7939,18 +7315,15 @@
         <v>926.4835</v>
       </c>
       <c r="G195" t="n">
-        <v>-22927.57476264001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7972,18 +7345,15 @@
         <v>477.9282</v>
       </c>
       <c r="G196" t="n">
-        <v>-22449.64656264001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8005,18 +7375,15 @@
         <v>19.9072</v>
       </c>
       <c r="G197" t="n">
-        <v>-22469.55376264001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8038,18 +7405,15 @@
         <v>31.4726</v>
       </c>
       <c r="G198" t="n">
-        <v>-22501.02636264002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8071,18 +7435,15 @@
         <v>506.8697</v>
       </c>
       <c r="G199" t="n">
-        <v>-23007.89606264001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8104,18 +7465,15 @@
         <v>303.67</v>
       </c>
       <c r="G200" t="n">
-        <v>-23007.89606264001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8137,18 +7495,15 @@
         <v>1.4</v>
       </c>
       <c r="G201" t="n">
-        <v>-23006.49606264001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8170,18 +7525,15 @@
         <v>241.1759</v>
       </c>
       <c r="G202" t="n">
-        <v>-23247.67196264001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8203,18 +7555,15 @@
         <v>317.0741</v>
       </c>
       <c r="G203" t="n">
-        <v>-23564.74606264001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8236,18 +7585,15 @@
         <v>333.8854</v>
       </c>
       <c r="G204" t="n">
-        <v>-23564.74606264001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8269,18 +7615,15 @@
         <v>1029.5089</v>
       </c>
       <c r="G205" t="n">
-        <v>-24594.25496264001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8302,18 +7645,15 @@
         <v>59.87</v>
       </c>
       <c r="G206" t="n">
-        <v>-24594.25496264001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8335,18 +7675,15 @@
         <v>340.8909</v>
       </c>
       <c r="G207" t="n">
-        <v>-24594.25496264001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8368,18 +7705,15 @@
         <v>121.3511</v>
       </c>
       <c r="G208" t="n">
-        <v>-24472.90386264001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
